--- a/Excel/镇魂街/achieve.成就.xlsx
+++ b/Excel/镇魂街/achieve.成就.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="成就1级页签" sheetId="29" r:id="rId3"/>
     <sheet name="成就2级页签" sheetId="30" r:id="rId4"/>
     <sheet name="成就条件类型" sheetId="28" r:id="rId5"/>
+    <sheet name="每日推荐" sheetId="31" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4833,7 +4834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -12808,4 +12809,17 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/achieve.成就.xlsx
+++ b/Excel/镇魂街/achieve.成就.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="607">
   <si>
     <t>sheet名</t>
   </si>
@@ -4647,349 +4647,373 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>通关第二章</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第三章</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难第二章</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难第三章</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级神器1配件1激活</t>
+  </si>
+  <si>
+    <t>初级神器1配件2激活</t>
+  </si>
+  <si>
+    <t>初级神器2配件1激活</t>
+  </si>
+  <si>
+    <t>初级神器2配件2激活</t>
+  </si>
+  <si>
+    <t>通关第四章</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第五章</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难第四章</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关困难第五章</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器1配件1激活</t>
+  </si>
+  <si>
+    <t>中级神器1配件2激活</t>
+  </si>
+  <si>
+    <t>中级神器1配件3激活</t>
+  </si>
+  <si>
+    <t>中级神器1配件4激活</t>
+  </si>
+  <si>
+    <t>初探风之楼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>初探花之楼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>初探雪之楼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>初探月之楼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼总通关数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>花门通关数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪门通关数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>月门通关数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2配件1激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2配件2激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2配件3激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级神器2配件4激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>十殿阎罗</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>十殿阎罗-1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>十殿阎罗-2</t>
+  </si>
+  <si>
+    <t>十殿阎罗-3</t>
+  </si>
+  <si>
+    <t>十殿阎罗-4</t>
+  </si>
+  <si>
+    <t>十殿阎罗-5</t>
+  </si>
+  <si>
+    <t>十殿阎罗-6</t>
+  </si>
+  <si>
+    <t>拥有6个50级的寄灵人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有6个50级的守护灵</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过芦花古楼风-10层</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过芦花古楼花-10层</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有一个SSR寄灵人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有一个SSR守护灵</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器1配件4激活</t>
+  </si>
+  <si>
+    <t>高级神器1配件1激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器1配件2激活</t>
+  </si>
+  <si>
+    <t>高级神器1配件3激活</t>
+  </si>
+  <si>
+    <t>高级神器1配件5激活</t>
+  </si>
+  <si>
+    <t>高级神器1配件6激活</t>
+  </si>
+  <si>
+    <t>大夏龙雀-1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>大夏龙雀-2</t>
+  </si>
+  <si>
+    <t>大夏龙雀-3</t>
+  </si>
+  <si>
+    <t>大夏龙雀-4</t>
+  </si>
+  <si>
+    <t>大夏龙雀-5</t>
+  </si>
+  <si>
+    <t>大夏龙雀-6</t>
+  </si>
+  <si>
+    <t>芦花古楼雪第15层</t>
+  </si>
+  <si>
+    <t>芦花古楼月第15层</t>
+  </si>
+  <si>
+    <t>等级到达40级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级到达50级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器2配件1激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器2配件2激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器2配件3激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器2配件4激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器2配件5激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器2配件6激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过芦花古楼风-7层</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过芦花古楼花-7层</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过芦花古楼雪-7层</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过芦花古楼月-7层</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有夏侯惇</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活专属武器的数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有特定守护灵</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿波普之刃-1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿波普之刃-2</t>
+  </si>
+  <si>
+    <t>阿波普之刃-3</t>
+  </si>
+  <si>
+    <t>阿波普之刃-4</t>
+  </si>
+  <si>
+    <t>阿波普之刃-5</t>
+  </si>
+  <si>
+    <t>阿波普之刃-6</t>
+  </si>
+  <si>
+    <t>个人竞技胜利场数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高积分</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人竞技场胜利30次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人竞技场胜利60次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个3星寄灵人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有3个3星守护灵</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场历史最高分1600分</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场历史最高分2000分</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器3配件1激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器3配件2激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器3配件3激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器3配件4激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器3配件5激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级神器3配件6激活</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>通关指定剧情关卡</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>通关第二章</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第三章</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关困难第二章</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关困难第三章</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级神器1配件1激活</t>
-  </si>
-  <si>
-    <t>初级神器1配件2激活</t>
-  </si>
-  <si>
-    <t>初级神器2配件1激活</t>
-  </si>
-  <si>
-    <t>初级神器2配件2激活</t>
-  </si>
-  <si>
-    <t>通关第四章</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第五章</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关困难第四章</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关困难第五章</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级神器1配件1激活</t>
-  </si>
-  <si>
-    <t>中级神器1配件2激活</t>
-  </si>
-  <si>
-    <t>中级神器1配件3激活</t>
-  </si>
-  <si>
-    <t>中级神器1配件4激活</t>
-  </si>
-  <si>
-    <t>初探风之楼</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>初探花之楼</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>初探雪之楼</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>初探月之楼</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼总通关数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>风门通关数</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>花门通关数</t>
+    <t>登录天数</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>雪门通关数</t>
+    <t>特定等级神器的数量</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>月门通关数</t>
+    <t>神器大点等级</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>中级神器2配件1激活</t>
+    <t>神器ID</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>中级神器2配件2激活</t>
+    <t>等级</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>中级神器2配件3激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级神器2配件4激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>十殿阎罗</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>十殿阎罗-1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>十殿阎罗-2</t>
-  </si>
-  <si>
-    <t>十殿阎罗-3</t>
-  </si>
-  <si>
-    <t>十殿阎罗-4</t>
-  </si>
-  <si>
-    <t>十殿阎罗-5</t>
-  </si>
-  <si>
-    <t>十殿阎罗-6</t>
-  </si>
-  <si>
-    <t>拥有6个50级的寄灵人</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有6个50级的守护灵</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过芦花古楼风-10层</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过芦花古楼花-10层</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有一个SSR寄灵人</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有一个SSR守护灵</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器1配件4激活</t>
-  </si>
-  <si>
-    <t>高级神器1配件1激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器1配件2激活</t>
-  </si>
-  <si>
-    <t>高级神器1配件3激活</t>
-  </si>
-  <si>
-    <t>高级神器1配件5激活</t>
-  </si>
-  <si>
-    <t>高级神器1配件6激活</t>
-  </si>
-  <si>
-    <t>大夏龙雀-1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>大夏龙雀-2</t>
-  </si>
-  <si>
-    <t>大夏龙雀-3</t>
-  </si>
-  <si>
-    <t>大夏龙雀-4</t>
-  </si>
-  <si>
-    <t>大夏龙雀-5</t>
-  </si>
-  <si>
-    <t>大夏龙雀-6</t>
-  </si>
-  <si>
-    <t>芦花古楼雪第15层</t>
-  </si>
-  <si>
-    <t>芦花古楼月第15层</t>
-  </si>
-  <si>
-    <t>玩家等级</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级到达40级</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级到达50级</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器2配件1激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器2配件2激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器2配件3激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器2配件4激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器2配件5激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器2配件6激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过芦花古楼风-7层</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过芦花古楼花-7层</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过芦花古楼雪-7层</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过芦花古楼月-7层</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有夏侯惇</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活专属武器的数量</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有特定守护灵</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿波普之刃-1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿波普之刃-2</t>
-  </si>
-  <si>
-    <t>阿波普之刃-3</t>
-  </si>
-  <si>
-    <t>阿波普之刃-4</t>
-  </si>
-  <si>
-    <t>阿波普之刃-5</t>
-  </si>
-  <si>
-    <t>阿波普之刃-6</t>
-  </si>
-  <si>
-    <t>个人竞技胜利场数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史最高积分</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人竞技场胜利30次</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人竞技场胜利60次</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有3个3星寄灵人</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有3个3星守护灵</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场历史最高分1600分</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场历史最高分2000分</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器3配件1激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器3配件2激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器3配件3激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器3配件4激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器3配件5激活</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级神器3配件6激活</t>
+    <t>神器大点的等级</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -11842,10 +11866,10 @@
         <v>-1</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I126" s="11" t="s">
         <v>221</v>
@@ -11863,7 +11887,7 @@
         <v>1000</v>
       </c>
       <c r="N126" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O126" s="11">
         <v>1</v>
@@ -11892,10 +11916,10 @@
         <v>-1</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I127" s="11" t="s">
         <v>221</v>
@@ -11913,7 +11937,7 @@
         <v>1000</v>
       </c>
       <c r="N127" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O127" s="11">
         <v>1</v>
@@ -11942,7 +11966,7 @@
         <v>-1</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H128" s="11" t="s">
         <v>506</v>
@@ -11963,7 +11987,7 @@
         <v>1000</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O128" s="11">
         <v>1</v>
@@ -11992,10 +12016,10 @@
         <v>-1</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I129" s="11" t="s">
         <v>221</v>
@@ -12013,7 +12037,7 @@
         <v>1000</v>
       </c>
       <c r="N129" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O129" s="11">
         <v>1</v>
@@ -12042,10 +12066,10 @@
         <v>-1</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I130" s="11" t="s">
         <v>221</v>
@@ -12063,7 +12087,7 @@
         <v>1000</v>
       </c>
       <c r="N130" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O130" s="11">
         <v>1</v>
@@ -12092,10 +12116,10 @@
         <v>-1</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I131" s="11" t="s">
         <v>221</v>
@@ -12113,7 +12137,7 @@
         <v>1000</v>
       </c>
       <c r="N131" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O131" s="11">
         <v>1</v>
@@ -12142,10 +12166,10 @@
         <v>-1</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I132" s="11" t="s">
         <v>221</v>
@@ -12163,7 +12187,7 @@
         <v>1000</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O132" s="11">
         <v>1</v>
@@ -12192,10 +12216,10 @@
         <v>-1</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I133" s="11" t="s">
         <v>221</v>
@@ -12213,7 +12237,7 @@
         <v>1000</v>
       </c>
       <c r="N133" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O133" s="11">
         <v>1</v>
@@ -12242,10 +12266,10 @@
         <v>-1</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I134" s="11" t="s">
         <v>247</v>
@@ -12261,7 +12285,7 @@
         <v>1000</v>
       </c>
       <c r="N134" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O134" s="11">
         <v>1</v>
@@ -12290,13 +12314,13 @@
         <v>-1</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J135" s="11">
         <v>7</v>
@@ -12309,7 +12333,7 @@
         <v>1000</v>
       </c>
       <c r="N135" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O135" s="11">
         <v>1</v>
@@ -12338,13 +12362,13 @@
         <v>-1</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J136" s="11">
         <v>7</v>
@@ -12357,7 +12381,7 @@
         <v>1000</v>
       </c>
       <c r="N136" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O136" s="11">
         <v>1</v>
@@ -12386,13 +12410,13 @@
         <v>-1</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J137" s="11">
         <v>7</v>
@@ -12405,7 +12429,7 @@
         <v>1000</v>
       </c>
       <c r="N137" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O137" s="11">
         <v>1</v>
@@ -12434,10 +12458,10 @@
         <v>-1</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I138" s="11" t="s">
         <v>112</v>
@@ -12455,7 +12479,7 @@
         <v>1000</v>
       </c>
       <c r="N138" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O138" s="11">
         <v>1</v>
@@ -12484,10 +12508,10 @@
         <v>-1</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I139" s="11" t="s">
         <v>125</v>
@@ -12505,7 +12529,7 @@
         <v>1000</v>
       </c>
       <c r="N139" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="O139" s="11">
         <v>1</v>
@@ -12534,10 +12558,10 @@
         <v>-1</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I140" s="11" t="s">
         <v>274</v>
@@ -12555,7 +12579,7 @@
         <v>1000</v>
       </c>
       <c r="N140" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O140" s="11">
         <v>1</v>
@@ -12584,10 +12608,10 @@
         <v>-1</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I141" s="11" t="s">
         <v>280</v>
@@ -12605,7 +12629,7 @@
         <v>1000</v>
       </c>
       <c r="N141" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O141" s="11">
         <v>1</v>
@@ -12634,10 +12658,10 @@
         <v>-1</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I142" s="11" t="s">
         <v>247</v>
@@ -12653,7 +12677,7 @@
         <v>1000</v>
       </c>
       <c r="N142" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O142" s="11">
         <v>1</v>
@@ -12682,13 +12706,13 @@
         <v>-1</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J143" s="11">
         <v>15</v>
@@ -12701,7 +12725,7 @@
         <v>1000</v>
       </c>
       <c r="N143" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O143" s="11">
         <v>1</v>
@@ -12730,10 +12754,10 @@
         <v>-1</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I144" s="11" t="s">
         <v>104</v>
@@ -12749,7 +12773,7 @@
         <v>1000</v>
       </c>
       <c r="N144" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="O144" s="11">
         <v>1</v>
@@ -12778,10 +12802,10 @@
         <v>-1</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I145" s="11" t="s">
         <v>104</v>
@@ -12797,7 +12821,7 @@
         <v>1000</v>
       </c>
       <c r="N145" s="11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="O145" s="11">
         <v>1</v>
@@ -12826,10 +12850,10 @@
         <v>-1</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I146" s="11" t="s">
         <v>389</v>
@@ -12847,7 +12871,7 @@
         <v>1000</v>
       </c>
       <c r="N146" s="11" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="O146" s="11">
         <v>1</v>
@@ -12876,13 +12900,13 @@
         <v>-1</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="J147" s="11">
         <v>4</v>
@@ -12895,7 +12919,7 @@
         <v>1000</v>
       </c>
       <c r="N147" s="11" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="O147" s="11">
         <v>1</v>
@@ -12924,13 +12948,13 @@
         <v>-1</v>
       </c>
       <c r="G148" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="H148" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="H148" s="11" t="s">
-        <v>562</v>
-      </c>
       <c r="I148" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J148" s="11">
         <v>15</v>
@@ -12943,7 +12967,7 @@
         <v>1000</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="O148" s="11">
         <v>1</v>
@@ -12972,13 +12996,13 @@
         <v>-1</v>
       </c>
       <c r="G149" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="H149" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="H149" s="11" t="s">
-        <v>563</v>
-      </c>
       <c r="I149" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J149" s="11">
         <v>15</v>
@@ -12991,7 +13015,7 @@
         <v>1000</v>
       </c>
       <c r="N149" s="11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O149" s="11">
         <v>1</v>
@@ -13020,10 +13044,10 @@
         <v>-1</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I150" s="11" t="s">
         <v>262</v>
@@ -13039,7 +13063,7 @@
         <v>1000</v>
       </c>
       <c r="N150" s="11" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="O150" s="11">
         <v>1</v>
@@ -13068,10 +13092,10 @@
         <v>-1</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I151" s="11" t="s">
         <v>262</v>
@@ -13087,7 +13111,7 @@
         <v>1000</v>
       </c>
       <c r="N151" s="11" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="O151" s="11">
         <v>1</v>
@@ -13116,10 +13140,10 @@
         <v>-1</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I152" s="11" t="s">
         <v>138</v>
@@ -13137,7 +13161,7 @@
         <v>1000</v>
       </c>
       <c r="N152" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="O152" s="11">
         <v>1</v>
@@ -13166,10 +13190,10 @@
         <v>-1</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I153" s="11" t="s">
         <v>151</v>
@@ -13187,7 +13211,7 @@
         <v>1000</v>
       </c>
       <c r="N153" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="O153" s="11">
         <v>1</v>
@@ -13216,10 +13240,10 @@
         <v>-1</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I154" s="11" t="s">
         <v>268</v>
@@ -13235,7 +13259,7 @@
         <v>1000</v>
       </c>
       <c r="N154" s="11" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="O154" s="11">
         <v>1</v>
@@ -13264,10 +13288,10 @@
         <v>-1</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I155" s="11" t="s">
         <v>268</v>
@@ -13283,7 +13307,7 @@
         <v>1000</v>
       </c>
       <c r="N155" s="11" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="O155" s="11">
         <v>1</v>
@@ -13511,7 +13535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -13952,7 +13976,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -14005,10 +14029,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14077,7 +14101,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>601</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>333</v>
@@ -14092,7 +14116,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>335</v>
@@ -14387,7 +14411,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>378</v>
@@ -14466,7 +14490,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>390</v>
@@ -14541,7 +14565,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>197</v>
+        <v>602</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>399</v>
@@ -14663,7 +14687,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>507</v>
+        <v>599</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>416</v>
@@ -14770,7 +14794,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>432</v>
@@ -14800,7 +14824,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>436</v>
@@ -14847,7 +14871,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>445</v>
@@ -14862,7 +14886,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>447</v>
@@ -15144,6 +15168,23 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
         <v>498</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>71</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/achieve.成就.xlsx
+++ b/Excel/镇魂街/achieve.成就.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -5758,8 +5758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P163"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="J145" sqref="J145"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10662,7 +10662,7 @@
         <v>1</v>
       </c>
       <c r="K101" s="11">
-        <v>1110106</v>
+        <v>10109</v>
       </c>
       <c r="L101" s="11" t="s">
         <v>62</v>
@@ -10712,7 +10712,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="11">
-        <v>1120106</v>
+        <v>10209</v>
       </c>
       <c r="L102" s="11" t="s">
         <v>62</v>
@@ -14031,7 +14031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>

--- a/Excel/镇魂街/achieve.成就.xlsx
+++ b/Excel/镇魂街/achieve.成就.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="625">
   <si>
     <t>sheet名</t>
   </si>
@@ -2521,9 +2521,6 @@
       </rPr>
       <t>即完成</t>
     </r>
-  </si>
-  <si>
-    <t>玩家解封专属武器的总次数</t>
   </si>
   <si>
     <r>
@@ -5005,15 +5002,91 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>神器大点的等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀BOSS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀某章BOSS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀某个世界BOSS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀任意BOSS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高专属武器等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到的个数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图Id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossId</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>神器ID</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>激活专属武器的数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>等级</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>神器大点的等级</t>
+    <t>最高洗练战力</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到洗练战力寄灵人数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家解封专属武器的总次数</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -5758,7 +5831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
@@ -11866,10 +11939,10 @@
         <v>-1</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I126" s="11" t="s">
         <v>221</v>
@@ -11887,7 +11960,7 @@
         <v>1000</v>
       </c>
       <c r="N126" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O126" s="11">
         <v>1</v>
@@ -11916,10 +11989,10 @@
         <v>-1</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I127" s="11" t="s">
         <v>221</v>
@@ -11937,7 +12010,7 @@
         <v>1000</v>
       </c>
       <c r="N127" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O127" s="11">
         <v>1</v>
@@ -11966,10 +12039,10 @@
         <v>-1</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I128" s="11" t="s">
         <v>221</v>
@@ -11987,7 +12060,7 @@
         <v>1000</v>
       </c>
       <c r="N128" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O128" s="11">
         <v>1</v>
@@ -12016,10 +12089,10 @@
         <v>-1</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I129" s="11" t="s">
         <v>221</v>
@@ -12037,7 +12110,7 @@
         <v>1000</v>
       </c>
       <c r="N129" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O129" s="11">
         <v>1</v>
@@ -12066,10 +12139,10 @@
         <v>-1</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I130" s="11" t="s">
         <v>221</v>
@@ -12087,7 +12160,7 @@
         <v>1000</v>
       </c>
       <c r="N130" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O130" s="11">
         <v>1</v>
@@ -12116,10 +12189,10 @@
         <v>-1</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I131" s="11" t="s">
         <v>221</v>
@@ -12137,7 +12210,7 @@
         <v>1000</v>
       </c>
       <c r="N131" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O131" s="11">
         <v>1</v>
@@ -12166,10 +12239,10 @@
         <v>-1</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I132" s="11" t="s">
         <v>221</v>
@@ -12187,7 +12260,7 @@
         <v>1000</v>
       </c>
       <c r="N132" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O132" s="11">
         <v>1</v>
@@ -12216,10 +12289,10 @@
         <v>-1</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I133" s="11" t="s">
         <v>221</v>
@@ -12237,7 +12310,7 @@
         <v>1000</v>
       </c>
       <c r="N133" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O133" s="11">
         <v>1</v>
@@ -12266,10 +12339,10 @@
         <v>-1</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I134" s="11" t="s">
         <v>247</v>
@@ -12285,7 +12358,7 @@
         <v>1000</v>
       </c>
       <c r="N134" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O134" s="11">
         <v>1</v>
@@ -12314,13 +12387,13 @@
         <v>-1</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J135" s="11">
         <v>7</v>
@@ -12333,7 +12406,7 @@
         <v>1000</v>
       </c>
       <c r="N135" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O135" s="11">
         <v>1</v>
@@ -12362,13 +12435,13 @@
         <v>-1</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J136" s="11">
         <v>7</v>
@@ -12381,7 +12454,7 @@
         <v>1000</v>
       </c>
       <c r="N136" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O136" s="11">
         <v>1</v>
@@ -12410,13 +12483,13 @@
         <v>-1</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J137" s="11">
         <v>7</v>
@@ -12429,7 +12502,7 @@
         <v>1000</v>
       </c>
       <c r="N137" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O137" s="11">
         <v>1</v>
@@ -12458,10 +12531,10 @@
         <v>-1</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I138" s="11" t="s">
         <v>112</v>
@@ -12479,7 +12552,7 @@
         <v>1000</v>
       </c>
       <c r="N138" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O138" s="11">
         <v>1</v>
@@ -12508,10 +12581,10 @@
         <v>-1</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I139" s="11" t="s">
         <v>125</v>
@@ -12529,7 +12602,7 @@
         <v>1000</v>
       </c>
       <c r="N139" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O139" s="11">
         <v>1</v>
@@ -12558,10 +12631,10 @@
         <v>-1</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I140" s="11" t="s">
         <v>274</v>
@@ -12579,7 +12652,7 @@
         <v>1000</v>
       </c>
       <c r="N140" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O140" s="11">
         <v>1</v>
@@ -12608,10 +12681,10 @@
         <v>-1</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I141" s="11" t="s">
         <v>280</v>
@@ -12629,7 +12702,7 @@
         <v>1000</v>
       </c>
       <c r="N141" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O141" s="11">
         <v>1</v>
@@ -12658,10 +12731,10 @@
         <v>-1</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I142" s="11" t="s">
         <v>247</v>
@@ -12677,7 +12750,7 @@
         <v>1000</v>
       </c>
       <c r="N142" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O142" s="11">
         <v>1</v>
@@ -12706,13 +12779,13 @@
         <v>-1</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J143" s="11">
         <v>15</v>
@@ -12725,7 +12798,7 @@
         <v>1000</v>
       </c>
       <c r="N143" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O143" s="11">
         <v>1</v>
@@ -12754,10 +12827,10 @@
         <v>-1</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I144" s="11" t="s">
         <v>104</v>
@@ -12773,7 +12846,7 @@
         <v>1000</v>
       </c>
       <c r="N144" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O144" s="11">
         <v>1</v>
@@ -12802,10 +12875,10 @@
         <v>-1</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I145" s="11" t="s">
         <v>104</v>
@@ -12821,7 +12894,7 @@
         <v>1000</v>
       </c>
       <c r="N145" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O145" s="11">
         <v>1</v>
@@ -12850,13 +12923,13 @@
         <v>-1</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J146" s="14">
         <v>1</v>
@@ -12871,7 +12944,7 @@
         <v>1000</v>
       </c>
       <c r="N146" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O146" s="11">
         <v>1</v>
@@ -12900,13 +12973,13 @@
         <v>-1</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H147" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="I147" s="11" t="s">
         <v>575</v>
-      </c>
-      <c r="I147" s="11" t="s">
-        <v>576</v>
       </c>
       <c r="J147" s="11">
         <v>4</v>
@@ -12919,7 +12992,7 @@
         <v>1000</v>
       </c>
       <c r="N147" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O147" s="11">
         <v>1</v>
@@ -12948,13 +13021,13 @@
         <v>-1</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J148" s="11">
         <v>15</v>
@@ -12967,7 +13040,7 @@
         <v>1000</v>
       </c>
       <c r="N148" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O148" s="11">
         <v>1</v>
@@ -12996,13 +13069,13 @@
         <v>-1</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J149" s="11">
         <v>15</v>
@@ -13015,7 +13088,7 @@
         <v>1000</v>
       </c>
       <c r="N149" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O149" s="11">
         <v>1</v>
@@ -13044,10 +13117,10 @@
         <v>-1</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I150" s="11" t="s">
         <v>262</v>
@@ -13063,7 +13136,7 @@
         <v>1000</v>
       </c>
       <c r="N150" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O150" s="11">
         <v>1</v>
@@ -13092,10 +13165,10 @@
         <v>-1</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I151" s="11" t="s">
         <v>262</v>
@@ -13111,7 +13184,7 @@
         <v>1000</v>
       </c>
       <c r="N151" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O151" s="11">
         <v>1</v>
@@ -13140,10 +13213,10 @@
         <v>-1</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I152" s="11" t="s">
         <v>138</v>
@@ -13161,7 +13234,7 @@
         <v>1000</v>
       </c>
       <c r="N152" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O152" s="11">
         <v>1</v>
@@ -13190,10 +13263,10 @@
         <v>-1</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I153" s="11" t="s">
         <v>151</v>
@@ -13211,7 +13284,7 @@
         <v>1000</v>
       </c>
       <c r="N153" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O153" s="11">
         <v>1</v>
@@ -13240,10 +13313,10 @@
         <v>-1</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I154" s="11" t="s">
         <v>268</v>
@@ -13259,7 +13332,7 @@
         <v>1000</v>
       </c>
       <c r="N154" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O154" s="11">
         <v>1</v>
@@ -13288,10 +13361,10 @@
         <v>-1</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I155" s="11" t="s">
         <v>268</v>
@@ -13307,7 +13380,7 @@
         <v>1000</v>
       </c>
       <c r="N155" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O155" s="11">
         <v>1</v>
@@ -13506,7 +13579,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C11" s="11">
         <f>SUMIFS(成就领奖!$P$4:$P$200,成就领奖!$A$4:$A$200,"="&amp;成就1级页签!A11)</f>
@@ -13920,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -13934,7 +14007,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -13948,7 +14021,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -13962,7 +14035,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -13976,7 +14049,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -13990,7 +14063,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -14004,7 +14077,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -14029,10 +14102,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14101,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>333</v>
@@ -14116,7 +14189,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>335</v>
@@ -14411,7 +14484,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>378</v>
@@ -14444,11 +14517,11 @@
         <v>190</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>382</v>
+        <v>624</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14459,13 +14532,13 @@
         <v>138</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14476,13 +14549,13 @@
         <v>151</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14490,14 +14563,14 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14505,14 +14578,14 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -14523,11 +14596,11 @@
         <v>170</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14538,11 +14611,11 @@
         <v>164</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -14553,11 +14626,11 @@
         <v>203</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14565,16 +14638,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14585,11 +14658,11 @@
         <v>200</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -14600,11 +14673,11 @@
         <v>206</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14615,11 +14688,11 @@
         <v>209</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14630,11 +14703,11 @@
         <v>212</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -14645,11 +14718,11 @@
         <v>215</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -14660,11 +14733,11 @@
         <v>259</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14675,11 +14748,11 @@
         <v>218</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -14687,14 +14760,14 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -14705,11 +14778,11 @@
         <v>229</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -14717,16 +14790,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -14737,11 +14810,11 @@
         <v>226</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -14749,14 +14822,14 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14767,11 +14840,11 @@
         <v>232</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -14782,11 +14855,11 @@
         <v>235</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -14794,14 +14867,14 @@
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -14812,11 +14885,11 @@
         <v>265</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14824,14 +14897,14 @@
         <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14839,16 +14912,16 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -14856,14 +14929,14 @@
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -14871,14 +14944,14 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -14886,14 +14959,14 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -14904,11 +14977,11 @@
         <v>250</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -14919,11 +14992,11 @@
         <v>253</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -14934,11 +15007,11 @@
         <v>256</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -14946,16 +15019,16 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>283</v>
+        <v>611</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -14966,11 +15039,11 @@
         <v>69</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -14978,14 +15051,14 @@
         <v>58</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -14993,14 +15066,14 @@
         <v>59</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -15008,14 +15081,14 @@
         <v>60</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -15023,14 +15096,14 @@
         <v>61</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -15038,14 +15111,14 @@
         <v>62</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -15053,14 +15126,14 @@
         <v>63</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -15068,14 +15141,14 @@
         <v>64</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -15083,14 +15156,14 @@
         <v>65</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -15101,11 +15174,11 @@
         <v>294</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -15113,16 +15186,16 @@
         <v>67</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -15130,14 +15203,14 @@
         <v>68</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -15145,14 +15218,14 @@
         <v>69</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -15160,32 +15233,120 @@
         <v>70</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="A74" s="11">
         <v>71</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="C74" s="11" t="s">
+    </row>
+    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
+        <v>72</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="C75" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="11">
+        <v>73</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
+        <v>74</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>606</v>
-      </c>
+      <c r="C77" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="11">
+        <v>75</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="E78" s="11"/>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="11">
+        <v>76</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="11">
+        <v>77</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E80" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/Excel/镇魂街/achieve.成就.xlsx
+++ b/Excel/镇魂街/achieve.成就.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="成就领奖" sheetId="27" r:id="rId2"/>
     <sheet name="成就1级页签" sheetId="29" r:id="rId3"/>
     <sheet name="成就2级页签" sheetId="30" r:id="rId4"/>
-    <sheet name="成就条件类型" sheetId="28" r:id="rId5"/>
-    <sheet name="每日推荐" sheetId="31" r:id="rId6"/>
+    <sheet name="旧成就条件类型" sheetId="28" r:id="rId5"/>
+    <sheet name="成就条件类型" sheetId="32" r:id="rId6"/>
+    <sheet name="每日推荐" sheetId="31" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="829">
   <si>
     <t>sheet名</t>
   </si>
@@ -5038,15 +5039,562 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossId</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器ID</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活专属武器的数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高洗练战力</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到洗练战力寄灵人数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家解封专属武器的总次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵最高突破</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵最高突破数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到个数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封次数总和</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>地图Id</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D段规划</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>段</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升星</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVE</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高分</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情关卡的ID</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>次数</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>BossId</t>
+    <t>行为</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费道具</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵角色</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级多少次</t>
+  </si>
+  <si>
+    <t>升级多少次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升级-max</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升级-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升级-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高等级</t>
+  </si>
+  <si>
+    <t>最高等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少个达到特定等级</t>
+  </si>
+  <si>
+    <t>多少个达到特定等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌突破</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌突破-max</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌突破-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌突破-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升星-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升星-max</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升星-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌洗练</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌洗练-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌洗练-max</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌洗练-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定卡牌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定卡牌-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定卡牌-color</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌品质-qua</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器大点最高等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-大点</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-组件</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-组件-max</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-组件-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-组件-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升级-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌突破-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化-max</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封-max</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能获取</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能突破</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能获取-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能获取-qua</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能获取-buyTimes</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级-max</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能突破-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能突破-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能突破-max</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能突破-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线-cha</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-cha</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-sum</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-cha</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场-times</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场-win</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买-sum</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买-shopSum</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天-times</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费道具-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵角色-sum</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵角色-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道任务-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>某I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D的卡升到指定等级</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌ID</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定id的卡牌突破等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌升星-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定卡牌id的星级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌ID</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌品质</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶颜色(0,1,2,3)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-大点-id</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -5054,11 +5602,15 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>神器ID</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活专属武器的数量</t>
+    <t>Id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-组件-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -5066,27 +5618,315 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>最高洗练战力</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到洗练战力寄灵人数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>个数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家解封专属武器的总次数</t>
+    <t>数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节Id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡Id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀一个大于等于多少章的世界BOSS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店Id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商店的兑换次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>在特定商店的兑换次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定商品Id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定商品ID的兑换次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具Id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有道具-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费道具-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定卡牌Id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录天数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-sum</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-jlr</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-jlr-qua</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl-qua</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡总次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽到&gt;=指定品质的次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽到&gt;=指定品质的次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定任务Id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱道等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣-cha</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机派遣-swep</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡Id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用牧守令扫荡次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级-lv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取奖励</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星宝箱</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱Id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高战力</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器激活-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器激活-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器激活-qua</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>某章总共通过了多少关</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一关打了多少次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某个挂机关卡挂机</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高分</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场历史最高分</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能分解-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能分解</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-组件-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼挑战次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续登录</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -5094,7 +5934,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5219,8 +6059,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5272,6 +6127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5356,7 +6217,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -5400,6 +6261,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Grid" xfId="4"/>
@@ -5694,7 +6562,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -5705,7 +6573,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5731,7 +6599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="57.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -5753,7 +6621,7 @@
       </c>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="54" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
@@ -5775,7 +6643,7 @@
       </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="47.25" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
@@ -5797,7 +6665,7 @@
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="55.5" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -5817,7 +6685,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="13"/>
     </row>
   </sheetData>
@@ -5831,11 +6699,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P163"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
@@ -5852,7 +6720,7 @@
     <col min="15" max="16" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -5902,7 +6770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -5952,7 +6820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
@@ -6000,7 +6868,7 @@
       </c>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -6026,7 +6894,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>61</v>
+        <v>772</v>
       </c>
       <c r="J4" s="11">
         <v>2</v>
@@ -6048,7 +6916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="16.5">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -6096,7 +6964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -6144,7 +7012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -6192,7 +7060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -6240,7 +7108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="16.5">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -6288,7 +7156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -6336,7 +7204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="16.5">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -6384,7 +7252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="16.5">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -6432,7 +7300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="16.5">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -6480,7 +7348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="16.5">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -6528,7 +7396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="16.5">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -6576,7 +7444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="16.5">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -6624,7 +7492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="16.5">
       <c r="A17" s="11">
         <v>1</v>
       </c>
@@ -6672,7 +7540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="16.5">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -6720,7 +7588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="16.5">
       <c r="A19" s="11">
         <v>1</v>
       </c>
@@ -6768,7 +7636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="16.5">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -6816,7 +7684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="16.5">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -6864,7 +7732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="16.5">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -6912,7 +7780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="16.5">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -6960,7 +7828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="16.5">
       <c r="A24" s="11">
         <v>1</v>
       </c>
@@ -7008,7 +7876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="16.5">
       <c r="A25" s="11">
         <v>1</v>
       </c>
@@ -7056,7 +7924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="16.5">
       <c r="A26" s="11">
         <v>1</v>
       </c>
@@ -7104,7 +7972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="16.5">
       <c r="A27" s="11">
         <v>1</v>
       </c>
@@ -7152,7 +8020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="16.5">
       <c r="A28" s="11">
         <v>1</v>
       </c>
@@ -7200,7 +8068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="16.5">
       <c r="A29" s="11">
         <v>1</v>
       </c>
@@ -7248,7 +8116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="16.5">
       <c r="A30" s="11">
         <v>1</v>
       </c>
@@ -7296,7 +8164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="16.5">
       <c r="A31" s="11">
         <v>1</v>
       </c>
@@ -7344,7 +8212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="16.5">
       <c r="A32" s="11">
         <v>2</v>
       </c>
@@ -7392,7 +8260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="16.5">
       <c r="A33" s="11">
         <v>2</v>
       </c>
@@ -7440,7 +8308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="16.5">
       <c r="A34" s="11">
         <v>2</v>
       </c>
@@ -7488,7 +8356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="16.5">
       <c r="A35" s="11">
         <v>2</v>
       </c>
@@ -7536,7 +8404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="16.5">
       <c r="A36" s="11">
         <v>2</v>
       </c>
@@ -7584,7 +8452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="16.5">
       <c r="A37" s="11">
         <v>2</v>
       </c>
@@ -7632,7 +8500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A38" s="11">
         <v>2</v>
       </c>
@@ -7682,7 +8550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A39" s="11">
         <v>2</v>
       </c>
@@ -7732,7 +8600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A40" s="11">
         <v>2</v>
       </c>
@@ -7782,7 +8650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A41" s="11">
         <v>2</v>
       </c>
@@ -7832,7 +8700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A42" s="11">
         <v>2</v>
       </c>
@@ -7882,7 +8750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A43" s="11">
         <v>2</v>
       </c>
@@ -7932,7 +8800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A44" s="11">
         <v>2</v>
       </c>
@@ -7982,7 +8850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A45" s="11">
         <v>2</v>
       </c>
@@ -8032,7 +8900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A46" s="11">
         <v>2</v>
       </c>
@@ -8082,7 +8950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A47" s="11">
         <v>2</v>
       </c>
@@ -8132,7 +9000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A48" s="11">
         <v>2</v>
       </c>
@@ -8182,7 +9050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A49" s="11">
         <v>2</v>
       </c>
@@ -8232,7 +9100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A50" s="11">
         <v>2</v>
       </c>
@@ -8282,7 +9150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A51" s="11">
         <v>2</v>
       </c>
@@ -8332,7 +9200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A52" s="11">
         <v>2</v>
       </c>
@@ -8382,7 +9250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A53" s="11">
         <v>2</v>
       </c>
@@ -8432,7 +9300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A54" s="11">
         <v>2</v>
       </c>
@@ -8482,7 +9350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A55" s="11">
         <v>2</v>
       </c>
@@ -8532,7 +9400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A56" s="11">
         <v>2</v>
       </c>
@@ -8582,7 +9450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A57" s="11">
         <v>2</v>
       </c>
@@ -8632,7 +9500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A58" s="11">
         <v>2</v>
       </c>
@@ -8682,7 +9550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A59" s="11">
         <v>2</v>
       </c>
@@ -8732,7 +9600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A60" s="11">
         <v>2</v>
       </c>
@@ -8782,7 +9650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A61" s="11">
         <v>2</v>
       </c>
@@ -8832,7 +9700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A62" s="11">
         <v>2</v>
       </c>
@@ -8882,7 +9750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A63" s="11">
         <v>2</v>
       </c>
@@ -8932,7 +9800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A64" s="11">
         <v>2</v>
       </c>
@@ -8982,7 +9850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A65" s="11">
         <v>2</v>
       </c>
@@ -9032,7 +9900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A66" s="11">
         <v>2</v>
       </c>
@@ -9082,7 +9950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A67" s="11">
         <v>2</v>
       </c>
@@ -9132,7 +10000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A68" s="11">
         <v>2</v>
       </c>
@@ -9182,7 +10050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A69" s="11">
         <v>2</v>
       </c>
@@ -9232,7 +10100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A70" s="11">
         <v>2</v>
       </c>
@@ -9279,7 +10147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A71" s="11">
         <v>2</v>
       </c>
@@ -9326,7 +10194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A72" s="11">
         <v>2</v>
       </c>
@@ -9373,7 +10241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A73" s="11">
         <v>2</v>
       </c>
@@ -9420,7 +10288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A74" s="11">
         <v>2</v>
       </c>
@@ -9467,7 +10335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A75" s="11">
         <v>2</v>
       </c>
@@ -9514,7 +10382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A76" s="11">
         <v>2</v>
       </c>
@@ -9561,7 +10429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A77" s="11">
         <v>2</v>
       </c>
@@ -9608,7 +10476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A78" s="11">
         <v>2</v>
       </c>
@@ -9655,7 +10523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A79" s="11">
         <v>2</v>
       </c>
@@ -9702,7 +10570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A80" s="11">
         <v>2</v>
       </c>
@@ -9749,7 +10617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A81" s="11">
         <v>2</v>
       </c>
@@ -9796,7 +10664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A82" s="11">
         <v>2</v>
       </c>
@@ -9843,7 +10711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A83" s="11">
         <v>2</v>
       </c>
@@ -9890,7 +10758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A84" s="11">
         <v>2</v>
       </c>
@@ -9937,7 +10805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A85" s="11">
         <v>2</v>
       </c>
@@ -9984,7 +10852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A86" s="11">
         <v>2</v>
       </c>
@@ -10031,7 +10899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A87" s="11">
         <v>2</v>
       </c>
@@ -10078,7 +10946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" s="11" customFormat="1" ht="16.5">
       <c r="A88" s="11">
         <v>2</v>
       </c>
@@ -10125,7 +10993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="16.5">
       <c r="A89" s="11">
         <v>2</v>
       </c>
@@ -10173,7 +11041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="16.5">
       <c r="A90" s="11">
         <v>2</v>
       </c>
@@ -10221,7 +11089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="16.5">
       <c r="A91" s="11">
         <v>2</v>
       </c>
@@ -10269,7 +11137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="16.5">
       <c r="A92" s="11">
         <v>2</v>
       </c>
@@ -10317,7 +11185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="16.5">
       <c r="A93" s="11">
         <v>2</v>
       </c>
@@ -10367,7 +11235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="16.5">
       <c r="A94" s="11">
         <v>2</v>
       </c>
@@ -10415,7 +11283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="16.5">
       <c r="A95" s="11">
         <v>2</v>
       </c>
@@ -10463,7 +11331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="16.5">
       <c r="A96" s="11">
         <v>2</v>
       </c>
@@ -10511,7 +11379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="16.5">
       <c r="A97" s="11">
         <v>2</v>
       </c>
@@ -10559,7 +11427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="16.5">
       <c r="A98" s="11">
         <v>2</v>
       </c>
@@ -10607,7 +11475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="16.5">
       <c r="A99" s="11">
         <v>2</v>
       </c>
@@ -10655,7 +11523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="16.5">
       <c r="A100" s="11">
         <v>2</v>
       </c>
@@ -10703,7 +11571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="16.5">
       <c r="A101" s="11">
         <v>3</v>
       </c>
@@ -10753,7 +11621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="16.5">
       <c r="A102" s="11">
         <v>3</v>
       </c>
@@ -10803,7 +11671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="16.5">
       <c r="A103" s="11">
         <v>3</v>
       </c>
@@ -10851,7 +11719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="16.5">
       <c r="A104" s="11">
         <v>3</v>
       </c>
@@ -10899,7 +11767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="16.5">
       <c r="A105" s="11">
         <v>4</v>
       </c>
@@ -10947,7 +11815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="16.5">
       <c r="A106" s="11">
         <v>4</v>
       </c>
@@ -10995,7 +11863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="16.5">
       <c r="A107" s="11">
         <v>4</v>
       </c>
@@ -11045,7 +11913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="16.5">
       <c r="A108" s="11">
         <v>4</v>
       </c>
@@ -11093,7 +11961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="16.5">
       <c r="A109" s="11">
         <v>4</v>
       </c>
@@ -11141,7 +12009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="16.5">
       <c r="A110" s="11">
         <v>4</v>
       </c>
@@ -11189,7 +12057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="16.5">
       <c r="A111" s="11">
         <v>4</v>
       </c>
@@ -11237,7 +12105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="16.5">
       <c r="A112" s="11">
         <v>4</v>
       </c>
@@ -11285,7 +12153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="16.5">
       <c r="A113" s="11">
         <v>4</v>
       </c>
@@ -11333,7 +12201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="16.5">
       <c r="A114" s="11">
         <v>4</v>
       </c>
@@ -11381,7 +12249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="16.5">
       <c r="A115" s="11">
         <v>5</v>
       </c>
@@ -11429,7 +12297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="16.5">
       <c r="A116" s="11">
         <v>5</v>
       </c>
@@ -11477,7 +12345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="16.5">
       <c r="A117" s="11">
         <v>5</v>
       </c>
@@ -11525,7 +12393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="16.5">
       <c r="A118" s="11">
         <v>6</v>
       </c>
@@ -11573,7 +12441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="16.5">
       <c r="A119" s="11">
         <v>6</v>
       </c>
@@ -11623,7 +12491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="16.5">
       <c r="A120" s="11">
         <v>6</v>
       </c>
@@ -11671,7 +12539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="16.5">
       <c r="A121" s="11">
         <v>6</v>
       </c>
@@ -11721,7 +12589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="16.5">
       <c r="A122" s="11">
         <v>6</v>
       </c>
@@ -11771,7 +12639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="16.5">
       <c r="A123" s="11">
         <v>6</v>
       </c>
@@ -11821,7 +12689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" ht="16.5">
       <c r="A124" s="11">
         <v>7</v>
       </c>
@@ -11871,7 +12739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="16.5">
       <c r="A125" s="11">
         <v>7</v>
       </c>
@@ -11919,7 +12787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="16.5">
       <c r="A126" s="11">
         <v>8</v>
       </c>
@@ -11969,7 +12837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" ht="16.5">
       <c r="A127" s="11">
         <v>8</v>
       </c>
@@ -12019,7 +12887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="16.5">
       <c r="A128" s="11">
         <v>8</v>
       </c>
@@ -12069,7 +12937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="16.5">
       <c r="A129" s="11">
         <v>8</v>
       </c>
@@ -12119,7 +12987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="16.5">
       <c r="A130" s="11">
         <v>8</v>
       </c>
@@ -12169,7 +13037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" ht="16.5">
       <c r="A131" s="11">
         <v>8</v>
       </c>
@@ -12219,7 +13087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="16.5">
       <c r="A132" s="11">
         <v>8</v>
       </c>
@@ -12269,7 +13137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" ht="16.5">
       <c r="A133" s="11">
         <v>8</v>
       </c>
@@ -12319,7 +13187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="16.5">
       <c r="A134" s="11">
         <v>8</v>
       </c>
@@ -12367,7 +13235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="16.5">
       <c r="A135" s="11">
         <v>8</v>
       </c>
@@ -12415,7 +13283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="16.5">
       <c r="A136" s="11">
         <v>8</v>
       </c>
@@ -12463,7 +13331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="16.5">
       <c r="A137" s="11">
         <v>8</v>
       </c>
@@ -12511,7 +13379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="16.5">
       <c r="A138" s="11">
         <v>8</v>
       </c>
@@ -12561,7 +13429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="16.5">
       <c r="A139" s="11">
         <v>8</v>
       </c>
@@ -12611,7 +13479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" ht="16.5">
       <c r="A140" s="11">
         <v>8</v>
       </c>
@@ -12661,7 +13529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="16.5">
       <c r="A141" s="11">
         <v>8</v>
       </c>
@@ -12711,7 +13579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="16.5">
       <c r="A142" s="11">
         <v>8</v>
       </c>
@@ -12759,7 +13627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="16.5">
       <c r="A143" s="11">
         <v>8</v>
       </c>
@@ -12807,7 +13675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" ht="16.5">
       <c r="A144" s="11">
         <v>8</v>
       </c>
@@ -12855,7 +13723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" ht="16.5">
       <c r="A145" s="11">
         <v>8</v>
       </c>
@@ -12903,7 +13771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="16.5">
       <c r="A146" s="11">
         <v>8</v>
       </c>
@@ -12953,7 +13821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="16.5">
       <c r="A147" s="11">
         <v>8</v>
       </c>
@@ -13001,7 +13869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="16.5">
       <c r="A148" s="11">
         <v>8</v>
       </c>
@@ -13049,7 +13917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" ht="16.5">
       <c r="A149" s="11">
         <v>8</v>
       </c>
@@ -13097,7 +13965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" ht="16.5">
       <c r="A150" s="11">
         <v>8</v>
       </c>
@@ -13145,7 +14013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" ht="16.5">
       <c r="A151" s="11">
         <v>8</v>
       </c>
@@ -13193,7 +14061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" ht="16.5">
       <c r="A152" s="11">
         <v>8</v>
       </c>
@@ -13243,7 +14111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" ht="16.5">
       <c r="A153" s="11">
         <v>8</v>
       </c>
@@ -13293,7 +14161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" ht="16.5">
       <c r="A154" s="11">
         <v>8</v>
       </c>
@@ -13341,7 +14209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" ht="16.5">
       <c r="A155" s="11">
         <v>8</v>
       </c>
@@ -13389,7 +14257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" ht="16.5">
       <c r="A163" s="11">
         <v>9</v>
       </c>
@@ -13451,13 +14319,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -13468,7 +14336,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -13479,7 +14347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="10" t="s">
         <v>296</v>
       </c>
@@ -13490,7 +14358,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -13502,7 +14370,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -13514,7 +14382,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16.5">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -13526,7 +14394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -13538,7 +14406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16.5">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -13550,7 +14418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -13562,7 +14430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -13574,7 +14442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="16.5">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -13586,7 +14454,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="11">
         <v>8</v>
       </c>
@@ -13612,13 +14480,13 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -13632,7 +14500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -13646,7 +14514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="10" t="s">
         <v>307</v>
       </c>
@@ -13660,7 +14528,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -13674,7 +14542,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -13688,7 +14556,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -13702,7 +14570,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="11">
         <v>2</v>
       </c>
@@ -13716,7 +14584,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="16.5">
       <c r="A8" s="11">
         <v>2</v>
       </c>
@@ -13730,7 +14598,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="16.5">
       <c r="A9" s="11">
         <v>2</v>
       </c>
@@ -13744,7 +14612,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="16.5">
       <c r="A10" s="11">
         <v>2</v>
       </c>
@@ -13758,7 +14626,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="16.5">
       <c r="A11" s="11">
         <v>2</v>
       </c>
@@ -13772,7 +14640,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="16.5">
       <c r="A12" s="11">
         <v>2</v>
       </c>
@@ -13786,7 +14654,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="16.5">
       <c r="A13" s="11">
         <v>2</v>
       </c>
@@ -13800,7 +14668,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="16.5">
       <c r="A14" s="11">
         <v>2</v>
       </c>
@@ -13814,7 +14682,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="16.5">
       <c r="A15" s="11">
         <v>3</v>
       </c>
@@ -13828,7 +14696,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="16.5">
       <c r="A16" s="11">
         <v>3</v>
       </c>
@@ -13842,7 +14710,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="11">
         <v>3</v>
       </c>
@@ -13856,7 +14724,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="16.5">
       <c r="A18" s="11">
         <v>4</v>
       </c>
@@ -13870,7 +14738,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="11">
         <v>4</v>
       </c>
@@ -13884,7 +14752,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="16.5">
       <c r="A20" s="11">
         <v>4</v>
       </c>
@@ -13898,7 +14766,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="16.5">
       <c r="A21" s="11">
         <v>4</v>
       </c>
@@ -13912,7 +14780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="16.5">
       <c r="A22" s="11">
         <v>5</v>
       </c>
@@ -13926,7 +14794,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="11">
         <v>6</v>
       </c>
@@ -13940,7 +14808,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="16.5">
       <c r="A24" s="11">
         <v>6</v>
       </c>
@@ -13954,7 +14822,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="16.5">
       <c r="A25" s="11">
         <v>7</v>
       </c>
@@ -13968,7 +14836,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="16.5">
       <c r="A26" s="11">
         <v>7</v>
       </c>
@@ -13982,7 +14850,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="16.5">
       <c r="A27" s="11">
         <v>8</v>
       </c>
@@ -13996,7 +14864,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="16.5">
       <c r="A28" s="11">
         <v>8</v>
       </c>
@@ -14010,7 +14878,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="16.5">
       <c r="A29" s="11">
         <v>8</v>
       </c>
@@ -14024,7 +14892,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="16.5">
       <c r="A30" s="11">
         <v>8</v>
       </c>
@@ -14038,7 +14906,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="16.5">
       <c r="A31" s="11">
         <v>8</v>
       </c>
@@ -14052,7 +14920,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="16.5">
       <c r="A32" s="11">
         <v>8</v>
       </c>
@@ -14066,7 +14934,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="16.5">
       <c r="A33" s="11">
         <v>8</v>
       </c>
@@ -14080,7 +14948,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="16.5">
       <c r="A36" s="11">
         <v>8</v>
       </c>
@@ -14102,13 +14970,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
@@ -14118,7 +14989,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>296</v>
       </c>
@@ -14135,7 +15006,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>327</v>
       </c>
@@ -14152,7 +15023,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="28.5">
       <c r="A3" s="3" t="s">
         <v>328</v>
       </c>
@@ -14169,7 +15040,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -14184,7 +15055,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -14199,7 +15070,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -14214,7 +15085,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -14229,7 +15100,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -14244,7 +15115,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -14259,7 +15130,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -14274,7 +15145,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -14289,7 +15160,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -14304,7 +15175,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -14319,7 +15190,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="17.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -14336,7 +15207,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="17.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -14351,7 +15222,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="17.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -14366,7 +15237,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17.25">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -14381,7 +15252,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -14398,7 +15269,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17.25">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -14415,7 +15286,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="17.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -14430,7 +15301,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="17.25">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -14445,7 +15316,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -14462,7 +15333,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="17.25">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14479,12 +15350,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>378</v>
@@ -14494,7 +15365,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17.25">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -14509,22 +15380,22 @@
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>190</v>
+        <v>628</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="17.25">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -14541,7 +15412,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="17.25">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -14558,7 +15429,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="17.25">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -14573,7 +15444,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="17.25">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -14588,7 +15459,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -14603,7 +15474,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="17.25">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -14618,7 +15489,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -14633,7 +15504,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="17.25">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -14650,7 +15521,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="17.25">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -14665,7 +15536,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -14680,7 +15551,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="17.25">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -14695,7 +15566,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="17.25">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -14710,7 +15581,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -14725,7 +15596,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -14740,7 +15611,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="17.25">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -14755,7 +15626,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -14763,14 +15634,16 @@
         <v>598</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D42" s="4"/>
+        <v>644</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>643</v>
+      </c>
       <c r="E42" s="4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -14785,7 +15658,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -14802,7 +15675,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -14817,7 +15690,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -14832,7 +15705,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="17.25">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -14847,7 +15720,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -14862,7 +15735,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -14877,7 +15750,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -14892,7 +15765,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="17.25">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -14907,7 +15780,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="17.25">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -14924,7 +15797,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="17.25">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -14939,7 +15812,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -14954,7 +15827,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -14969,7 +15842,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -14984,7 +15857,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -14999,7 +15872,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -15014,7 +15887,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -15031,7 +15904,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -15046,7 +15919,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -15061,7 +15934,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -15076,7 +15949,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -15091,7 +15964,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -15106,7 +15979,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -15121,7 +15994,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -15136,7 +16009,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -15151,7 +16024,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -15166,7 +16039,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -15181,7 +16054,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -15198,7 +16071,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -15213,7 +16086,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -15228,7 +16101,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -15243,7 +16116,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="16.5">
       <c r="A74" s="11">
         <v>71</v>
       </c>
@@ -15251,16 +16124,16 @@
         <v>602</v>
       </c>
       <c r="C74" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>615</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>616</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="16.5">
       <c r="A75" s="11">
         <v>72</v>
       </c>
@@ -15268,16 +16141,16 @@
         <v>604</v>
       </c>
       <c r="C75" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>613</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>614</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="16.5">
       <c r="A76" s="11">
         <v>73</v>
       </c>
@@ -15290,7 +16163,7 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
     </row>
-    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="16.5">
       <c r="A77" s="11">
         <v>74</v>
       </c>
@@ -15301,52 +16174,80 @@
         <v>608</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="16.5">
       <c r="A78" s="11">
         <v>75</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="11" t="s">
         <v>609</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>610</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="16.5">
       <c r="A79" s="11">
         <v>76</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
     </row>
-    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="16.5">
       <c r="A80" s="11">
         <v>77</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C80" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>623</v>
-      </c>
       <c r="E80" s="11"/>
+    </row>
+    <row r="81" spans="1:5" ht="16.5">
+      <c r="A81" s="11">
+        <v>78</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="1:5" ht="16.5">
+      <c r="A82" s="11">
+        <v>79</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="E82" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -15357,11 +16258,1996 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="55.875" customWidth="1"/>
+    <col min="9" max="9" width="26.875" customWidth="1"/>
+    <col min="10" max="10" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1010101</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="E4" t="s">
+        <v>651</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1010102</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="E5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>1010103</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="E6" t="s">
+        <v>660</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>1010104</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="H7">
+        <v>10101</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>1010201</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="H8">
+        <v>1010101</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>1010202</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="H9">
+        <v>1010102</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>1010203</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="H10">
+        <v>1010103</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>1010204</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="H11">
+        <v>1010104</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>1010301</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="H12">
+        <v>10102</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>1010302</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="H13">
+        <v>1010201</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>1010303</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="H14">
+        <v>1010202</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>1010304</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="H15">
+        <v>1010203</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>1010401</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="H16">
+        <v>1010204</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>1010402</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="H17">
+        <v>10103</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>1010403</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="H18">
+        <v>1010301</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>1010501</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="H19">
+        <v>1010302</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>1010502</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="H20">
+        <v>1010303</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="17" customFormat="1">
+      <c r="A21" s="17">
+        <v>1010503</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="H21" s="17">
+        <v>1010304</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>1020101</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="H22">
+        <v>10104</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>1020201</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="H23">
+        <v>1010401</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>1020202</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="H24">
+        <v>1010402</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>1020203</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="H25">
+        <v>1010403</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>1020204</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="H26">
+        <v>10105</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="17" customFormat="1">
+      <c r="A27" s="17">
+        <v>1030101</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="H27" s="17">
+        <v>1010501</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>1030102</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="H28">
+        <v>1010502</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>1030103</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="H29">
+        <v>1010502</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>1030104</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="H30">
+        <v>10201</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>1030201</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="H31">
+        <v>1020101</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>1030202</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="H32">
+        <v>10202</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" s="17" customFormat="1">
+      <c r="A33" s="17">
+        <v>1030203</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="H33" s="17">
+        <v>1020201</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>1030204</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="H34">
+        <v>1020202</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" s="17" customFormat="1">
+      <c r="A35" s="17">
+        <v>1030301</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="C35" s="17">
+        <v>1</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="H35" s="17">
+        <v>1020203</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>1030302</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="H36">
+        <v>1020204</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>1030303</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="H37">
+        <v>103</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="1:10" s="17" customFormat="1">
+      <c r="A38" s="17">
+        <v>1040101</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="H38" s="17">
+        <v>10301</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>1040102</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="H39">
+        <v>1030101</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="17" customFormat="1">
+      <c r="A40" s="17">
+        <v>1040103</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="H40" s="17">
+        <v>1030102</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>1040201</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="H41">
+        <v>1030103</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>1040202</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="H42">
+        <v>1030104</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>1040203</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="H43">
+        <v>10302</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>1040204</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="H44">
+        <v>1030201</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>1040301</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="H45">
+        <v>1030202</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>1040302</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="H46">
+        <v>1030203</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>1040303</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="H47">
+        <v>1030204</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>1040304</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="H48">
+        <v>104</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>1040401</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="H49">
+        <v>10401</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="17" customFormat="1">
+      <c r="A50">
+        <v>1050101</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="H50" s="17">
+        <v>1040101</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="17" customFormat="1">
+      <c r="A51" s="17">
+        <v>2010101</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="H51" s="17">
+        <v>1040102</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="17" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A52" s="17">
+        <v>2010102</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="H52" s="17">
+        <v>1040103</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="17" customFormat="1">
+      <c r="A53" s="17">
+        <v>2020101</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="C53" s="17">
+        <v>1</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H53" s="17">
+        <v>10402</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="17" customFormat="1">
+      <c r="A54" s="17">
+        <v>2020102</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="H54" s="17">
+        <v>1040201</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="17">
+        <v>2020103</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="H55">
+        <v>1040202</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="17" customFormat="1">
+      <c r="A56" s="17">
+        <v>2020104</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="H56" s="17">
+        <v>1040203</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>2030101</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="H57">
+        <v>1040204</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="17" customFormat="1">
+      <c r="A58" s="17">
+        <v>2030102</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="H58" s="17">
+        <v>10403</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>2030103</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="H59">
+        <v>1040301</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="17" customFormat="1">
+      <c r="A60" s="17">
+        <v>2040101</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="H60" s="17">
+        <v>1040302</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="20" customFormat="1">
+      <c r="A61">
+        <v>2040102</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="H61" s="20">
+        <v>1040303</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="17" customFormat="1">
+      <c r="A62">
+        <v>2040201</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="H62" s="17">
+        <v>1040304</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="19">
+        <v>3010101</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H63" s="17">
+        <v>10404</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>3010201</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="H64" s="17">
+        <v>1040401</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>3010202</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="H65">
+        <v>105</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>4010101</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="H66">
+        <v>1050101</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>4010102</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="H67">
+        <v>20</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>4010103</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="H68">
+        <v>201</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="15" customFormat="1">
+      <c r="A69" s="18">
+        <v>4020101</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="H69">
+        <v>2010101</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="15" customFormat="1">
+      <c r="A70" s="15">
+        <v>4030101</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="H70">
+        <v>2010102</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="15">
+        <v>4030201</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="E71" s="15"/>
+      <c r="H71" s="15">
+        <v>202</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="17" customFormat="1">
+      <c r="A72">
+        <v>4040101</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="E72"/>
+      <c r="H72" s="15">
+        <v>2020101</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>4050102</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="H73">
+        <v>2020102</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>4060101</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="H74" s="17">
+        <v>2020103</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>4060102</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="H75">
+        <v>203</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>4060103</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="H76">
+        <v>2030101</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>4060104</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="H77">
+        <v>2030102</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>4060105</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="H78">
+        <v>2030103</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="17" customFormat="1">
+      <c r="A79" s="17">
+        <v>4070101</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="C79" s="17">
+        <v>1</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="H79">
+        <v>204</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>4080101</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="H80">
+        <v>2040101</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>4090101</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="H81" s="17">
+        <v>2040102</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>4090102</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="H82">
+        <v>2040201</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>5010101</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="H83">
+        <v>30</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>5010102</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="H84">
+        <v>301</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="H85">
+        <v>3010101</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="H86">
+        <v>302</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="H87">
+        <v>3010201</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="H88">
+        <v>3010202</v>
+      </c>
+      <c r="I88" s="15" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="H89">
+        <v>40</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="H90">
+        <v>401</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="H91">
+        <v>4010101</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="H92">
+        <v>4010102</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="H93">
+        <v>4010103</v>
+      </c>
+      <c r="I93" s="15" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="H94">
+        <v>402</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="H95">
+        <v>4020101</v>
+      </c>
+      <c r="I95" s="15" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="H96">
+        <v>403</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9">
+      <c r="H97">
+        <v>4030101</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9">
+      <c r="H98">
+        <v>404</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9">
+      <c r="H99">
+        <v>4040101</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9">
+      <c r="H100">
+        <v>405</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9">
+      <c r="H101">
+        <v>4050101</v>
+      </c>
+      <c r="I101" s="15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9">
+      <c r="H102">
+        <v>4050102</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9">
+      <c r="H103">
+        <v>406</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="104" spans="8:9">
+      <c r="H104">
+        <v>4060101</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="105" spans="8:9">
+      <c r="H105">
+        <v>4060102</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="106" spans="8:9">
+      <c r="H106">
+        <v>4060103</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="107" spans="8:9">
+      <c r="H107">
+        <v>4060104</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="108" spans="8:9">
+      <c r="H108">
+        <v>4060105</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="109" spans="8:9">
+      <c r="H109">
+        <v>407</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="110" spans="8:9">
+      <c r="H110">
+        <v>4070101</v>
+      </c>
+      <c r="I110" s="15" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="111" spans="8:9">
+      <c r="H111">
+        <v>408</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="112" spans="8:9">
+      <c r="H112">
+        <v>4080101</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="113" spans="8:9">
+      <c r="H113">
+        <v>50</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="114" spans="8:9">
+      <c r="H114">
+        <v>501</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="115" spans="8:9">
+      <c r="H115">
+        <v>5010101</v>
+      </c>
+      <c r="I115" s="15" t="s">
+        <v>730</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/achieve.成就.xlsx
+++ b/Excel/镇魂街/achieve.成就.xlsx
@@ -16260,8 +16260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E37" sqref="E36:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Excel/镇魂街/achieve.成就.xlsx
+++ b/Excel/镇魂街/achieve.成就.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\镇魂街\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E212032-CA21-4C80-9C3A-D226F66E0405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,7 +21,14 @@
     <sheet name="成就条件类型" sheetId="32" r:id="rId6"/>
     <sheet name="每日推荐" sheetId="31" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5528,152 +5536,153 @@
     <t>守护灵抽到&gt;=指定品质的次数</t>
   </si>
   <si>
+    <t>宝箱Id</t>
+  </si>
+  <si>
+    <t>点金</t>
+  </si>
+  <si>
+    <t>连续登录</t>
+  </si>
+  <si>
+    <t>充值-sum</t>
+  </si>
+  <si>
+    <t>充值-cnt</t>
+  </si>
+  <si>
+    <t>地狱道</t>
+  </si>
+  <si>
+    <t>地狱道等级</t>
+  </si>
+  <si>
+    <t>地狱道任务-id</t>
+  </si>
+  <si>
+    <t>特定任务Id</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>获得货币-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人-qua</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵-qua</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>寄灵人-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cnt</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chadup</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物可重复</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录天数</t>
+  </si>
+  <si>
+    <t>登录天数</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定卡牌-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡-shl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能获取-buyTimes</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>守护灵-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cnt</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买-shopSum</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>星星宝箱</t>
-  </si>
-  <si>
-    <t>宝箱Id</t>
-  </si>
-  <si>
-    <t>点金</t>
-  </si>
-  <si>
-    <t>连续登录</t>
-  </si>
-  <si>
-    <t>充值-sum</t>
-  </si>
-  <si>
-    <t>充值-cnt</t>
-  </si>
-  <si>
-    <t>地狱道</t>
-  </si>
-  <si>
-    <t>地狱道等级</t>
-  </si>
-  <si>
-    <t>地狱道任务-id</t>
-  </si>
-  <si>
-    <t>特定任务Id</t>
-  </si>
-  <si>
-    <t>积分</t>
-  </si>
-  <si>
-    <t>获得货币-id</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵升级-cnt</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人-qua</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵-qua</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>寄灵人-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cnt</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人-cnt</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵-cnt</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽卡-shl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友数量</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-chadup</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物可重复</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡-id</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录天数</t>
-  </si>
-  <si>
-    <t>登录天数</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定卡牌-id</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽卡-shl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能获取-buyTimes</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵升级-cnt</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>守护灵-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cnt</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店购买-shopSum</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6000,20 +6009,20 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="常规 3" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="12"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="13"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6285,7 +6294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6426,7 +6435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6624,7 +6633,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J4" s="11">
         <v>2</v>
@@ -6672,7 +6681,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J5" s="11">
         <v>7</v>
@@ -6720,7 +6729,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J6" s="11">
         <v>30</v>
@@ -6768,7 +6777,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J7" s="11">
         <v>100</v>
@@ -6816,7 +6825,7 @@
         <v>68</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J8" s="11">
         <v>100000</v>
@@ -6866,7 +6875,7 @@
         <v>68</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J9" s="11">
         <v>1000000</v>
@@ -6916,7 +6925,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J10" s="11">
         <v>10000000</v>
@@ -6966,7 +6975,7 @@
         <v>68</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J11" s="11">
         <v>100000000</v>
@@ -7016,7 +7025,7 @@
         <v>74</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J12" s="11">
         <v>200000</v>
@@ -7066,7 +7075,7 @@
         <v>74</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J13" s="11">
         <v>2000000</v>
@@ -7116,7 +7125,7 @@
         <v>74</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J14" s="11">
         <v>20000000</v>
@@ -7166,7 +7175,7 @@
         <v>74</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J15" s="11">
         <v>200000000</v>
@@ -7216,7 +7225,7 @@
         <v>80</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J16" s="11">
         <v>100</v>
@@ -7266,7 +7275,7 @@
         <v>80</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J17" s="11">
         <v>1000</v>
@@ -7316,7 +7325,7 @@
         <v>80</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J18" s="11">
         <v>10000</v>
@@ -7366,7 +7375,7 @@
         <v>80</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J19" s="11">
         <v>100000</v>
@@ -7416,7 +7425,7 @@
         <v>86</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J20" s="11">
         <v>200</v>
@@ -7466,7 +7475,7 @@
         <v>86</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J21" s="11">
         <v>2000</v>
@@ -7516,7 +7525,7 @@
         <v>86</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J22" s="11">
         <v>20000</v>
@@ -7566,7 +7575,7 @@
         <v>86</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J23" s="11">
         <v>200000</v>
@@ -8096,7 +8105,7 @@
         <v>105</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J34" s="11">
         <v>1</v>
@@ -8146,7 +8155,7 @@
         <v>108</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
@@ -8196,7 +8205,7 @@
         <v>110</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
@@ -8246,7 +8255,7 @@
         <v>112</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J37" s="11">
         <v>1</v>
@@ -8296,7 +8305,7 @@
         <v>105</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J38" s="11">
         <v>3</v>
@@ -8346,7 +8355,7 @@
         <v>108</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J39" s="11">
         <v>3</v>
@@ -8396,7 +8405,7 @@
         <v>110</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J40" s="11">
         <v>3</v>
@@ -8446,7 +8455,7 @@
         <v>112</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J41" s="11">
         <v>3</v>
@@ -8896,7 +8905,7 @@
         <v>120</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J50" s="11">
         <v>20000</v>
@@ -8946,7 +8955,7 @@
         <v>120</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J51" s="11">
         <v>100000</v>
@@ -8996,7 +9005,7 @@
         <v>120</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J52" s="11">
         <v>500000</v>
@@ -9046,7 +9055,7 @@
         <v>120</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J53" s="11">
         <v>2000000</v>
@@ -10335,7 +10344,7 @@
         <v>612</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J80" s="11">
         <v>1</v>
@@ -10827,7 +10836,7 @@
         <v>198</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J90" s="11">
         <v>3</v>
@@ -10875,7 +10884,7 @@
         <v>201</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J91" s="11">
         <v>1</v>
@@ -10925,7 +10934,7 @@
         <v>204</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J92" s="11">
         <v>3</v>
@@ -10973,7 +10982,7 @@
         <v>207</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J93" s="11">
         <v>1</v>
@@ -11073,7 +11082,7 @@
         <v>212</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J95" s="11">
         <v>10</v>
@@ -11250,7 +11259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11399,7 +11408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11713,7 +11722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13001,11 +13010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13112,7 +13121,7 @@
         <v>1010103</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C6" t="s">
         <v>622</v>
@@ -13414,7 +13423,7 @@
         <v>1010501</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -13486,7 +13495,7 @@
         <v>1010504</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>642</v>
@@ -13507,7 +13516,7 @@
         <v>1010505</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>642</v>
@@ -13998,7 +14007,7 @@
         <v>1040103</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C47" t="s">
         <v>622</v>
@@ -14362,7 +14371,7 @@
         <v>2030102</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>688</v>
@@ -14371,7 +14380,7 @@
         <v>681</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H64">
         <v>1040401</v>
@@ -14584,7 +14593,7 @@
         <v>4010102</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C74" t="s">
         <v>620</v>
@@ -14836,7 +14845,7 @@
         <v>4060103</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C86" t="s">
         <v>620</v>
@@ -14901,14 +14910,14 @@
       <c r="A89">
         <v>4070101</v>
       </c>
-      <c r="B89" t="s">
-        <v>735</v>
+      <c r="B89" s="14" t="s">
+        <v>766</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H89">
         <v>40</v>
@@ -14922,7 +14931,7 @@
         <v>4080101</v>
       </c>
       <c r="B90" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C90" t="s">
         <v>620</v>
@@ -14956,7 +14965,7 @@
         <v>4090102</v>
       </c>
       <c r="B92" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C92" t="s">
         <v>620</v>
@@ -14973,7 +14982,7 @@
         <v>4090103</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C93" t="s">
         <v>620</v>
@@ -14990,7 +14999,7 @@
         <v>4100101</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -15007,7 +15016,7 @@
         <v>4100102</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -15024,10 +15033,10 @@
         <v>4110101</v>
       </c>
       <c r="B96" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="C96" s="19" t="s">
         <v>754</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>755</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
@@ -15043,10 +15052,10 @@
         <v>5010101</v>
       </c>
       <c r="B97" t="s">
+        <v>740</v>
+      </c>
+      <c r="C97" t="s">
         <v>741</v>
-      </c>
-      <c r="C97" t="s">
-        <v>742</v>
       </c>
       <c r="H97">
         <v>4030101</v>
@@ -15060,13 +15069,13 @@
         <v>5010102</v>
       </c>
       <c r="B98" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H98">
         <v>404</v>
@@ -15083,7 +15092,7 @@
         <v>66</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
@@ -15230,7 +15239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Excel/镇魂街/achieve.成就.xlsx
+++ b/Excel/镇魂街/achieve.成就.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="1166">
   <si>
     <t>sheet名</t>
   </si>
@@ -274,9 +274,6 @@
     <t>恭喜发财（一）</t>
   </si>
   <si>
-    <t>累计获得%s钻石</t>
-  </si>
-  <si>
     <t>消耗钻石数量</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
   </si>
   <si>
     <t>壕无人性（一）</t>
-  </si>
-  <si>
-    <t>累计消耗%s钻石</t>
   </si>
   <si>
     <t>壕无人性（二）</t>
@@ -6666,9 +6660,6 @@
     <t>芦花古楼总共100层</t>
   </si>
   <si>
-    <t>花费钻石3000</t>
-  </si>
-  <si>
     <t>玩家等级升到100</t>
   </si>
   <si>
@@ -6966,6 +6957,27 @@
   </si>
   <si>
     <t>守护灵突破</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计获得%s灵金</t>
+  </si>
+  <si>
+    <t>累计消耗%s灵金</t>
+  </si>
+  <si>
+    <t>花费灵金3000</t>
+  </si>
+  <si>
+    <t>获得货币-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费货币-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费货币-id</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -7728,8 +7740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P316"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="P236" sqref="P236:P316"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7840,10 +7852,10 @@
         <v>37</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="P2" t="s">
         <v>37</v>
@@ -7923,7 +7935,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J4" s="11">
         <v>2</v>
@@ -7971,7 +7983,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J5" s="11">
         <v>7</v>
@@ -8019,7 +8031,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J6" s="11">
         <v>30</v>
@@ -8067,7 +8079,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J7" s="11">
         <v>100</v>
@@ -8115,7 +8127,7 @@
         <v>68</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J8" s="11">
         <v>100000</v>
@@ -8165,7 +8177,7 @@
         <v>68</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J9" s="11">
         <v>1000000</v>
@@ -8215,7 +8227,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J10" s="11">
         <v>10000000</v>
@@ -8265,7 +8277,7 @@
         <v>68</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>741</v>
+        <v>1163</v>
       </c>
       <c r="J11" s="11">
         <v>100000000</v>
@@ -8315,7 +8327,7 @@
         <v>74</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>741</v>
+        <v>1164</v>
       </c>
       <c r="J12" s="11">
         <v>200000</v>
@@ -8365,7 +8377,7 @@
         <v>74</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>741</v>
+        <v>1164</v>
       </c>
       <c r="J13" s="11">
         <v>2000000</v>
@@ -8415,7 +8427,7 @@
         <v>74</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>741</v>
+        <v>1164</v>
       </c>
       <c r="J14" s="11">
         <v>20000000</v>
@@ -8465,7 +8477,7 @@
         <v>74</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>741</v>
+        <v>1164</v>
       </c>
       <c r="J15" s="11">
         <v>200000000</v>
@@ -8512,10 +8524,10 @@
         <v>79</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>80</v>
+        <v>1160</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J16" s="11">
         <v>100</v>
@@ -8559,13 +8571,13 @@
         <v>1020303</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>80</v>
+        <v>1160</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J17" s="11">
         <v>1000</v>
@@ -8609,13 +8621,13 @@
         <v>1020304</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>80</v>
+        <v>1160</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J18" s="11">
         <v>10000</v>
@@ -8659,13 +8671,13 @@
         <v>-1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>80</v>
+        <v>1160</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J19" s="11">
         <v>100000</v>
@@ -8709,13 +8721,13 @@
         <v>1020402</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>86</v>
+        <v>1161</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>741</v>
+        <v>1165</v>
       </c>
       <c r="J20" s="11">
         <v>200</v>
@@ -8759,13 +8771,13 @@
         <v>1020403</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>86</v>
+        <v>1161</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>741</v>
+        <v>1165</v>
       </c>
       <c r="J21" s="11">
         <v>2000</v>
@@ -8809,13 +8821,13 @@
         <v>1020404</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>86</v>
+        <v>1161</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>741</v>
+        <v>1165</v>
       </c>
       <c r="J22" s="11">
         <v>20000</v>
@@ -8859,13 +8871,13 @@
         <v>-1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>86</v>
+        <v>1161</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>741</v>
+        <v>1165</v>
       </c>
       <c r="J23" s="11">
         <v>200000</v>
@@ -8909,13 +8921,13 @@
         <v>1020502</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J24" s="11">
         <v>10</v>
@@ -8957,13 +8969,13 @@
         <v>1020503</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J25" s="11">
         <v>100</v>
@@ -9005,13 +9017,13 @@
         <v>1020504</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J26" s="11">
         <v>1000</v>
@@ -9053,13 +9065,13 @@
         <v>-1</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J27" s="11">
         <v>10000</v>
@@ -9101,13 +9113,13 @@
         <v>2010102</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J28" s="11">
         <v>10</v>
@@ -9149,13 +9161,13 @@
         <v>2010103</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J29" s="11">
         <v>20</v>
@@ -9197,13 +9209,13 @@
         <v>2010104</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J30" s="11">
         <v>30</v>
@@ -9245,13 +9257,13 @@
         <v>2010105</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J31" s="11">
         <v>40</v>
@@ -9293,13 +9305,13 @@
         <v>2010106</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J32" s="11">
         <v>50</v>
@@ -9341,13 +9353,13 @@
         <v>-1</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J33" s="11">
         <v>60</v>
@@ -9389,13 +9401,13 @@
         <v>2020202</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J34" s="11">
         <v>1</v>
@@ -9439,13 +9451,13 @@
         <v>2020203</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
@@ -9489,13 +9501,13 @@
         <v>2020204</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
@@ -9539,13 +9551,13 @@
         <v>2020205</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J37" s="11">
         <v>1</v>
@@ -9589,13 +9601,13 @@
         <v>2020206</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J38" s="11">
         <v>3</v>
@@ -9639,13 +9651,13 @@
         <v>2020207</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J39" s="11">
         <v>3</v>
@@ -9689,13 +9701,13 @@
         <v>2020208</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J40" s="11">
         <v>3</v>
@@ -9739,13 +9751,13 @@
         <v>-1</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J41" s="11">
         <v>3</v>
@@ -9789,13 +9801,13 @@
         <v>2020302</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J42" s="11">
         <v>1</v>
@@ -9839,13 +9851,13 @@
         <v>2020303</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J43" s="11">
         <v>1</v>
@@ -9889,13 +9901,13 @@
         <v>2020304</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J44" s="11">
         <v>1</v>
@@ -9939,13 +9951,13 @@
         <v>2020305</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J45" s="11">
         <v>1</v>
@@ -9989,13 +10001,13 @@
         <v>2020306</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J46" s="11">
         <v>3</v>
@@ -10039,13 +10051,13 @@
         <v>2020307</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J47" s="11">
         <v>3</v>
@@ -10089,13 +10101,13 @@
         <v>2020308</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J48" s="11">
         <v>3</v>
@@ -10139,13 +10151,13 @@
         <v>-1</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J49" s="11">
         <v>3</v>
@@ -10189,13 +10201,13 @@
         <v>2030102</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J50" s="11">
         <v>20000</v>
@@ -10239,13 +10251,13 @@
         <v>2030103</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J51" s="11">
         <v>100000</v>
@@ -10289,13 +10301,13 @@
         <v>2030104</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J52" s="11">
         <v>500000</v>
@@ -10339,13 +10351,13 @@
         <v>-1</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J53" s="11">
         <v>2000000</v>
@@ -10389,13 +10401,13 @@
         <v>2030202</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J54" s="11">
         <v>6</v>
@@ -10436,13 +10448,13 @@
         <v>2030203</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J55" s="11">
         <v>30</v>
@@ -10483,13 +10495,13 @@
         <v>2030204</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J56" s="11">
         <v>100</v>
@@ -10530,13 +10542,13 @@
         <v>-1</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J57" s="11">
         <v>200</v>
@@ -10577,13 +10589,13 @@
         <v>2040102</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J58" s="11">
         <v>1</v>
@@ -10624,13 +10636,13 @@
         <v>2040103</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J59" s="11">
         <v>3</v>
@@ -10671,13 +10683,13 @@
         <v>2040104</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J60" s="11">
         <v>10</v>
@@ -10718,13 +10730,13 @@
         <v>2040105</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J61" s="11">
         <v>15</v>
@@ -10765,13 +10777,13 @@
         <v>-1</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J62" s="11">
         <v>30</v>
@@ -10812,13 +10824,13 @@
         <v>2040202</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J63" s="11">
         <v>10</v>
@@ -10859,13 +10871,13 @@
         <v>2040203</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J64" s="11">
         <v>30</v>
@@ -10906,13 +10918,13 @@
         <v>2040204</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J65" s="11">
         <v>100</v>
@@ -10953,13 +10965,13 @@
         <v>2040205</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J66" s="11">
         <v>150</v>
@@ -11000,13 +11012,13 @@
         <v>-1</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J67" s="11">
         <v>300</v>
@@ -11047,13 +11059,13 @@
         <v>2040302</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J68" s="11">
         <v>3</v>
@@ -11094,13 +11106,13 @@
         <v>2040303</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J69" s="11">
         <v>9</v>
@@ -11142,13 +11154,13 @@
         <v>2040304</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J70" s="11">
         <v>30</v>
@@ -11190,13 +11202,13 @@
         <v>2040305</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J71" s="11">
         <v>45</v>
@@ -11238,13 +11250,13 @@
         <v>-1</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J72" s="11">
         <v>90</v>
@@ -11286,13 +11298,13 @@
         <v>-1</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J73" s="11">
         <v>1</v>
@@ -11336,13 +11348,13 @@
         <v>-1</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J74" s="11">
         <v>50</v>
@@ -11384,13 +11396,13 @@
         <v>-1</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J75" s="11">
         <v>1</v>
@@ -11434,13 +11446,13 @@
         <v>-1</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J76" s="11">
         <v>1</v>
@@ -11484,13 +11496,13 @@
         <v>-1</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J77" s="11">
         <v>50</v>
@@ -11532,13 +11544,13 @@
         <v>-1</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J78" s="11">
         <v>1</v>
@@ -11580,13 +11592,13 @@
         <v>-1</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J79" s="11">
         <v>12</v>
@@ -11628,13 +11640,13 @@
         <v>-1</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J80" s="11">
         <v>1</v>
@@ -11678,13 +11690,13 @@
         <v>-1</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J81" s="11">
         <v>3</v>
@@ -11728,13 +11740,13 @@
         <v>-1</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J82" s="11">
         <v>10</v>
@@ -11776,13 +11788,13 @@
         <v>-1</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J83" s="11">
         <v>10</v>
@@ -11826,13 +11838,13 @@
         <v>-1</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J84" s="11">
         <v>10</v>
@@ -11876,13 +11888,13 @@
         <v>-1</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J85" s="11">
         <v>10</v>
@@ -11926,13 +11938,13 @@
         <v>-1</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J86" s="11">
         <v>10</v>
@@ -11976,13 +11988,13 @@
         <v>-1</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J87" s="11">
         <v>5</v>
@@ -12024,13 +12036,13 @@
         <v>-1</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J88" s="11">
         <v>5</v>
@@ -12072,13 +12084,13 @@
         <v>-1</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J89" s="11">
         <v>1200</v>
@@ -12120,13 +12132,13 @@
         <v>-1</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J90" s="11">
         <v>3</v>
@@ -12168,13 +12180,13 @@
         <v>-1</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J91" s="11">
         <v>1</v>
@@ -12218,13 +12230,13 @@
         <v>-1</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J92" s="11">
         <v>3</v>
@@ -12266,13 +12278,13 @@
         <v>-1</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J93" s="11">
         <v>1</v>
@@ -12316,13 +12328,13 @@
         <v>-1</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J94" s="11">
         <v>10</v>
@@ -12366,13 +12378,13 @@
         <v>-1</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J95" s="11">
         <v>10</v>
@@ -12416,13 +12428,13 @@
         <v>-1</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J96" s="11">
         <v>1</v>
@@ -12466,13 +12478,13 @@
         <v>-1</v>
       </c>
       <c r="G97" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I97" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="J97" s="11">
         <v>5</v>
@@ -12514,13 +12526,13 @@
         <v>7030102</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J98" s="11">
         <v>3</v>
@@ -12558,13 +12570,13 @@
         <v>-1</v>
       </c>
       <c r="G99" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="H99" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>772</v>
-      </c>
       <c r="I99" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J99" s="11">
         <v>5</v>
@@ -12602,13 +12614,13 @@
         <v>7030102</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J100" s="11">
         <v>2</v>
@@ -12648,13 +12660,13 @@
         <v>-1</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H101" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="I101" s="11" t="s">
         <v>766</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>768</v>
       </c>
       <c r="J101" s="11">
         <v>1</v>
@@ -12694,13 +12706,13 @@
         <v>7030302</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J102" s="11">
         <v>2</v>
@@ -12740,13 +12752,13 @@
         <v>-1</v>
       </c>
       <c r="G103" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="H103" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>777</v>
-      </c>
       <c r="I103" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J103" s="11">
         <v>2</v>
@@ -12786,13 +12798,13 @@
         <v>8020102</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J104" s="11">
         <v>1</v>
@@ -12832,13 +12844,13 @@
         <v>-1</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="J105" s="11">
         <v>2</v>
@@ -12878,13 +12890,13 @@
         <v>8020202</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="J106" s="11">
         <v>1</v>
@@ -12924,13 +12936,13 @@
         <v>-1</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J107" s="11">
         <v>2</v>
@@ -12970,13 +12982,13 @@
         <v>8030102</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J108" s="11">
         <v>1</v>
@@ -13016,13 +13028,13 @@
         <v>8030103</v>
       </c>
       <c r="G109" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="I109" s="11" t="s">
         <v>797</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>799</v>
       </c>
       <c r="J109" s="11">
         <v>1</v>
@@ -13062,13 +13074,13 @@
         <v>8030104</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J110" s="11">
         <v>1</v>
@@ -13108,13 +13120,13 @@
         <v>8030105</v>
       </c>
       <c r="G111" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="I111" s="11" t="s">
         <v>802</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>803</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="J111" s="11">
         <v>1</v>
@@ -13152,13 +13164,13 @@
         <v>8030106</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J112" s="11">
         <v>1</v>
@@ -13198,13 +13210,13 @@
         <v>8030107</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J113" s="11">
         <v>2</v>
@@ -13242,13 +13254,13 @@
         <v>8030108</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J114" s="11">
         <v>1</v>
@@ -13286,13 +13298,13 @@
         <v>8030109</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J115" s="11">
         <v>1</v>
@@ -13332,13 +13344,13 @@
         <v>8030110</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J116" s="11">
         <v>1</v>
@@ -13378,13 +13390,13 @@
         <v>8030111</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J117" s="11">
         <v>1</v>
@@ -13424,13 +13436,13 @@
         <v>8030112</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J118" s="11">
         <v>1</v>
@@ -13470,13 +13482,13 @@
         <v>8030113</v>
       </c>
       <c r="G119" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="I119" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>819</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>820</v>
       </c>
       <c r="J119" s="11">
         <v>1</v>
@@ -13516,13 +13528,13 @@
         <v>8030114</v>
       </c>
       <c r="G120" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="I120" s="11" t="s">
         <v>821</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>822</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>823</v>
       </c>
       <c r="J120" s="11">
         <v>2</v>
@@ -13562,13 +13574,13 @@
         <v>8030115</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J121" s="11">
         <v>1</v>
@@ -13608,13 +13620,13 @@
         <v>8030116</v>
       </c>
       <c r="G122" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="I122" s="11" t="s">
         <v>826</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>827</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>828</v>
       </c>
       <c r="J122" s="11">
         <v>2</v>
@@ -13654,13 +13666,13 @@
         <v>8030117</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J123" s="11">
         <v>1</v>
@@ -13700,13 +13712,13 @@
         <v>8030118</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J124" s="11">
         <v>1</v>
@@ -13746,13 +13758,13 @@
         <v>8030119</v>
       </c>
       <c r="G125" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="I125" s="11" t="s">
         <v>833</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="I125" s="11" t="s">
-        <v>835</v>
       </c>
       <c r="J125" s="11">
         <v>1</v>
@@ -13792,13 +13804,13 @@
         <v>8030120</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J126" s="11">
         <v>1</v>
@@ -13838,13 +13850,13 @@
         <v>8030121</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J127" s="11">
         <v>1</v>
@@ -13884,13 +13896,13 @@
         <v>8030122</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J128" s="11">
         <v>4</v>
@@ -13928,13 +13940,13 @@
         <v>8030123</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J129" s="11">
         <v>5</v>
@@ -13974,13 +13986,13 @@
         <v>8030124</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J130" s="11">
         <v>1</v>
@@ -14020,13 +14032,13 @@
         <v>8030125</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J131" s="11">
         <v>1</v>
@@ -14066,13 +14078,13 @@
         <v>8030126</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J132" s="11">
         <v>5</v>
@@ -14110,13 +14122,13 @@
         <v>8030127</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J133" s="11">
         <v>1</v>
@@ -14156,13 +14168,13 @@
         <v>8030128</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J134" s="11">
         <v>1</v>
@@ -14202,13 +14214,13 @@
         <v>8030129</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J135" s="11">
         <v>1</v>
@@ -14246,13 +14258,13 @@
         <v>8030130</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J136" s="11">
         <v>10</v>
@@ -14290,13 +14302,13 @@
         <v>8030131</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J137" s="11">
         <v>1</v>
@@ -14336,13 +14348,13 @@
         <v>8030132</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J138" s="11">
         <v>1</v>
@@ -14382,13 +14394,13 @@
         <v>8030133</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J139" s="11">
         <v>1</v>
@@ -14428,13 +14440,13 @@
         <v>8030134</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J140" s="11">
         <v>10</v>
@@ -14474,13 +14486,13 @@
         <v>8030135</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J141" s="11">
         <v>1</v>
@@ -14520,13 +14532,13 @@
         <v>8030136</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J142" s="11">
         <v>1</v>
@@ -14566,13 +14578,13 @@
         <v>8030137</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J143" s="11">
         <v>3</v>
@@ -14612,13 +14624,13 @@
         <v>8030138</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J144" s="11">
         <v>1</v>
@@ -14658,13 +14670,13 @@
         <v>8030139</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J145" s="11">
         <v>1</v>
@@ -14704,13 +14716,13 @@
         <v>8030140</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J146" s="11">
         <v>15</v>
@@ -14748,13 +14760,13 @@
         <v>8030141</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J147" s="11">
         <v>1</v>
@@ -14794,13 +14806,13 @@
         <v>8030142</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J148" s="11">
         <v>1</v>
@@ -14840,13 +14852,13 @@
         <v>8030143</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J149" s="11">
         <v>1</v>
@@ -14886,13 +14898,13 @@
         <v>8030144</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J150" s="11">
         <v>1</v>
@@ -14932,13 +14944,13 @@
         <v>8030145</v>
       </c>
       <c r="G151" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="I151" s="11" t="s">
         <v>833</v>
-      </c>
-      <c r="H151" s="11" t="s">
-        <v>883</v>
-      </c>
-      <c r="I151" s="11" t="s">
-        <v>835</v>
       </c>
       <c r="J151" s="11">
         <v>1</v>
@@ -14978,13 +14990,13 @@
         <v>8030146</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J152" s="11">
         <v>9</v>
@@ -15024,13 +15036,13 @@
         <v>8030147</v>
       </c>
       <c r="G153" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="I153" s="11" t="s">
         <v>833</v>
-      </c>
-      <c r="H153" s="11" t="s">
-        <v>885</v>
-      </c>
-      <c r="I153" s="11" t="s">
-        <v>835</v>
       </c>
       <c r="J153" s="11">
         <v>1</v>
@@ -15070,13 +15082,13 @@
         <v>8030148</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J154" s="11">
         <v>2</v>
@@ -15114,13 +15126,13 @@
         <v>8030149</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J155" s="11">
         <v>1</v>
@@ -15160,13 +15172,13 @@
         <v>8030150</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J156" s="11">
         <v>1</v>
@@ -15206,13 +15218,13 @@
         <v>8030151</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J157" s="11">
         <v>1</v>
@@ -15252,13 +15264,13 @@
         <v>8030152</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J158" s="11">
         <v>1</v>
@@ -15298,13 +15310,13 @@
         <v>8030153</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J159" s="11">
         <v>1</v>
@@ -15344,13 +15356,13 @@
         <v>8030154</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J160" s="11">
         <v>1</v>
@@ -15390,13 +15402,13 @@
         <v>8030155</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J161" s="11">
         <v>1</v>
@@ -15436,13 +15448,13 @@
         <v>8030156</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J162" s="11">
         <v>1</v>
@@ -15482,13 +15494,13 @@
         <v>8030157</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J163" s="11">
         <v>1</v>
@@ -15528,13 +15540,13 @@
         <v>8030158</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J164" s="11">
         <v>1</v>
@@ -15574,13 +15586,13 @@
         <v>8030159</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J165" s="11">
         <v>1</v>
@@ -15620,13 +15632,13 @@
         <v>8030160</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J166" s="11">
         <v>1</v>
@@ -15666,13 +15678,13 @@
         <v>8030161</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J167" s="11">
         <v>1</v>
@@ -15712,13 +15724,13 @@
         <v>8030162</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J168" s="11">
         <v>1</v>
@@ -15758,13 +15770,13 @@
         <v>8030163</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J169" s="11">
         <v>1</v>
@@ -15804,13 +15816,13 @@
         <v>8030164</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J170" s="11">
         <v>3</v>
@@ -15850,13 +15862,13 @@
         <v>8030165</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J171" s="11">
         <v>1</v>
@@ -15896,13 +15908,13 @@
         <v>8030166</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J172" s="11">
         <v>1</v>
@@ -15942,13 +15954,13 @@
         <v>8030167</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J173" s="11">
         <v>1</v>
@@ -15988,13 +16000,13 @@
         <v>8030168</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J174" s="11">
         <v>1</v>
@@ -16034,13 +16046,13 @@
         <v>8030169</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J175" s="11">
         <v>1</v>
@@ -16080,13 +16092,13 @@
         <v>8030170</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J176" s="11">
         <v>1</v>
@@ -16126,13 +16138,13 @@
         <v>8030171</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J177" s="11">
         <v>1</v>
@@ -16172,13 +16184,13 @@
         <v>8030172</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J178" s="11">
         <v>1</v>
@@ -16218,13 +16230,13 @@
         <v>8030173</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H179" s="11" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J179" s="11">
         <v>1</v>
@@ -16264,13 +16276,13 @@
         <v>8030174</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J180" s="11">
         <v>1</v>
@@ -16308,13 +16320,13 @@
         <v>8030175</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H181" s="11" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J181" s="11">
         <v>1</v>
@@ -16354,13 +16366,13 @@
         <v>8030176</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H182" s="11" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J182" s="11">
         <v>1</v>
@@ -16400,13 +16412,13 @@
         <v>8030177</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H183" s="11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J183" s="11">
         <v>1</v>
@@ -16446,13 +16458,13 @@
         <v>8030178</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H184" s="11" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J184" s="11">
         <v>1</v>
@@ -16492,13 +16504,13 @@
         <v>8030179</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H185" s="11" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J185" s="11">
         <v>1</v>
@@ -16538,13 +16550,13 @@
         <v>8030180</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H186" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J186" s="11">
         <v>1</v>
@@ -16584,13 +16596,13 @@
         <v>8030181</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J187" s="11">
         <v>9</v>
@@ -16630,13 +16642,13 @@
         <v>8030182</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H188" s="11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J188" s="11">
         <v>3</v>
@@ -16674,13 +16686,13 @@
         <v>8030183</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H189" s="11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J189" s="11">
         <v>1</v>
@@ -16720,13 +16732,13 @@
         <v>8030184</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J190" s="11">
         <v>1</v>
@@ -16766,13 +16778,13 @@
         <v>8030185</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J191" s="11">
         <v>1</v>
@@ -16812,13 +16824,13 @@
         <v>8030186</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J192" s="11">
         <v>1</v>
@@ -16858,13 +16870,13 @@
         <v>8030187</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H193" s="11" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J193" s="11">
         <v>2</v>
@@ -16904,13 +16916,13 @@
         <v>8030188</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H194" s="11" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J194" s="11">
         <v>1</v>
@@ -16950,13 +16962,13 @@
         <v>8030189</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H195" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J195" s="11">
         <v>1</v>
@@ -16996,13 +17008,13 @@
         <v>8030190</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H196" s="11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J196" s="11">
         <v>30</v>
@@ -17040,13 +17052,13 @@
         <v>8030191</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H197" s="11" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J197" s="11">
         <v>1</v>
@@ -17086,13 +17098,13 @@
         <v>8030192</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H198" s="11" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J198" s="11">
         <v>1</v>
@@ -17132,13 +17144,13 @@
         <v>8030193</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H199" s="11" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J199" s="11">
         <v>1</v>
@@ -17178,13 +17190,13 @@
         <v>8030194</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H200" s="11" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J200" s="11">
         <v>1</v>
@@ -17224,13 +17236,13 @@
         <v>8030195</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H201" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J201" s="11">
         <v>1</v>
@@ -17270,13 +17282,13 @@
         <v>8030196</v>
       </c>
       <c r="G202" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H202" s="11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J202" s="11">
         <v>1</v>
@@ -17316,13 +17328,13 @@
         <v>8030197</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H203" s="11" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J203" s="11">
         <v>1</v>
@@ -17362,13 +17374,13 @@
         <v>8030198</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H204" s="11" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J204" s="11">
         <v>1</v>
@@ -17408,13 +17420,13 @@
         <v>8030199</v>
       </c>
       <c r="G205" s="11" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H205" s="11" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J205" s="11">
         <v>1</v>
@@ -17454,13 +17466,13 @@
         <v>8030200</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H206" s="11" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J206" s="11">
         <v>1</v>
@@ -17500,13 +17512,13 @@
         <v>8030201</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H207" s="11" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J207" s="11">
         <v>1</v>
@@ -17546,13 +17558,13 @@
         <v>8030202</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H208" s="11" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J208" s="11">
         <v>1</v>
@@ -17592,13 +17604,13 @@
         <v>8030203</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H209" s="11" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J209" s="11">
         <v>1</v>
@@ -17638,13 +17650,13 @@
         <v>8030204</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H210" s="11" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J210" s="11">
         <v>1</v>
@@ -17684,13 +17696,13 @@
         <v>8030205</v>
       </c>
       <c r="G211" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H211" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J211" s="11">
         <v>1</v>
@@ -17730,13 +17742,13 @@
         <v>8030206</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H212" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J212" s="11">
         <v>1</v>
@@ -17776,13 +17788,13 @@
         <v>8030207</v>
       </c>
       <c r="G213" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H213" s="11" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J213" s="11">
         <v>1</v>
@@ -17822,13 +17834,13 @@
         <v>8030208</v>
       </c>
       <c r="G214" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H214" s="11" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J214" s="11">
         <v>1</v>
@@ -17868,13 +17880,13 @@
         <v>8030209</v>
       </c>
       <c r="G215" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H215" s="11" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J215" s="11">
         <v>35</v>
@@ -17914,13 +17926,13 @@
         <v>8030210</v>
       </c>
       <c r="G216" s="11" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H216" s="11" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J216" s="11">
         <v>1</v>
@@ -17960,13 +17972,13 @@
         <v>8030211</v>
       </c>
       <c r="G217" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H217" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J217" s="11">
         <v>5</v>
@@ -18004,13 +18016,13 @@
         <v>8030212</v>
       </c>
       <c r="G218" s="11" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H218" s="11" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J218" s="11">
         <v>1</v>
@@ -18050,13 +18062,13 @@
         <v>8030213</v>
       </c>
       <c r="G219" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H219" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J219" s="11">
         <v>1</v>
@@ -18096,13 +18108,13 @@
         <v>8030214</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H220" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J220" s="11">
         <v>1</v>
@@ -18142,13 +18154,13 @@
         <v>8030215</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H221" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J221" s="11">
         <v>1</v>
@@ -18188,13 +18200,13 @@
         <v>8030216</v>
       </c>
       <c r="G222" s="11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H222" s="11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J222" s="11">
         <v>1</v>
@@ -18234,13 +18246,13 @@
         <v>8030217</v>
       </c>
       <c r="G223" s="11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H223" s="11" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J223" s="11">
         <v>4</v>
@@ -18278,13 +18290,13 @@
         <v>8030218</v>
       </c>
       <c r="G224" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H224" s="11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J224" s="11">
         <v>1</v>
@@ -18324,13 +18336,13 @@
         <v>8030219</v>
       </c>
       <c r="G225" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H225" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J225" s="11">
         <v>1</v>
@@ -18370,13 +18382,13 @@
         <v>8030220</v>
       </c>
       <c r="G226" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H226" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="H226" s="11" t="s">
-        <v>1017</v>
-      </c>
       <c r="I226" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J226" s="11">
         <v>1</v>
@@ -18416,13 +18428,13 @@
         <v>8030221</v>
       </c>
       <c r="G227" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H227" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I227" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J227" s="11">
         <v>1</v>
@@ -18462,13 +18474,13 @@
         <v>8030222</v>
       </c>
       <c r="G228" s="11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H228" s="11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I228" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J228" s="11">
         <v>3</v>
@@ -18508,13 +18520,13 @@
         <v>8030223</v>
       </c>
       <c r="G229" s="11" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H229" s="11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I229" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J229" s="11">
         <v>1</v>
@@ -18554,13 +18566,13 @@
         <v>8030224</v>
       </c>
       <c r="G230" s="11" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="H230" s="11" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I230" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J230" s="11">
         <v>1</v>
@@ -18600,13 +18612,13 @@
         <v>8030225</v>
       </c>
       <c r="G231" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H231" s="11" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I231" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J231" s="11">
         <v>1</v>
@@ -18646,13 +18658,13 @@
         <v>8030226</v>
       </c>
       <c r="G232" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H232" s="11" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I232" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J232" s="11">
         <v>1</v>
@@ -18692,13 +18704,13 @@
         <v>8030227</v>
       </c>
       <c r="G233" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H233" s="11" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I233" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J233" s="11">
         <v>1</v>
@@ -18738,13 +18750,13 @@
         <v>8030228</v>
       </c>
       <c r="G234" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H234" s="11" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I234" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J234" s="11">
         <v>1</v>
@@ -18784,13 +18796,13 @@
         <v>8030229</v>
       </c>
       <c r="G235" s="11" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H235" s="11" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I235" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J235" s="11">
         <v>1</v>
@@ -18830,13 +18842,13 @@
         <v>-1</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H236" s="11" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="I236" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J236" s="11">
         <v>40</v>
@@ -18874,13 +18886,13 @@
         <v>804002</v>
       </c>
       <c r="G237" s="11" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="H237" s="11" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I237" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J237" s="11">
         <v>1</v>
@@ -18920,13 +18932,13 @@
         <v>804003</v>
       </c>
       <c r="G238" s="11" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="H238" s="11" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I238" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J238" s="11">
         <v>3</v>
@@ -18966,13 +18978,13 @@
         <v>804004</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="H239" s="11" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I239" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J239" s="11">
         <v>1</v>
@@ -19012,13 +19024,13 @@
         <v>804005</v>
       </c>
       <c r="G240" s="11" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="H240" s="11" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I240" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J240" s="11">
         <v>2</v>
@@ -19056,13 +19068,13 @@
         <v>804006</v>
       </c>
       <c r="G241" s="11" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="H241" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I241" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J241" s="11">
         <v>20</v>
@@ -19102,13 +19114,13 @@
         <v>804007</v>
       </c>
       <c r="G242" s="11" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="H242" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I242" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J242" s="11">
         <v>5</v>
@@ -19148,13 +19160,13 @@
         <v>804008</v>
       </c>
       <c r="G243" s="11" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="H243" s="11" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="I243" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J243" s="11">
         <v>10</v>
@@ -19194,13 +19206,13 @@
         <v>804009</v>
       </c>
       <c r="G244" s="11" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="H244" s="11" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="I244" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J244" s="11">
         <v>2</v>
@@ -19240,13 +19252,13 @@
         <v>804010</v>
       </c>
       <c r="G245" s="11" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="H245" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I245" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J245" s="11">
         <v>30</v>
@@ -19286,13 +19298,13 @@
         <v>804011</v>
       </c>
       <c r="G246" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H246" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I246" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J246" s="11">
         <v>2</v>
@@ -19332,13 +19344,13 @@
         <v>804012</v>
       </c>
       <c r="G247" s="11" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="H247" s="11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I247" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J247" s="11">
         <v>5</v>
@@ -19378,13 +19390,13 @@
         <v>804013</v>
       </c>
       <c r="G248" s="11" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H248" s="11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="I248" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J248" s="11">
         <v>10</v>
@@ -19424,13 +19436,13 @@
         <v>804014</v>
       </c>
       <c r="G249" s="11" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H249" s="11" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="I249" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J249" s="11">
         <v>40</v>
@@ -19470,13 +19482,13 @@
         <v>804015</v>
       </c>
       <c r="G250" s="11" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H250" s="11" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="I250" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J250" s="11">
         <v>2</v>
@@ -19516,13 +19528,13 @@
         <v>804016</v>
       </c>
       <c r="G251" s="11" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="H251" s="11" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I251" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J251" s="11">
         <v>1200</v>
@@ -19562,13 +19574,13 @@
         <v>804017</v>
       </c>
       <c r="G252" s="11" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H252" s="11" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I252" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J252" s="11">
         <v>1</v>
@@ -19608,13 +19620,13 @@
         <v>804018</v>
       </c>
       <c r="G253" s="11" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="H253" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I253" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J253" s="11">
         <v>50</v>
@@ -19654,13 +19666,13 @@
         <v>804019</v>
       </c>
       <c r="G254" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H254" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="I254" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J254" s="11">
         <v>2</v>
@@ -19700,13 +19712,13 @@
         <v>804020</v>
       </c>
       <c r="G255" s="11" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="H255" s="11" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="I255" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J255" s="11">
         <v>50</v>
@@ -19746,13 +19758,13 @@
         <v>804021</v>
       </c>
       <c r="G256" s="11" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="H256" s="11" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I256" s="11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J256" s="11">
         <v>3</v>
@@ -19792,13 +19804,13 @@
         <v>804022</v>
       </c>
       <c r="G257" s="11" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H257" s="11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I257" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J257" s="11">
         <v>60</v>
@@ -19838,13 +19850,13 @@
         <v>804023</v>
       </c>
       <c r="G258" s="11" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="H258" s="11" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I258" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J258" s="11">
         <v>3</v>
@@ -19884,13 +19896,13 @@
         <v>804024</v>
       </c>
       <c r="G259" s="11" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="H259" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I259" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J259" s="11">
         <v>10</v>
@@ -19930,13 +19942,13 @@
         <v>804025</v>
       </c>
       <c r="G260" s="11" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H260" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I260" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J260" s="11">
         <v>30</v>
@@ -19976,13 +19988,13 @@
         <v>804026</v>
       </c>
       <c r="G261" s="11" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H261" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I261" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J261" s="11">
         <v>70</v>
@@ -20022,13 +20034,13 @@
         <v>804027</v>
       </c>
       <c r="G262" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H262" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J262" s="11">
         <v>3</v>
@@ -20068,13 +20080,13 @@
         <v>804028</v>
       </c>
       <c r="G263" s="11" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="H263" s="11" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I263" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J263" s="11">
         <v>15000</v>
@@ -20114,13 +20126,13 @@
         <v>804029</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="H264" s="11" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I264" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J264" s="11">
         <v>3</v>
@@ -20160,13 +20172,13 @@
         <v>804030</v>
       </c>
       <c r="G265" s="11" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H265" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I265" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J265" s="11">
         <v>80</v>
@@ -20206,13 +20218,13 @@
         <v>804031</v>
       </c>
       <c r="G266" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H266" s="11" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I266" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J266" s="11">
         <v>3</v>
@@ -20252,13 +20264,13 @@
         <v>804032</v>
       </c>
       <c r="G267" s="11" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="H267" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I267" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J267" s="11">
         <v>1300</v>
@@ -20298,13 +20310,13 @@
         <v>804033</v>
       </c>
       <c r="G268" s="11" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H268" s="11" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I268" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J268" s="11">
         <v>3</v>
@@ -20344,13 +20356,13 @@
         <v>804034</v>
       </c>
       <c r="G269" s="11" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H269" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I269" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J269" s="11">
         <v>90</v>
@@ -20390,13 +20402,13 @@
         <v>804035</v>
       </c>
       <c r="G270" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H270" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I270" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J270" s="11">
         <v>3</v>
@@ -20436,13 +20448,13 @@
         <v>804036</v>
       </c>
       <c r="G271" s="11" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="H271" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I271" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J271" s="11">
         <v>80</v>
@@ -20482,13 +20494,13 @@
         <v>804037</v>
       </c>
       <c r="G272" s="11" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H272" s="11" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I272" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J272" s="11">
         <v>2</v>
@@ -20528,13 +20540,13 @@
         <v>804038</v>
       </c>
       <c r="G273" s="11" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="H273" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I273" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J273" s="11">
         <v>100</v>
@@ -20574,13 +20586,13 @@
         <v>804039</v>
       </c>
       <c r="G274" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H274" s="11" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="I274" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J274" s="11">
         <v>3</v>
@@ -20620,13 +20632,13 @@
         <v>804040</v>
       </c>
       <c r="G275" s="11" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="H275" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I275" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J275" s="11">
         <v>1400</v>
@@ -20666,13 +20678,13 @@
         <v>804041</v>
       </c>
       <c r="G276" s="11" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="H276" s="11" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="I276" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J276" s="11">
         <v>50</v>
@@ -20712,13 +20724,13 @@
         <v>804042</v>
       </c>
       <c r="G277" s="11" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H277" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I277" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J277" s="11">
         <v>110</v>
@@ -20758,13 +20770,13 @@
         <v>804043</v>
       </c>
       <c r="G278" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H278" s="11" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="I278" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J278" s="11">
         <v>3</v>
@@ -20804,13 +20816,13 @@
         <v>804044</v>
       </c>
       <c r="G279" s="11" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="H279" s="11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="I279" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J279" s="11">
         <v>100</v>
@@ -20850,13 +20862,13 @@
         <v>804045</v>
       </c>
       <c r="G280" s="11" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="H280" s="11" t="s">
-        <v>1078</v>
+        <v>1162</v>
       </c>
       <c r="I280" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J280" s="11">
         <v>3000</v>
@@ -20896,13 +20908,13 @@
         <v>804046</v>
       </c>
       <c r="G281" s="11" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="H281" s="11" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="I281" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J281" s="11">
         <v>120</v>
@@ -20942,13 +20954,13 @@
         <v>804047</v>
       </c>
       <c r="G282" s="11" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="H282" s="11" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="I282" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J282" s="11">
         <v>3</v>
@@ -20988,13 +21000,13 @@
         <v>804048</v>
       </c>
       <c r="G283" s="11" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="H283" s="11" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="I283" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J283" s="11">
         <v>120</v>
@@ -21034,13 +21046,13 @@
         <v>804049</v>
       </c>
       <c r="G284" s="11" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H284" s="11" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="I284" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J284" s="11">
         <v>100</v>
@@ -21080,13 +21092,13 @@
         <v>804050</v>
       </c>
       <c r="G285" s="11" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="H285" s="11" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="I285" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J285" s="11">
         <v>130</v>
@@ -21126,13 +21138,13 @@
         <v>804051</v>
       </c>
       <c r="G286" s="11" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="H286" s="11" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="I286" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J286" s="11">
         <v>1</v>
@@ -21172,13 +21184,13 @@
         <v>804052</v>
       </c>
       <c r="G287" s="11" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="H287" s="11" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="I287" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J287" s="11">
         <v>140</v>
@@ -21218,13 +21230,13 @@
         <v>804053</v>
       </c>
       <c r="G288" s="11" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="H288" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="I288" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J288" s="11">
         <v>5000</v>
@@ -21264,13 +21276,13 @@
         <v>804054</v>
       </c>
       <c r="G289" s="11" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="H289" s="11" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="I289" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J289" s="11">
         <v>140</v>
@@ -21310,13 +21322,13 @@
         <v>804055</v>
       </c>
       <c r="G290" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H290" s="11" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="I290" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J290" s="11">
         <v>3</v>
@@ -21356,13 +21368,13 @@
         <v>804056</v>
       </c>
       <c r="G291" s="11" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="H291" s="11" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="I291" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J291" s="11">
         <v>160</v>
@@ -21402,13 +21414,13 @@
         <v>804057</v>
       </c>
       <c r="G292" s="11" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="H292" s="11" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="I292" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J292" s="11">
         <v>6</v>
@@ -21448,13 +21460,13 @@
         <v>804058</v>
       </c>
       <c r="G293" s="11" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="H293" s="11" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="I293" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J293" s="11">
         <v>150</v>
@@ -21494,13 +21506,13 @@
         <v>804059</v>
       </c>
       <c r="G294" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H294" s="11" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="I294" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J294" s="11">
         <v>1</v>
@@ -21540,13 +21552,13 @@
         <v>804060</v>
       </c>
       <c r="G295" s="11" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="H295" s="11" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="I295" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J295" s="11">
         <v>180</v>
@@ -21586,13 +21598,13 @@
         <v>804061</v>
       </c>
       <c r="G296" s="11" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="H296" s="11" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="I296" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J296" s="11">
         <v>6</v>
@@ -21632,13 +21644,13 @@
         <v>804062</v>
       </c>
       <c r="G297" s="11" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="H297" s="11" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="I297" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J297" s="11">
         <v>160</v>
@@ -21678,13 +21690,13 @@
         <v>804063</v>
       </c>
       <c r="G298" s="11" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="H298" s="11" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="I298" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J298" s="11">
         <v>3</v>
@@ -21724,13 +21736,13 @@
         <v>804064</v>
       </c>
       <c r="G299" s="11" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="H299" s="11" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="I299" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J299" s="11">
         <v>200</v>
@@ -21770,13 +21782,13 @@
         <v>804065</v>
       </c>
       <c r="G300" s="11" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="H300" s="11" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="I300" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J300" s="11">
         <v>6</v>
@@ -21816,13 +21828,13 @@
         <v>804066</v>
       </c>
       <c r="G301" s="11" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H301" s="11" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="I301" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J301" s="11">
         <v>170</v>
@@ -21862,13 +21874,13 @@
         <v>804067</v>
       </c>
       <c r="G302" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H302" s="11" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="I302" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J302" s="11">
         <v>3</v>
@@ -21908,13 +21920,13 @@
         <v>804068</v>
       </c>
       <c r="G303" s="11" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="H303" s="11" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="I303" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J303" s="11">
         <v>225</v>
@@ -21954,13 +21966,13 @@
         <v>804069</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="H304" s="11" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="I304" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J304" s="11">
         <v>6</v>
@@ -22000,13 +22012,13 @@
         <v>804070</v>
       </c>
       <c r="G305" s="11" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H305" s="11" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="I305" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J305" s="11">
         <v>180</v>
@@ -22046,13 +22058,13 @@
         <v>804071</v>
       </c>
       <c r="G306" s="11" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="H306" s="11" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="I306" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J306" s="11">
         <v>2</v>
@@ -22092,13 +22104,13 @@
         <v>804072</v>
       </c>
       <c r="G307" s="11" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="H307" s="11" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="I307" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J307" s="11">
         <v>250</v>
@@ -22138,13 +22150,13 @@
         <v>804073</v>
       </c>
       <c r="G308" s="11" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="H308" s="11" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="I308" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J308" s="11">
         <v>6</v>
@@ -22184,13 +22196,13 @@
         <v>804074</v>
       </c>
       <c r="G309" s="11" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H309" s="11" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="I309" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J309" s="11">
         <v>190</v>
@@ -22230,13 +22242,13 @@
         <v>804075</v>
       </c>
       <c r="G310" s="11" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H310" s="11" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="I310" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J310" s="11">
         <v>5</v>
@@ -22276,13 +22288,13 @@
         <v>804076</v>
       </c>
       <c r="G311" s="11" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="H311" s="11" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="I311" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J311" s="11">
         <v>275</v>
@@ -22322,13 +22334,13 @@
         <v>804077</v>
       </c>
       <c r="G312" s="11" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="H312" s="11" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="I312" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J312" s="11">
         <v>6</v>
@@ -22368,13 +22380,13 @@
         <v>804078</v>
       </c>
       <c r="G313" s="11" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H313" s="11" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="I313" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J313" s="11">
         <v>200</v>
@@ -22414,13 +22426,13 @@
         <v>804079</v>
       </c>
       <c r="G314" s="11" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="H314" s="11" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I314" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J314" s="11">
         <v>10</v>
@@ -22460,13 +22472,13 @@
         <v>804080</v>
       </c>
       <c r="G315" s="11" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="H315" s="11" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="I315" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J315" s="11">
         <v>300</v>
@@ -22506,13 +22518,13 @@
         <v>-1</v>
       </c>
       <c r="G316" s="11" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="H316" s="11" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="I316" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J316" s="11">
         <v>6</v>
@@ -22542,7 +22554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -22560,7 +22572,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -22576,13 +22588,13 @@
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -22590,7 +22602,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="11">
         <f>SUMIFS(成就领奖!$P$4:$P$107,成就领奖!$A$4:$A$107,"="&amp;成就1级页签!A4)</f>
@@ -22602,7 +22614,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="11">
         <f>SUMIFS(成就领奖!$P$4:$P$107,成就领奖!$A$4:$A$107,"="&amp;成就1级页签!A5)</f>
@@ -22614,7 +22626,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" s="11">
         <f>SUMIFS(成就领奖!$P$4:$P$107,成就领奖!$A$4:$A$107,"="&amp;成就1级页签!A6)</f>
@@ -22626,7 +22638,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(成就领奖!$P$4:$P$107,成就领奖!$A$4:$A$107,"="&amp;成就1级页签!A7)</f>
@@ -22638,7 +22650,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C8" s="11">
         <f>SUMIFS(成就领奖!$P$4:$P$107,成就领奖!$A$4:$A$107,"="&amp;成就1级页签!A8)</f>
@@ -22650,7 +22662,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" s="11">
         <f>SUMIFS(成就领奖!$P$4:$P$107,成就领奖!$A$4:$A$107,"="&amp;成就1级页签!A9)</f>
@@ -22662,7 +22674,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="11">
         <f>SUMIFS(成就领奖!$P$4:$P$107,成就领奖!$A$4:$A$107,"="&amp;成就1级页签!A10)</f>
@@ -22674,7 +22686,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C11" s="11">
         <f>SUMIFS(成就领奖!$P$4:$P$316,成就领奖!$A$4:$A$316,"="&amp;成就1级页签!A11)</f>
@@ -22686,7 +22698,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="11">
         <f>SUMIFS(成就领奖!$P$4:$P$97,成就领奖!$A$4:$A$97,"="&amp;成就1级页签!A15)</f>
@@ -22743,16 +22755,16 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22766,7 +22778,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22780,7 +22792,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22794,7 +22806,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22808,7 +22820,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22822,7 +22834,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22836,7 +22848,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22850,7 +22862,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22864,7 +22876,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22878,7 +22890,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22892,7 +22904,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22906,7 +22918,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22920,7 +22932,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22934,7 +22946,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22948,7 +22960,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22962,7 +22974,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22976,7 +22988,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -22990,7 +23002,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -23004,7 +23016,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -23018,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -23032,7 +23044,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -23046,7 +23058,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -23060,7 +23072,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -23074,7 +23086,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -23106,53 +23118,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -23160,14 +23172,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23175,14 +23187,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23193,11 +23205,11 @@
         <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23208,11 +23220,11 @@
         <v>75</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -23220,14 +23232,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23235,14 +23247,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23250,14 +23262,14 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23265,14 +23277,14 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23280,14 +23292,14 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -23295,14 +23307,14 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23310,16 +23322,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23327,14 +23339,14 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23342,14 +23354,14 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23357,14 +23369,14 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23372,16 +23384,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23389,16 +23401,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23406,14 +23418,14 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23421,14 +23433,14 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23436,16 +23448,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23453,16 +23465,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23470,14 +23482,14 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23485,14 +23497,14 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -23500,14 +23512,14 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23515,16 +23527,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23532,16 +23544,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23549,14 +23561,14 @@
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23564,14 +23576,14 @@
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -23579,14 +23591,14 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23594,14 +23606,14 @@
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -23609,14 +23621,14 @@
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23624,16 +23636,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23641,14 +23653,14 @@
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -23656,14 +23668,14 @@
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23671,14 +23683,14 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23686,14 +23698,14 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -23701,14 +23713,14 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -23716,14 +23728,14 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23731,14 +23743,14 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -23746,16 +23758,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -23763,14 +23775,14 @@
         <v>40</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -23778,16 +23790,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -23795,14 +23807,14 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -23810,14 +23822,14 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23825,14 +23837,14 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -23840,14 +23852,14 @@
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -23855,14 +23867,14 @@
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -23870,14 +23882,14 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23885,14 +23897,14 @@
         <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23900,16 +23912,16 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
@@ -23917,14 +23929,14 @@
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -23932,14 +23944,14 @@
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -23947,14 +23959,14 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -23962,14 +23974,14 @@
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -23977,14 +23989,14 @@
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -23992,14 +24004,14 @@
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -24007,16 +24019,16 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -24027,11 +24039,11 @@
         <v>66</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -24039,14 +24051,14 @@
         <v>58</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -24054,14 +24066,14 @@
         <v>59</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -24069,14 +24081,14 @@
         <v>60</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -24084,14 +24096,14 @@
         <v>61</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -24099,14 +24111,14 @@
         <v>62</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -24114,14 +24126,14 @@
         <v>63</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -24129,14 +24141,14 @@
         <v>64</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -24144,14 +24156,14 @@
         <v>65</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -24159,14 +24171,14 @@
         <v>66</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -24174,16 +24186,16 @@
         <v>67</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -24191,14 +24203,14 @@
         <v>68</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -24206,14 +24218,14 @@
         <v>69</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -24221,14 +24233,14 @@
         <v>70</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -24236,16 +24248,16 @@
         <v>71</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -24253,16 +24265,16 @@
         <v>72</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>430</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -24270,10 +24282,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
@@ -24283,13 +24295,13 @@
         <v>74</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E77" s="11"/>
     </row>
@@ -24298,13 +24310,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E78" s="11"/>
     </row>
@@ -24313,10 +24325,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>446</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
@@ -24326,13 +24338,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>447</v>
-      </c>
       <c r="D80" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E80" s="11"/>
     </row>
@@ -24341,10 +24353,10 @@
         <v>78</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
@@ -24354,13 +24366,13 @@
         <v>79</v>
       </c>
       <c r="B82" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>453</v>
-      </c>
       <c r="D82" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E82" s="11"/>
     </row>
@@ -24392,53 +24404,53 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -24446,16 +24458,16 @@
         <v>1010101</v>
       </c>
       <c r="B4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -24463,19 +24475,19 @@
         <v>1010102</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -24483,22 +24495,22 @@
         <v>1010103</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -24506,22 +24518,22 @@
         <v>1010104</v>
       </c>
       <c r="B7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C7" t="s">
+        <v>618</v>
+      </c>
+      <c r="D7" t="s">
+        <v>621</v>
+      </c>
+      <c r="E7" t="s">
         <v>622</v>
-      </c>
-      <c r="C7" t="s">
-        <v>620</v>
-      </c>
-      <c r="D7" t="s">
-        <v>623</v>
-      </c>
-      <c r="E7" t="s">
-        <v>624</v>
       </c>
       <c r="H7">
         <v>10101</v>
       </c>
       <c r="I7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -24529,22 +24541,22 @@
         <v>1010201</v>
       </c>
       <c r="B8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H8">
         <v>1010101</v>
       </c>
       <c r="I8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -24552,22 +24564,22 @@
         <v>1010202</v>
       </c>
       <c r="B9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H9">
         <v>1010102</v>
       </c>
       <c r="I9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -24575,25 +24587,25 @@
         <v>1010203</v>
       </c>
       <c r="B10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H10">
         <v>1010103</v>
       </c>
       <c r="I10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -24601,22 +24613,22 @@
         <v>1010204</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E11" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H11">
         <v>1010104</v>
       </c>
       <c r="I11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -24624,19 +24636,19 @@
         <v>1010301</v>
       </c>
       <c r="B12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H12">
         <v>10102</v>
       </c>
       <c r="I12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -24644,22 +24656,22 @@
         <v>1010302</v>
       </c>
       <c r="B13" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H13">
         <v>1010201</v>
       </c>
       <c r="I13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -24667,25 +24679,25 @@
         <v>1010303</v>
       </c>
       <c r="B14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H14">
         <v>1010202</v>
       </c>
       <c r="I14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -24693,25 +24705,25 @@
         <v>1010304</v>
       </c>
       <c r="B15" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D15" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E15" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H15">
         <v>1010203</v>
       </c>
       <c r="I15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J15" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -24719,19 +24731,19 @@
         <v>1010401</v>
       </c>
       <c r="B16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C16" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E16" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H16">
         <v>1010204</v>
       </c>
       <c r="I16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -24739,19 +24751,19 @@
         <v>1010402</v>
       </c>
       <c r="B17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C17" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H17">
         <v>10103</v>
       </c>
       <c r="I17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -24759,25 +24771,25 @@
         <v>1010403</v>
       </c>
       <c r="B18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H18">
         <v>1010301</v>
       </c>
       <c r="I18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -24785,22 +24797,22 @@
         <v>1010501</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H19">
         <v>1010302</v>
       </c>
       <c r="I19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J19" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -24808,22 +24820,22 @@
         <v>1010502</v>
       </c>
       <c r="B20" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C20" t="s">
+        <v>637</v>
+      </c>
+      <c r="D20" t="s">
         <v>639</v>
-      </c>
-      <c r="D20" t="s">
-        <v>641</v>
       </c>
       <c r="H20">
         <v>1010303</v>
       </c>
       <c r="I20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -24831,13 +24843,13 @@
         <v>1010503</v>
       </c>
       <c r="B21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C21" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D21" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -24846,10 +24858,10 @@
         <v>1010304</v>
       </c>
       <c r="I21" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -24857,20 +24869,20 @@
         <v>1010504</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H22">
         <v>10104</v>
       </c>
       <c r="I22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -24878,23 +24890,23 @@
         <v>1010505</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H23">
         <v>1010401</v>
       </c>
       <c r="I23" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -24902,23 +24914,23 @@
         <v>1010506</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E24" s="17"/>
       <c r="H24">
         <v>1010402</v>
       </c>
       <c r="I24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -24926,23 +24938,23 @@
         <v>1010507</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E25" s="17"/>
       <c r="H25">
         <v>1010403</v>
       </c>
       <c r="I25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -24950,10 +24962,10 @@
         <v>1020101</v>
       </c>
       <c r="B26" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C26" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -24962,7 +24974,7 @@
         <v>10105</v>
       </c>
       <c r="I26" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -24970,10 +24982,10 @@
         <v>1020201</v>
       </c>
       <c r="B27" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C27" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -24983,10 +24995,10 @@
         <v>1010501</v>
       </c>
       <c r="I27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -24994,16 +25006,16 @@
         <v>1020202</v>
       </c>
       <c r="B28" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C28" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H28">
         <v>1010502</v>
       </c>
       <c r="I28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -25011,10 +25023,10 @@
         <v>1020203</v>
       </c>
       <c r="B29" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C29" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -25023,7 +25035,7 @@
         <v>1010502</v>
       </c>
       <c r="I29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -25031,16 +25043,16 @@
         <v>1020204</v>
       </c>
       <c r="B30" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C30" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H30">
         <v>10201</v>
       </c>
       <c r="I30" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -25048,10 +25060,10 @@
         <v>1020205</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -25059,10 +25071,10 @@
         <v>1020101</v>
       </c>
       <c r="I31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J31" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -25070,16 +25082,16 @@
         <v>1030101</v>
       </c>
       <c r="B32" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C32" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H32">
         <v>10202</v>
       </c>
       <c r="I32" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -25087,10 +25099,10 @@
         <v>1030102</v>
       </c>
       <c r="B33" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C33" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -25100,7 +25112,7 @@
         <v>1020201</v>
       </c>
       <c r="I33" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J33"/>
     </row>
@@ -25109,10 +25121,10 @@
         <v>1030103</v>
       </c>
       <c r="B34" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C34" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -25121,7 +25133,7 @@
         <v>1020202</v>
       </c>
       <c r="I34" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -25129,10 +25141,10 @@
         <v>1030104</v>
       </c>
       <c r="B35" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C35" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -25142,7 +25154,7 @@
         <v>1020203</v>
       </c>
       <c r="I35" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J35"/>
     </row>
@@ -25151,10 +25163,10 @@
         <v>1030105</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -25162,7 +25174,7 @@
         <v>1020204</v>
       </c>
       <c r="I36" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -25170,16 +25182,16 @@
         <v>1030201</v>
       </c>
       <c r="B37" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C37" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H37">
         <v>103</v>
       </c>
       <c r="I37" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -25187,10 +25199,10 @@
         <v>1030202</v>
       </c>
       <c r="B38" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C38" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -25200,7 +25212,7 @@
         <v>10301</v>
       </c>
       <c r="I38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J38"/>
     </row>
@@ -25209,19 +25221,19 @@
         <v>1030203</v>
       </c>
       <c r="B39" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C39" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D39" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H39">
         <v>1030101</v>
       </c>
       <c r="I39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -25229,10 +25241,10 @@
         <v>1030204</v>
       </c>
       <c r="B40" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C40" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -25244,7 +25256,7 @@
         <v>1030102</v>
       </c>
       <c r="I40" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J40"/>
     </row>
@@ -25253,10 +25265,10 @@
         <v>1030205</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -25264,7 +25276,7 @@
         <v>1030103</v>
       </c>
       <c r="I41" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -25272,7 +25284,7 @@
         <v>1030301</v>
       </c>
       <c r="B42" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -25284,7 +25296,7 @@
         <v>1030104</v>
       </c>
       <c r="I42" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -25292,16 +25304,16 @@
         <v>1030302</v>
       </c>
       <c r="B43" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C43" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H43">
         <v>10302</v>
       </c>
       <c r="I43" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -25309,19 +25321,19 @@
         <v>1030303</v>
       </c>
       <c r="B44" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C44" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D44" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H44">
         <v>1030201</v>
       </c>
       <c r="I44" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -25329,7 +25341,7 @@
         <v>1040101</v>
       </c>
       <c r="B45" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -25341,7 +25353,7 @@
         <v>1030202</v>
       </c>
       <c r="I45" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -25349,19 +25361,19 @@
         <v>1040102</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C46" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D46" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H46">
         <v>1030203</v>
       </c>
       <c r="I46" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -25369,16 +25381,16 @@
         <v>1040103</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C47" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H47">
         <v>1030204</v>
       </c>
       <c r="I47" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -25386,22 +25398,22 @@
         <v>1040104</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C48" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H48">
         <v>104</v>
       </c>
       <c r="I48" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -25409,16 +25421,16 @@
         <v>1040201</v>
       </c>
       <c r="B49" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C49" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H49">
         <v>10401</v>
       </c>
       <c r="I49" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -25426,10 +25438,10 @@
         <v>1040202</v>
       </c>
       <c r="B50" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C50" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -25439,7 +25451,7 @@
         <v>1040101</v>
       </c>
       <c r="I50" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J50"/>
     </row>
@@ -25448,10 +25460,10 @@
         <v>1040203</v>
       </c>
       <c r="B51" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C51" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -25461,7 +25473,7 @@
         <v>1040102</v>
       </c>
       <c r="I51" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J51"/>
     </row>
@@ -25470,10 +25482,10 @@
         <v>1040204</v>
       </c>
       <c r="B52" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C52" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -25485,7 +25497,7 @@
         <v>1040103</v>
       </c>
       <c r="I52" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J52"/>
     </row>
@@ -25494,10 +25506,10 @@
         <v>1040301</v>
       </c>
       <c r="B53" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C53" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -25507,7 +25519,7 @@
         <v>10402</v>
       </c>
       <c r="I53" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J53"/>
     </row>
@@ -25516,10 +25528,10 @@
         <v>1040302</v>
       </c>
       <c r="B54" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C54" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -25529,7 +25541,7 @@
         <v>1040201</v>
       </c>
       <c r="I54" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J54"/>
     </row>
@@ -25538,16 +25550,16 @@
         <v>1040303</v>
       </c>
       <c r="B55" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C55" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H55">
         <v>1040202</v>
       </c>
       <c r="I55" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -25555,10 +25567,10 @@
         <v>1040304</v>
       </c>
       <c r="B56" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C56" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -25570,7 +25582,7 @@
         <v>1040203</v>
       </c>
       <c r="I56" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J56"/>
     </row>
@@ -25579,10 +25591,10 @@
         <v>1040401</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
@@ -25590,7 +25602,7 @@
         <v>1040204</v>
       </c>
       <c r="I57" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -25598,10 +25610,10 @@
         <v>1050101</v>
       </c>
       <c r="B58" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C58" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -25611,7 +25623,7 @@
         <v>10403</v>
       </c>
       <c r="I58" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J58"/>
     </row>
@@ -25620,22 +25632,22 @@
         <v>2010101</v>
       </c>
       <c r="B59" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C59" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D59" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E59" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H59">
         <v>1040301</v>
       </c>
       <c r="I59" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -25643,16 +25655,16 @@
         <v>2010102</v>
       </c>
       <c r="B60" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C60" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D60" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E60" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
@@ -25660,7 +25672,7 @@
         <v>1040302</v>
       </c>
       <c r="I60" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J60"/>
     </row>
@@ -25669,14 +25681,14 @@
         <v>2010103</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
@@ -25684,7 +25696,7 @@
         <v>1040303</v>
       </c>
       <c r="I61" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J61"/>
     </row>
@@ -25693,10 +25705,10 @@
         <v>2020101</v>
       </c>
       <c r="B62" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C62" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
@@ -25706,7 +25718,7 @@
         <v>1040304</v>
       </c>
       <c r="I62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J62"/>
     </row>
@@ -25715,19 +25727,19 @@
         <v>2020102</v>
       </c>
       <c r="B63" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C63" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H63">
         <v>10404</v>
       </c>
       <c r="I63" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -25735,22 +25747,22 @@
         <v>2030101</v>
       </c>
       <c r="B64" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C64" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D64" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E64" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H64">
         <v>1040401</v>
       </c>
       <c r="I64" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -25758,22 +25770,22 @@
         <v>2030102</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H65">
         <v>105</v>
       </c>
       <c r="I65" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -25781,22 +25793,22 @@
         <v>2040101</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>686</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="E66" s="18" t="s">
         <v>687</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>689</v>
       </c>
       <c r="H66">
         <v>1050101</v>
       </c>
       <c r="I66" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -25804,22 +25816,22 @@
         <v>2040102</v>
       </c>
       <c r="B67" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E67" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H67">
         <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -25827,19 +25839,19 @@
         <v>2040201</v>
       </c>
       <c r="B68" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C68" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E68" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H68">
         <v>201</v>
       </c>
       <c r="I68" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -25847,14 +25859,14 @@
         <v>2040301</v>
       </c>
       <c r="B69" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C69" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F69"/>
       <c r="G69"/>
@@ -25862,7 +25874,7 @@
         <v>2010101</v>
       </c>
       <c r="I69" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J69"/>
     </row>
@@ -25871,14 +25883,14 @@
         <v>3010101</v>
       </c>
       <c r="B70" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C70" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F70"/>
       <c r="G70"/>
@@ -25886,7 +25898,7 @@
         <v>2010102</v>
       </c>
       <c r="I70" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J70"/>
     </row>
@@ -25895,19 +25907,19 @@
         <v>3010201</v>
       </c>
       <c r="B71" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C71" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E71" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H71">
         <v>202</v>
       </c>
       <c r="I71" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -25915,14 +25927,14 @@
         <v>3010202</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F72"/>
       <c r="G72"/>
@@ -25930,7 +25942,7 @@
         <v>2020101</v>
       </c>
       <c r="I72" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J72"/>
     </row>
@@ -25939,20 +25951,20 @@
         <v>3010203</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H73">
         <v>2020102</v>
       </c>
       <c r="I73" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -25960,19 +25972,19 @@
         <v>4010101</v>
       </c>
       <c r="B74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C74" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E74" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H74">
         <v>2020103</v>
       </c>
       <c r="I74" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -25980,22 +25992,22 @@
         <v>4010102</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C75" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D75" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E75" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H75">
         <v>203</v>
       </c>
       <c r="I75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -26003,22 +26015,22 @@
         <v>4010103</v>
       </c>
       <c r="B76" t="s">
+        <v>705</v>
+      </c>
+      <c r="C76" t="s">
+        <v>617</v>
+      </c>
+      <c r="D76" t="s">
+        <v>706</v>
+      </c>
+      <c r="E76" t="s">
         <v>707</v>
-      </c>
-      <c r="C76" t="s">
-        <v>619</v>
-      </c>
-      <c r="D76" t="s">
-        <v>708</v>
-      </c>
-      <c r="E76" t="s">
-        <v>709</v>
       </c>
       <c r="H76">
         <v>2030101</v>
       </c>
       <c r="I76" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -26026,16 +26038,16 @@
         <v>4020101</v>
       </c>
       <c r="B77" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C77" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H77">
         <v>2030102</v>
       </c>
       <c r="I77" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -26043,19 +26055,19 @@
         <v>4030101</v>
       </c>
       <c r="B78" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C78" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D78" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H78">
         <v>2030103</v>
       </c>
       <c r="I78" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -26063,13 +26075,13 @@
         <v>4030102</v>
       </c>
       <c r="B79" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C79" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D79" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
@@ -26078,7 +26090,7 @@
         <v>204</v>
       </c>
       <c r="I79" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J79"/>
     </row>
@@ -26087,22 +26099,22 @@
         <v>4030201</v>
       </c>
       <c r="B80" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C80" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D80" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E80" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H80">
         <v>2040101</v>
       </c>
       <c r="I80" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -26110,22 +26122,22 @@
         <v>4030202</v>
       </c>
       <c r="B81" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C81" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D81" t="s">
+        <v>712</v>
+      </c>
+      <c r="E81" t="s">
         <v>714</v>
-      </c>
-      <c r="E81" t="s">
-        <v>716</v>
       </c>
       <c r="H81">
         <v>2040102</v>
       </c>
       <c r="I81" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -26133,19 +26145,19 @@
         <v>4040101</v>
       </c>
       <c r="B82" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C82" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D82" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H82">
         <v>2040201</v>
       </c>
       <c r="I82" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -26153,19 +26165,19 @@
         <v>4040102</v>
       </c>
       <c r="B83" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C83" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D83" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H83">
         <v>30</v>
       </c>
       <c r="I83" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -26173,19 +26185,19 @@
         <v>4050102</v>
       </c>
       <c r="B84" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H84">
         <v>301</v>
       </c>
       <c r="I84" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -26193,19 +26205,19 @@
         <v>4060101</v>
       </c>
       <c r="B85" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C85" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E85" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H85">
         <v>3010101</v>
       </c>
       <c r="I85" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -26213,19 +26225,19 @@
         <v>4060102</v>
       </c>
       <c r="B86" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C86" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E86" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H86">
         <v>302</v>
       </c>
       <c r="I86" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -26233,19 +26245,19 @@
         <v>4060103</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C87" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E87" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H87">
         <v>3010201</v>
       </c>
       <c r="I87" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -26253,22 +26265,22 @@
         <v>4060104</v>
       </c>
       <c r="B88" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C88" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D88" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E88" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H88">
         <v>3010202</v>
       </c>
       <c r="I88" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -26276,22 +26288,22 @@
         <v>4060105</v>
       </c>
       <c r="B89" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C89" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D89" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E89" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H89">
         <v>40</v>
       </c>
       <c r="I89" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -26299,19 +26311,19 @@
         <v>4070101</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H90">
         <v>401</v>
       </c>
       <c r="I90" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -26319,16 +26331,16 @@
         <v>4080101</v>
       </c>
       <c r="B91" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C91" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H91">
         <v>4010101</v>
       </c>
       <c r="I91" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -26336,7 +26348,7 @@
         <v>4090101</v>
       </c>
       <c r="B92" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -26345,7 +26357,7 @@
         <v>4010102</v>
       </c>
       <c r="I92" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -26353,16 +26365,16 @@
         <v>4090102</v>
       </c>
       <c r="B93" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C93" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H93">
         <v>4010103</v>
       </c>
       <c r="I93" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -26370,16 +26382,16 @@
         <v>4090103</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C94" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H94">
         <v>402</v>
       </c>
       <c r="I94" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -26387,7 +26399,7 @@
         <v>4100101</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -26396,7 +26408,7 @@
         <v>4020101</v>
       </c>
       <c r="I95" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -26404,7 +26416,7 @@
         <v>4100102</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -26413,7 +26425,7 @@
         <v>403</v>
       </c>
       <c r="I96" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -26421,10 +26433,10 @@
         <v>4110101</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
@@ -26432,7 +26444,7 @@
         <v>4030101</v>
       </c>
       <c r="I97" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -26440,16 +26452,16 @@
         <v>5010101</v>
       </c>
       <c r="B98" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C98" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H98">
         <v>404</v>
       </c>
       <c r="I98" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -26457,19 +26469,19 @@
         <v>5010102</v>
       </c>
       <c r="B99" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H99">
         <v>4040101</v>
       </c>
       <c r="I99" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -26480,7 +26492,7 @@
         <v>66</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
@@ -26488,7 +26500,7 @@
         <v>405</v>
       </c>
       <c r="I100" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -26496,7 +26508,7 @@
         <v>4050101</v>
       </c>
       <c r="I101" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -26504,7 +26516,7 @@
         <v>4050102</v>
       </c>
       <c r="I102" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -26512,7 +26524,7 @@
         <v>406</v>
       </c>
       <c r="I103" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -26520,7 +26532,7 @@
         <v>4060101</v>
       </c>
       <c r="I104" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -26528,7 +26540,7 @@
         <v>4060102</v>
       </c>
       <c r="I105" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -26536,7 +26548,7 @@
         <v>4060103</v>
       </c>
       <c r="I106" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -26544,7 +26556,7 @@
         <v>4060104</v>
       </c>
       <c r="I107" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -26552,7 +26564,7 @@
         <v>4060105</v>
       </c>
       <c r="I108" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -26560,7 +26572,7 @@
         <v>407</v>
       </c>
       <c r="I109" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -26568,7 +26580,7 @@
         <v>4070101</v>
       </c>
       <c r="I110" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -26576,7 +26588,7 @@
         <v>408</v>
       </c>
       <c r="I111" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -26584,7 +26596,7 @@
         <v>4080101</v>
       </c>
       <c r="I112" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.2">
@@ -26592,7 +26604,7 @@
         <v>50</v>
       </c>
       <c r="I113" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.2">
@@ -26600,7 +26612,7 @@
         <v>501</v>
       </c>
       <c r="I114" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.2">
@@ -26608,7 +26620,7 @@
         <v>5010101</v>
       </c>
       <c r="I115" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/achieve.成就.xlsx
+++ b/Excel/镇魂街/achieve.成就.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="1176">
   <si>
     <t>sheet名</t>
   </si>
@@ -5178,9 +5178,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵升级-bhv</t>
-  </si>
-  <si>
     <t>次数</t>
   </si>
   <si>
@@ -5307,9 +5304,6 @@
     <t>专属武器解封-max</t>
   </si>
   <si>
-    <t>专属武器解封-cnt</t>
-  </si>
-  <si>
     <t>专属武器解封-id</t>
   </si>
   <si>
@@ -5422,9 +5416,6 @@
   </si>
   <si>
     <t>参与次数</t>
-  </si>
-  <si>
-    <t>竞技场-win</t>
   </si>
   <si>
     <t>胜利次数</t>
@@ -5623,10 +5614,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>抽卡-shl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵升级-cnt</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -6978,6 +6965,62 @@
   </si>
   <si>
     <t>花费货币-id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级-bhv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡-cha</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场-win</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化-max</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史最高分</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器激活-qua</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器激活-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-sum</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化-cnt</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解封-cnt</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -7740,7 +7783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I20" sqref="I20:I23"/>
     </sheetView>
   </sheetViews>
@@ -7852,10 +7895,10 @@
         <v>37</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="P2" t="s">
         <v>37</v>
@@ -7935,7 +7978,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J4" s="11">
         <v>2</v>
@@ -7983,7 +8026,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J5" s="11">
         <v>7</v>
@@ -8031,7 +8074,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J6" s="11">
         <v>30</v>
@@ -8079,7 +8122,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J7" s="11">
         <v>100</v>
@@ -8127,7 +8170,7 @@
         <v>68</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J8" s="11">
         <v>100000</v>
@@ -8177,7 +8220,7 @@
         <v>68</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J9" s="11">
         <v>1000000</v>
@@ -8227,7 +8270,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J10" s="11">
         <v>10000000</v>
@@ -8277,7 +8320,7 @@
         <v>68</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="J11" s="11">
         <v>100000000</v>
@@ -8327,7 +8370,7 @@
         <v>74</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="J12" s="11">
         <v>200000</v>
@@ -8377,7 +8420,7 @@
         <v>74</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="J13" s="11">
         <v>2000000</v>
@@ -8427,7 +8470,7 @@
         <v>74</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="J14" s="11">
         <v>20000000</v>
@@ -8477,7 +8520,7 @@
         <v>74</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="J15" s="11">
         <v>200000000</v>
@@ -8524,10 +8567,10 @@
         <v>79</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J16" s="11">
         <v>100</v>
@@ -8574,10 +8617,10 @@
         <v>81</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J17" s="11">
         <v>1000</v>
@@ -8624,10 +8667,10 @@
         <v>82</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J18" s="11">
         <v>10000</v>
@@ -8674,10 +8717,10 @@
         <v>83</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J19" s="11">
         <v>100000</v>
@@ -8724,10 +8767,10 @@
         <v>84</v>
       </c>
       <c r="H20" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>1161</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>1165</v>
       </c>
       <c r="J20" s="11">
         <v>200</v>
@@ -8774,10 +8817,10 @@
         <v>85</v>
       </c>
       <c r="H21" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>1161</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>1165</v>
       </c>
       <c r="J21" s="11">
         <v>2000</v>
@@ -8824,10 +8867,10 @@
         <v>86</v>
       </c>
       <c r="H22" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>1161</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>1165</v>
       </c>
       <c r="J22" s="11">
         <v>20000</v>
@@ -8874,10 +8917,10 @@
         <v>87</v>
       </c>
       <c r="H23" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>1161</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>1165</v>
       </c>
       <c r="J23" s="11">
         <v>200000</v>
@@ -9407,7 +9450,7 @@
         <v>103</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J34" s="11">
         <v>1</v>
@@ -9457,7 +9500,7 @@
         <v>106</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
@@ -9507,7 +9550,7 @@
         <v>108</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
@@ -9557,7 +9600,7 @@
         <v>110</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J37" s="11">
         <v>1</v>
@@ -9607,7 +9650,7 @@
         <v>103</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J38" s="11">
         <v>3</v>
@@ -9657,7 +9700,7 @@
         <v>106</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J39" s="11">
         <v>3</v>
@@ -9707,7 +9750,7 @@
         <v>108</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J40" s="11">
         <v>3</v>
@@ -9757,7 +9800,7 @@
         <v>110</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="J41" s="11">
         <v>3</v>
@@ -10207,7 +10250,7 @@
         <v>118</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J50" s="11">
         <v>20000</v>
@@ -10257,7 +10300,7 @@
         <v>118</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J51" s="11">
         <v>100000</v>
@@ -10307,7 +10350,7 @@
         <v>118</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J52" s="11">
         <v>500000</v>
@@ -10357,7 +10400,7 @@
         <v>118</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J53" s="11">
         <v>2000000</v>
@@ -11646,7 +11689,7 @@
         <v>609</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="J80" s="11">
         <v>1</v>
@@ -12138,7 +12181,7 @@
         <v>196</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J90" s="11">
         <v>3</v>
@@ -12186,7 +12229,7 @@
         <v>199</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="J91" s="11">
         <v>1</v>
@@ -12236,7 +12279,7 @@
         <v>202</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="J92" s="11">
         <v>3</v>
@@ -12284,7 +12327,7 @@
         <v>205</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J93" s="11">
         <v>1</v>
@@ -12334,7 +12377,7 @@
         <v>208</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="J94" s="11">
         <v>10</v>
@@ -12384,7 +12427,7 @@
         <v>210</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J95" s="11">
         <v>10</v>
@@ -12434,7 +12477,7 @@
         <v>212</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J96" s="11">
         <v>1</v>
@@ -12526,10 +12569,10 @@
         <v>7030102</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>598</v>
@@ -12570,10 +12613,10 @@
         <v>-1</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>598</v>
@@ -12614,13 +12657,13 @@
         <v>7030102</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J100" s="11">
         <v>2</v>
@@ -12660,13 +12703,13 @@
         <v>-1</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J101" s="11">
         <v>1</v>
@@ -12706,13 +12749,13 @@
         <v>7030302</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J102" s="11">
         <v>2</v>
@@ -12752,13 +12795,13 @@
         <v>-1</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J103" s="11">
         <v>2</v>
@@ -12798,13 +12841,13 @@
         <v>8020102</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="J104" s="11">
         <v>1</v>
@@ -12844,13 +12887,13 @@
         <v>-1</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="J105" s="11">
         <v>2</v>
@@ -12890,13 +12933,13 @@
         <v>8020202</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="H106" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="I106" s="11" t="s">
         <v>784</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>788</v>
       </c>
       <c r="J106" s="11">
         <v>1</v>
@@ -12936,13 +12979,13 @@
         <v>-1</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="J107" s="11">
         <v>2</v>
@@ -12982,10 +13025,10 @@
         <v>8030102</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="I108" s="11" t="s">
         <v>605</v>
@@ -13028,13 +13071,13 @@
         <v>8030103</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="J109" s="11">
         <v>1</v>
@@ -13074,10 +13117,10 @@
         <v>8030104</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="I110" s="11" t="s">
         <v>605</v>
@@ -13120,13 +13163,13 @@
         <v>8030105</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J111" s="11">
         <v>1</v>
@@ -13164,10 +13207,10 @@
         <v>8030106</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="I112" s="11" t="s">
         <v>605</v>
@@ -13210,13 +13253,13 @@
         <v>8030107</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J113" s="11">
         <v>2</v>
@@ -13254,10 +13297,10 @@
         <v>8030108</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>598</v>
@@ -13298,10 +13341,10 @@
         <v>8030109</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>605</v>
@@ -13344,10 +13387,10 @@
         <v>8030110</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I116" s="11" t="s">
         <v>605</v>
@@ -13390,13 +13433,13 @@
         <v>8030111</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="J117" s="11">
         <v>1</v>
@@ -13436,10 +13479,10 @@
         <v>8030112</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>605</v>
@@ -13482,13 +13525,13 @@
         <v>8030113</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="J119" s="11">
         <v>1</v>
@@ -13528,13 +13571,13 @@
         <v>8030114</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="J120" s="11">
         <v>2</v>
@@ -13574,10 +13617,10 @@
         <v>8030115</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="I121" s="11" t="s">
         <v>605</v>
@@ -13620,13 +13663,13 @@
         <v>8030116</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="J122" s="11">
         <v>2</v>
@@ -13666,10 +13709,10 @@
         <v>8030117</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="I123" s="11" t="s">
         <v>605</v>
@@ -13712,13 +13755,13 @@
         <v>8030118</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J124" s="11">
         <v>1</v>
@@ -13758,13 +13801,13 @@
         <v>8030119</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="J125" s="11">
         <v>1</v>
@@ -13804,13 +13847,13 @@
         <v>8030120</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="J126" s="11">
         <v>1</v>
@@ -13850,13 +13893,13 @@
         <v>8030121</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J127" s="11">
         <v>1</v>
@@ -13896,13 +13939,13 @@
         <v>8030122</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J128" s="11">
         <v>4</v>
@@ -13940,13 +13983,13 @@
         <v>8030123</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J129" s="11">
         <v>5</v>
@@ -13986,13 +14029,13 @@
         <v>8030124</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="J130" s="11">
         <v>1</v>
@@ -14032,13 +14075,13 @@
         <v>8030125</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J131" s="11">
         <v>1</v>
@@ -14078,13 +14121,13 @@
         <v>8030126</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J132" s="11">
         <v>5</v>
@@ -14122,13 +14165,13 @@
         <v>8030127</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="J133" s="11">
         <v>1</v>
@@ -14168,13 +14211,13 @@
         <v>8030128</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J134" s="11">
         <v>1</v>
@@ -14214,13 +14257,13 @@
         <v>8030129</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J135" s="11">
         <v>1</v>
@@ -14258,10 +14301,10 @@
         <v>8030130</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="I136" s="11" t="s">
         <v>581</v>
@@ -14302,10 +14345,10 @@
         <v>8030131</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I137" s="11" t="s">
         <v>605</v>
@@ -14348,13 +14391,13 @@
         <v>8030132</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="J138" s="11">
         <v>1</v>
@@ -14394,10 +14437,10 @@
         <v>8030133</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="I139" s="11" t="s">
         <v>605</v>
@@ -14440,13 +14483,13 @@
         <v>8030134</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J140" s="11">
         <v>10</v>
@@ -14486,10 +14529,10 @@
         <v>8030135</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="I141" s="11" t="s">
         <v>605</v>
@@ -14532,10 +14575,10 @@
         <v>8030136</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="I142" s="11" t="s">
         <v>605</v>
@@ -14578,13 +14621,13 @@
         <v>8030137</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="J143" s="11">
         <v>3</v>
@@ -14624,10 +14667,10 @@
         <v>8030138</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="I144" s="11" t="s">
         <v>605</v>
@@ -14670,10 +14713,10 @@
         <v>8030139</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="I145" s="11" t="s">
         <v>605</v>
@@ -14716,13 +14759,13 @@
         <v>8030140</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="J146" s="11">
         <v>15</v>
@@ -14760,10 +14803,10 @@
         <v>8030141</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I147" s="11" t="s">
         <v>605</v>
@@ -14806,10 +14849,10 @@
         <v>8030142</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="I148" s="11" t="s">
         <v>605</v>
@@ -14852,10 +14895,10 @@
         <v>8030143</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="I149" s="11" t="s">
         <v>605</v>
@@ -14898,10 +14941,10 @@
         <v>8030144</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I150" s="11" t="s">
         <v>605</v>
@@ -14944,13 +14987,13 @@
         <v>8030145</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="J151" s="11">
         <v>1</v>
@@ -14990,10 +15033,10 @@
         <v>8030146</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="I152" s="11" t="s">
         <v>612</v>
@@ -15036,13 +15079,13 @@
         <v>8030147</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="J153" s="11">
         <v>1</v>
@@ -15082,13 +15125,13 @@
         <v>8030148</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J154" s="11">
         <v>2</v>
@@ -15126,10 +15169,10 @@
         <v>8030149</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I155" s="11" t="s">
         <v>605</v>
@@ -15172,10 +15215,10 @@
         <v>8030150</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="I156" s="11" t="s">
         <v>605</v>
@@ -15218,13 +15261,13 @@
         <v>8030151</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J157" s="11">
         <v>1</v>
@@ -15264,13 +15307,13 @@
         <v>8030152</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J158" s="11">
         <v>1</v>
@@ -15310,13 +15353,13 @@
         <v>8030153</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J159" s="11">
         <v>1</v>
@@ -15356,13 +15399,13 @@
         <v>8030154</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J160" s="11">
         <v>1</v>
@@ -15402,13 +15445,13 @@
         <v>8030155</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J161" s="11">
         <v>1</v>
@@ -15448,13 +15491,13 @@
         <v>8030156</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J162" s="11">
         <v>1</v>
@@ -15494,10 +15537,10 @@
         <v>8030157</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I163" s="11" t="s">
         <v>605</v>
@@ -15540,10 +15583,10 @@
         <v>8030158</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="H164" s="11" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I164" s="11" t="s">
         <v>605</v>
@@ -15586,10 +15629,10 @@
         <v>8030159</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I165" s="11" t="s">
         <v>605</v>
@@ -15632,10 +15675,10 @@
         <v>8030160</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="I166" s="11" t="s">
         <v>605</v>
@@ -15678,13 +15721,13 @@
         <v>8030161</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J167" s="11">
         <v>1</v>
@@ -15724,13 +15767,13 @@
         <v>8030162</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J168" s="11">
         <v>1</v>
@@ -15770,13 +15813,13 @@
         <v>8030163</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J169" s="11">
         <v>1</v>
@@ -15816,13 +15859,13 @@
         <v>8030164</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="H170" s="11" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="J170" s="11">
         <v>3</v>
@@ -15862,10 +15905,10 @@
         <v>8030165</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="I171" s="11" t="s">
         <v>605</v>
@@ -15908,10 +15951,10 @@
         <v>8030166</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="I172" s="11" t="s">
         <v>605</v>
@@ -15954,10 +15997,10 @@
         <v>8030167</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="I173" s="11" t="s">
         <v>605</v>
@@ -16000,10 +16043,10 @@
         <v>8030168</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="I174" s="11" t="s">
         <v>605</v>
@@ -16046,10 +16089,10 @@
         <v>8030169</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="I175" s="11" t="s">
         <v>605</v>
@@ -16092,10 +16135,10 @@
         <v>8030170</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="I176" s="11" t="s">
         <v>605</v>
@@ -16138,10 +16181,10 @@
         <v>8030171</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="I177" s="11" t="s">
         <v>605</v>
@@ -16184,10 +16227,10 @@
         <v>8030172</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="I178" s="11" t="s">
         <v>605</v>
@@ -16230,10 +16273,10 @@
         <v>8030173</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="H179" s="11" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="I179" s="11" t="s">
         <v>605</v>
@@ -16276,13 +16319,13 @@
         <v>8030174</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J180" s="11">
         <v>1</v>
@@ -16320,13 +16363,13 @@
         <v>8030175</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="H181" s="11" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J181" s="11">
         <v>1</v>
@@ -16366,13 +16409,13 @@
         <v>8030176</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="H182" s="11" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J182" s="11">
         <v>1</v>
@@ -16412,13 +16455,13 @@
         <v>8030177</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="H183" s="11" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J183" s="11">
         <v>1</v>
@@ -16458,13 +16501,13 @@
         <v>8030178</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="H184" s="11" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J184" s="11">
         <v>1</v>
@@ -16504,13 +16547,13 @@
         <v>8030179</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="H185" s="11" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J185" s="11">
         <v>1</v>
@@ -16550,13 +16593,13 @@
         <v>8030180</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="H186" s="11" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J186" s="11">
         <v>1</v>
@@ -16596,10 +16639,10 @@
         <v>8030181</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="I187" s="11" t="s">
         <v>612</v>
@@ -16642,13 +16685,13 @@
         <v>8030182</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="H188" s="11" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J188" s="11">
         <v>3</v>
@@ -16686,13 +16729,13 @@
         <v>8030183</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="H189" s="11" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J189" s="11">
         <v>1</v>
@@ -16732,10 +16775,10 @@
         <v>8030184</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="I190" s="11" t="s">
         <v>605</v>
@@ -16778,10 +16821,10 @@
         <v>8030185</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="I191" s="11" t="s">
         <v>605</v>
@@ -16824,10 +16867,10 @@
         <v>8030186</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="H192" s="11" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="I192" s="11" t="s">
         <v>605</v>
@@ -16870,13 +16913,13 @@
         <v>8030187</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H193" s="11" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J193" s="11">
         <v>2</v>
@@ -16916,13 +16959,13 @@
         <v>8030188</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="H194" s="11" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J194" s="11">
         <v>1</v>
@@ -16962,13 +17005,13 @@
         <v>8030189</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="H195" s="11" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J195" s="11">
         <v>1</v>
@@ -17008,10 +17051,10 @@
         <v>8030190</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="H196" s="11" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="I196" s="11" t="s">
         <v>581</v>
@@ -17052,10 +17095,10 @@
         <v>8030191</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="H197" s="11" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I197" s="11" t="s">
         <v>605</v>
@@ -17098,10 +17141,10 @@
         <v>8030192</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="H198" s="11" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="I198" s="11" t="s">
         <v>605</v>
@@ -17144,10 +17187,10 @@
         <v>8030193</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="H199" s="11" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I199" s="11" t="s">
         <v>605</v>
@@ -17190,10 +17233,10 @@
         <v>8030194</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="H200" s="11" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="I200" s="11" t="s">
         <v>605</v>
@@ -17236,10 +17279,10 @@
         <v>8030195</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H201" s="11" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="I201" s="11" t="s">
         <v>605</v>
@@ -17282,10 +17325,10 @@
         <v>8030196</v>
       </c>
       <c r="G202" s="11" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="H202" s="11" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="I202" s="11" t="s">
         <v>605</v>
@@ -17328,10 +17371,10 @@
         <v>8030197</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="H203" s="11" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I203" s="11" t="s">
         <v>605</v>
@@ -17374,10 +17417,10 @@
         <v>8030198</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="H204" s="11" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="I204" s="11" t="s">
         <v>605</v>
@@ -17420,10 +17463,10 @@
         <v>8030199</v>
       </c>
       <c r="G205" s="11" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="H205" s="11" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="I205" s="11" t="s">
         <v>605</v>
@@ -17466,13 +17509,13 @@
         <v>8030200</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H206" s="11" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J206" s="11">
         <v>1</v>
@@ -17512,13 +17555,13 @@
         <v>8030201</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="H207" s="11" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J207" s="11">
         <v>1</v>
@@ -17558,13 +17601,13 @@
         <v>8030202</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="H208" s="11" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J208" s="11">
         <v>1</v>
@@ -17604,13 +17647,13 @@
         <v>8030203</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="H209" s="11" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J209" s="11">
         <v>1</v>
@@ -17650,13 +17693,13 @@
         <v>8030204</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="H210" s="11" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J210" s="11">
         <v>1</v>
@@ -17696,10 +17739,10 @@
         <v>8030205</v>
       </c>
       <c r="G211" s="11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="H211" s="11" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="I211" s="11" t="s">
         <v>605</v>
@@ -17742,10 +17785,10 @@
         <v>8030206</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="H212" s="11" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="I212" s="11" t="s">
         <v>605</v>
@@ -17788,10 +17831,10 @@
         <v>8030207</v>
       </c>
       <c r="G213" s="11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="H213" s="11" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="I213" s="11" t="s">
         <v>605</v>
@@ -17834,10 +17877,10 @@
         <v>8030208</v>
       </c>
       <c r="G214" s="11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="H214" s="11" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="I214" s="11" t="s">
         <v>605</v>
@@ -17880,10 +17923,10 @@
         <v>8030209</v>
       </c>
       <c r="G215" s="11" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="H215" s="11" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="I215" s="11" t="s">
         <v>581</v>
@@ -17926,10 +17969,10 @@
         <v>8030210</v>
       </c>
       <c r="G216" s="11" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="H216" s="11" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="I216" s="11" t="s">
         <v>610</v>
@@ -17972,13 +18015,13 @@
         <v>8030211</v>
       </c>
       <c r="G217" s="11" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="H217" s="11" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J217" s="11">
         <v>5</v>
@@ -18016,10 +18059,10 @@
         <v>8030212</v>
       </c>
       <c r="G218" s="11" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="H218" s="11" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="I218" s="11" t="s">
         <v>605</v>
@@ -18062,10 +18105,10 @@
         <v>8030213</v>
       </c>
       <c r="G219" s="11" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="H219" s="11" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="I219" s="11" t="s">
         <v>605</v>
@@ -18108,10 +18151,10 @@
         <v>8030214</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="H220" s="11" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I220" s="11" t="s">
         <v>605</v>
@@ -18154,10 +18197,10 @@
         <v>8030215</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H221" s="11" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="I221" s="11" t="s">
         <v>605</v>
@@ -18200,10 +18243,10 @@
         <v>8030216</v>
       </c>
       <c r="G222" s="11" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="H222" s="11" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="I222" s="11" t="s">
         <v>605</v>
@@ -18246,13 +18289,13 @@
         <v>8030217</v>
       </c>
       <c r="G223" s="11" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="H223" s="11" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J223" s="11">
         <v>4</v>
@@ -18290,13 +18333,13 @@
         <v>8030218</v>
       </c>
       <c r="G224" s="11" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="H224" s="11" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J224" s="11">
         <v>1</v>
@@ -18336,10 +18379,10 @@
         <v>8030219</v>
       </c>
       <c r="G225" s="11" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="H225" s="11" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="I225" s="11" t="s">
         <v>605</v>
@@ -18382,10 +18425,10 @@
         <v>8030220</v>
       </c>
       <c r="G226" s="11" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="H226" s="11" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="I226" s="11" t="s">
         <v>605</v>
@@ -18428,10 +18471,10 @@
         <v>8030221</v>
       </c>
       <c r="G227" s="11" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="H227" s="11" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="I227" s="11" t="s">
         <v>605</v>
@@ -18474,13 +18517,13 @@
         <v>8030222</v>
       </c>
       <c r="G228" s="11" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H228" s="11" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="I228" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J228" s="11">
         <v>3</v>
@@ -18520,13 +18563,13 @@
         <v>8030223</v>
       </c>
       <c r="G229" s="11" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="H229" s="11" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="I229" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J229" s="11">
         <v>1</v>
@@ -18566,13 +18609,13 @@
         <v>8030224</v>
       </c>
       <c r="G230" s="11" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="H230" s="11" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="I230" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J230" s="11">
         <v>1</v>
@@ -18612,10 +18655,10 @@
         <v>8030225</v>
       </c>
       <c r="G231" s="11" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="H231" s="11" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="I231" s="11" t="s">
         <v>605</v>
@@ -18658,10 +18701,10 @@
         <v>8030226</v>
       </c>
       <c r="G232" s="11" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="H232" s="11" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="I232" s="11" t="s">
         <v>605</v>
@@ -18704,10 +18747,10 @@
         <v>8030227</v>
       </c>
       <c r="G233" s="11" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="H233" s="11" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I233" s="11" t="s">
         <v>605</v>
@@ -18750,10 +18793,10 @@
         <v>8030228</v>
       </c>
       <c r="G234" s="11" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="H234" s="11" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="I234" s="11" t="s">
         <v>605</v>
@@ -18796,13 +18839,13 @@
         <v>8030229</v>
       </c>
       <c r="G235" s="11" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="H235" s="11" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="I235" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J235" s="11">
         <v>1</v>
@@ -18842,10 +18885,10 @@
         <v>-1</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="H236" s="11" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="I236" s="11" t="s">
         <v>581</v>
@@ -18886,13 +18929,13 @@
         <v>804002</v>
       </c>
       <c r="G237" s="11" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="H237" s="11" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="I237" s="11" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="J237" s="11">
         <v>1</v>
@@ -18932,13 +18975,13 @@
         <v>804003</v>
       </c>
       <c r="G238" s="11" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="H238" s="11" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="I238" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J238" s="11">
         <v>3</v>
@@ -18978,13 +19021,13 @@
         <v>804004</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="H239" s="11" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="I239" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="J239" s="11">
         <v>1</v>
@@ -19024,10 +19067,10 @@
         <v>804005</v>
       </c>
       <c r="G240" s="11" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="H240" s="11" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="I240" s="11" t="s">
         <v>598</v>
@@ -19068,10 +19111,10 @@
         <v>804006</v>
       </c>
       <c r="G241" s="11" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="H241" s="11" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="I241" s="11" t="s">
         <v>581</v>
@@ -19114,10 +19157,10 @@
         <v>804007</v>
       </c>
       <c r="G242" s="11" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="H242" s="11" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="I242" s="11" t="s">
         <v>605</v>
@@ -19160,10 +19203,10 @@
         <v>804008</v>
       </c>
       <c r="G243" s="11" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H243" s="11" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="I243" s="11" t="s">
         <v>605</v>
@@ -19206,13 +19249,13 @@
         <v>804009</v>
       </c>
       <c r="G244" s="11" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="H244" s="11" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="I244" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J244" s="11">
         <v>2</v>
@@ -19252,10 +19295,10 @@
         <v>804010</v>
       </c>
       <c r="G245" s="11" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="H245" s="11" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="I245" s="11" t="s">
         <v>581</v>
@@ -19298,10 +19341,10 @@
         <v>804011</v>
       </c>
       <c r="G246" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H246" s="11" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="I246" s="11" t="s">
         <v>610</v>
@@ -19344,13 +19387,13 @@
         <v>804012</v>
       </c>
       <c r="G247" s="11" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="H247" s="11" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="I247" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J247" s="11">
         <v>5</v>
@@ -19390,13 +19433,13 @@
         <v>804013</v>
       </c>
       <c r="G248" s="11" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="H248" s="11" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="I248" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J248" s="11">
         <v>10</v>
@@ -19436,10 +19479,10 @@
         <v>804014</v>
       </c>
       <c r="G249" s="11" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H249" s="11" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="I249" s="11" t="s">
         <v>581</v>
@@ -19482,13 +19525,13 @@
         <v>804015</v>
       </c>
       <c r="G250" s="11" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="H250" s="11" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="I250" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J250" s="11">
         <v>2</v>
@@ -19528,10 +19571,10 @@
         <v>804016</v>
       </c>
       <c r="G251" s="11" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H251" s="11" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="I251" s="11" t="s">
         <v>614</v>
@@ -19574,13 +19617,13 @@
         <v>804017</v>
       </c>
       <c r="G252" s="11" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="H252" s="11" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="I252" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J252" s="11">
         <v>1</v>
@@ -19620,10 +19663,10 @@
         <v>804018</v>
       </c>
       <c r="G253" s="11" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="H253" s="11" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="I253" s="11" t="s">
         <v>581</v>
@@ -19666,13 +19709,13 @@
         <v>804019</v>
       </c>
       <c r="G254" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H254" s="11" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="I254" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J254" s="11">
         <v>2</v>
@@ -19712,10 +19755,10 @@
         <v>804020</v>
       </c>
       <c r="G255" s="11" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="H255" s="11" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I255" s="11" t="s">
         <v>611</v>
@@ -19758,13 +19801,13 @@
         <v>804021</v>
       </c>
       <c r="G256" s="11" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H256" s="11" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="I256" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J256" s="11">
         <v>3</v>
@@ -19804,10 +19847,10 @@
         <v>804022</v>
       </c>
       <c r="G257" s="11" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="H257" s="11" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="I257" s="11" t="s">
         <v>581</v>
@@ -19850,13 +19893,13 @@
         <v>804023</v>
       </c>
       <c r="G258" s="11" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="H258" s="11" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I258" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J258" s="11">
         <v>3</v>
@@ -19896,13 +19939,13 @@
         <v>804024</v>
       </c>
       <c r="G259" s="11" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="H259" s="11" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="I259" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J259" s="11">
         <v>10</v>
@@ -19942,13 +19985,13 @@
         <v>804025</v>
       </c>
       <c r="G260" s="11" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="H260" s="11" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="I260" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J260" s="11">
         <v>30</v>
@@ -19988,10 +20031,10 @@
         <v>804026</v>
       </c>
       <c r="G261" s="11" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="H261" s="11" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="I261" s="11" t="s">
         <v>581</v>
@@ -20034,13 +20077,13 @@
         <v>804027</v>
       </c>
       <c r="G262" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H262" s="11" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J262" s="11">
         <v>3</v>
@@ -20080,13 +20123,13 @@
         <v>804028</v>
       </c>
       <c r="G263" s="11" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="H263" s="11" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="I263" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J263" s="11">
         <v>15000</v>
@@ -20126,13 +20169,13 @@
         <v>804029</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="H264" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="I264" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J264" s="11">
         <v>3</v>
@@ -20172,10 +20215,10 @@
         <v>804030</v>
       </c>
       <c r="G265" s="11" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H265" s="11" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="I265" s="11" t="s">
         <v>581</v>
@@ -20218,13 +20261,13 @@
         <v>804031</v>
       </c>
       <c r="G266" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H266" s="11" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="I266" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J266" s="11">
         <v>3</v>
@@ -20264,10 +20307,10 @@
         <v>804032</v>
       </c>
       <c r="G267" s="11" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="H267" s="11" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="I267" s="11" t="s">
         <v>614</v>
@@ -20310,13 +20353,13 @@
         <v>804033</v>
       </c>
       <c r="G268" s="11" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="H268" s="11" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="I268" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J268" s="11">
         <v>3</v>
@@ -20356,10 +20399,10 @@
         <v>804034</v>
       </c>
       <c r="G269" s="11" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H269" s="11" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="I269" s="11" t="s">
         <v>581</v>
@@ -20402,13 +20445,13 @@
         <v>804035</v>
       </c>
       <c r="G270" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H270" s="11" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="I270" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J270" s="11">
         <v>3</v>
@@ -20448,10 +20491,10 @@
         <v>804036</v>
       </c>
       <c r="G271" s="11" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="H271" s="11" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="I271" s="11" t="s">
         <v>611</v>
@@ -20494,13 +20537,13 @@
         <v>804037</v>
       </c>
       <c r="G272" s="11" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="H272" s="11" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="I272" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J272" s="11">
         <v>2</v>
@@ -20540,10 +20583,10 @@
         <v>804038</v>
       </c>
       <c r="G273" s="11" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="H273" s="11" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="I273" s="11" t="s">
         <v>581</v>
@@ -20586,13 +20629,13 @@
         <v>804039</v>
       </c>
       <c r="G274" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H274" s="11" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="I274" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J274" s="11">
         <v>3</v>
@@ -20632,10 +20675,10 @@
         <v>804040</v>
       </c>
       <c r="G275" s="11" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="H275" s="11" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="I275" s="11" t="s">
         <v>614</v>
@@ -20678,13 +20721,13 @@
         <v>804041</v>
       </c>
       <c r="G276" s="11" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="H276" s="11" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="I276" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J276" s="11">
         <v>50</v>
@@ -20724,10 +20767,10 @@
         <v>804042</v>
       </c>
       <c r="G277" s="11" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H277" s="11" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="I277" s="11" t="s">
         <v>581</v>
@@ -20770,13 +20813,13 @@
         <v>804043</v>
       </c>
       <c r="G278" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H278" s="11" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="I278" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J278" s="11">
         <v>3</v>
@@ -20816,10 +20859,10 @@
         <v>804044</v>
       </c>
       <c r="G279" s="11" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="H279" s="11" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="I279" s="11" t="s">
         <v>611</v>
@@ -20862,13 +20905,13 @@
         <v>804045</v>
       </c>
       <c r="G280" s="11" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="H280" s="11" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="I280" s="11" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J280" s="11">
         <v>3000</v>
@@ -20908,10 +20951,10 @@
         <v>804046</v>
       </c>
       <c r="G281" s="11" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="H281" s="11" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="I281" s="11" t="s">
         <v>581</v>
@@ -20954,13 +20997,13 @@
         <v>804047</v>
       </c>
       <c r="G282" s="11" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="H282" s="11" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I282" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J282" s="11">
         <v>3</v>
@@ -21000,10 +21043,10 @@
         <v>804048</v>
       </c>
       <c r="G283" s="11" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H283" s="11" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="I283" s="11" t="s">
         <v>611</v>
@@ -21046,13 +21089,13 @@
         <v>804049</v>
       </c>
       <c r="G284" s="11" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="H284" s="11" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="I284" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="J284" s="11">
         <v>100</v>
@@ -21092,10 +21135,10 @@
         <v>804050</v>
       </c>
       <c r="G285" s="11" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="H285" s="11" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="I285" s="11" t="s">
         <v>581</v>
@@ -21138,13 +21181,13 @@
         <v>804051</v>
       </c>
       <c r="G286" s="11" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="H286" s="11" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="I286" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J286" s="11">
         <v>1</v>
@@ -21184,10 +21227,10 @@
         <v>804052</v>
       </c>
       <c r="G287" s="11" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="H287" s="11" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="I287" s="11" t="s">
         <v>611</v>
@@ -21230,10 +21273,10 @@
         <v>804053</v>
       </c>
       <c r="G288" s="11" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="H288" s="11" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="I288" s="11" t="s">
         <v>614</v>
@@ -21276,10 +21319,10 @@
         <v>804054</v>
       </c>
       <c r="G289" s="11" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="H289" s="11" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="I289" s="11" t="s">
         <v>581</v>
@@ -21322,13 +21365,13 @@
         <v>804055</v>
       </c>
       <c r="G290" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H290" s="11" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="I290" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J290" s="11">
         <v>3</v>
@@ -21368,10 +21411,10 @@
         <v>804056</v>
       </c>
       <c r="G291" s="11" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="H291" s="11" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I291" s="11" t="s">
         <v>611</v>
@@ -21414,13 +21457,13 @@
         <v>804057</v>
       </c>
       <c r="G292" s="11" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="H292" s="11" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="I292" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J292" s="11">
         <v>6</v>
@@ -21460,10 +21503,10 @@
         <v>804058</v>
       </c>
       <c r="G293" s="11" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="H293" s="11" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="I293" s="11" t="s">
         <v>581</v>
@@ -21506,13 +21549,13 @@
         <v>804059</v>
       </c>
       <c r="G294" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H294" s="11" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="I294" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J294" s="11">
         <v>1</v>
@@ -21552,10 +21595,10 @@
         <v>804060</v>
       </c>
       <c r="G295" s="11" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="H295" s="11" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="I295" s="11" t="s">
         <v>611</v>
@@ -21598,13 +21641,13 @@
         <v>804061</v>
       </c>
       <c r="G296" s="11" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="H296" s="11" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="I296" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J296" s="11">
         <v>6</v>
@@ -21644,10 +21687,10 @@
         <v>804062</v>
       </c>
       <c r="G297" s="11" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="H297" s="11" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="I297" s="11" t="s">
         <v>581</v>
@@ -21690,13 +21733,13 @@
         <v>804063</v>
       </c>
       <c r="G298" s="11" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="H298" s="11" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="I298" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J298" s="11">
         <v>3</v>
@@ -21736,10 +21779,10 @@
         <v>804064</v>
       </c>
       <c r="G299" s="11" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="H299" s="11" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="I299" s="11" t="s">
         <v>611</v>
@@ -21782,13 +21825,13 @@
         <v>804065</v>
       </c>
       <c r="G300" s="11" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="H300" s="11" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="I300" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J300" s="11">
         <v>6</v>
@@ -21828,10 +21871,10 @@
         <v>804066</v>
       </c>
       <c r="G301" s="11" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H301" s="11" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="I301" s="11" t="s">
         <v>581</v>
@@ -21874,13 +21917,13 @@
         <v>804067</v>
       </c>
       <c r="G302" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H302" s="11" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="I302" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J302" s="11">
         <v>3</v>
@@ -21920,10 +21963,10 @@
         <v>804068</v>
       </c>
       <c r="G303" s="11" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="H303" s="11" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="I303" s="11" t="s">
         <v>611</v>
@@ -21966,13 +22009,13 @@
         <v>804069</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="H304" s="11" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="I304" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J304" s="11">
         <v>6</v>
@@ -22012,10 +22055,10 @@
         <v>804070</v>
       </c>
       <c r="G305" s="11" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="H305" s="11" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="I305" s="11" t="s">
         <v>581</v>
@@ -22058,13 +22101,13 @@
         <v>804071</v>
       </c>
       <c r="G306" s="11" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="H306" s="11" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="I306" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J306" s="11">
         <v>2</v>
@@ -22104,10 +22147,10 @@
         <v>804072</v>
       </c>
       <c r="G307" s="11" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="H307" s="11" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="I307" s="11" t="s">
         <v>611</v>
@@ -22150,13 +22193,13 @@
         <v>804073</v>
       </c>
       <c r="G308" s="11" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="H308" s="11" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="I308" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J308" s="11">
         <v>6</v>
@@ -22196,10 +22239,10 @@
         <v>804074</v>
       </c>
       <c r="G309" s="11" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="H309" s="11" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="I309" s="11" t="s">
         <v>581</v>
@@ -22242,13 +22285,13 @@
         <v>804075</v>
       </c>
       <c r="G310" s="11" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H310" s="11" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="I310" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J310" s="11">
         <v>5</v>
@@ -22288,10 +22331,10 @@
         <v>804076</v>
       </c>
       <c r="G311" s="11" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="H311" s="11" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="I311" s="11" t="s">
         <v>611</v>
@@ -22334,13 +22377,13 @@
         <v>804077</v>
       </c>
       <c r="G312" s="11" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="H312" s="11" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="I312" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J312" s="11">
         <v>6</v>
@@ -22380,10 +22423,10 @@
         <v>804078</v>
       </c>
       <c r="G313" s="11" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H313" s="11" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="I313" s="11" t="s">
         <v>581</v>
@@ -22426,13 +22469,13 @@
         <v>804079</v>
       </c>
       <c r="G314" s="11" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="H314" s="11" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="I314" s="11" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="J314" s="11">
         <v>10</v>
@@ -22472,10 +22515,10 @@
         <v>804080</v>
       </c>
       <c r="G315" s="11" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="H315" s="11" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="I315" s="11" t="s">
         <v>611</v>
@@ -22518,13 +22561,13 @@
         <v>-1</v>
       </c>
       <c r="G316" s="11" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="H316" s="11" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="I316" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J316" s="11">
         <v>6</v>
@@ -22686,7 +22729,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C11" s="11">
         <f>SUMIFS(成就领奖!$P$4:$P$316,成就领奖!$A$4:$A$316,"="&amp;成就1级页签!A11)</f>
@@ -23016,7 +23059,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -23030,7 +23073,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -23044,7 +23087,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -23058,7 +23101,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -23072,7 +23115,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -24387,8 +24430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24457,11 +24500,11 @@
       <c r="A4">
         <v>1010101</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C4" t="s">
         <v>616</v>
-      </c>
-      <c r="C4" t="s">
-        <v>617</v>
       </c>
       <c r="E4" t="s">
         <v>474</v>
@@ -24475,7 +24518,7 @@
         <v>1010102</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C5" t="s">
         <v>481</v>
@@ -24495,13 +24538,13 @@
         <v>1010103</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C6" t="s">
-        <v>618</v>
-      </c>
-      <c r="D6" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>1163</v>
       </c>
       <c r="E6" t="s">
         <v>483</v>
@@ -24518,16 +24561,16 @@
         <v>1010104</v>
       </c>
       <c r="B7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D7" t="s">
         <v>620</v>
       </c>
-      <c r="C7" t="s">
-        <v>618</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>621</v>
-      </c>
-      <c r="E7" t="s">
-        <v>622</v>
       </c>
       <c r="H7">
         <v>10101</v>
@@ -24541,13 +24584,13 @@
         <v>1010201</v>
       </c>
       <c r="B8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E8" t="s">
         <v>623</v>
-      </c>
-      <c r="C8" t="s">
-        <v>617</v>
-      </c>
-      <c r="E8" t="s">
-        <v>624</v>
       </c>
       <c r="H8">
         <v>1010101</v>
@@ -24564,7 +24607,7 @@
         <v>1010202</v>
       </c>
       <c r="B9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C9" t="s">
         <v>481</v>
@@ -24587,13 +24630,13 @@
         <v>1010203</v>
       </c>
       <c r="B10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C10" t="s">
-        <v>618</v>
-      </c>
-      <c r="D10" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>1162</v>
       </c>
       <c r="E10" t="s">
         <v>483</v>
@@ -24613,16 +24656,16 @@
         <v>1010204</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="C11" t="s">
-        <v>618</v>
+        <v>781</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>1163</v>
       </c>
       <c r="D11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H11">
         <v>1010104</v>
@@ -24636,13 +24679,13 @@
         <v>1010301</v>
       </c>
       <c r="B12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H12">
         <v>10102</v>
@@ -24656,7 +24699,7 @@
         <v>1010302</v>
       </c>
       <c r="B13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C13" t="s">
         <v>481</v>
@@ -24679,13 +24722,13 @@
         <v>1010303</v>
       </c>
       <c r="B14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D14" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>1163</v>
       </c>
       <c r="E14" t="s">
         <v>483</v>
@@ -24705,16 +24748,16 @@
         <v>1010304</v>
       </c>
       <c r="B15" t="s">
+        <v>630</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>620</v>
+      </c>
+      <c r="E15" t="s">
         <v>631</v>
-      </c>
-      <c r="C15" t="s">
-        <v>618</v>
-      </c>
-      <c r="D15" t="s">
-        <v>621</v>
-      </c>
-      <c r="E15" t="s">
-        <v>632</v>
       </c>
       <c r="H15">
         <v>1010203</v>
@@ -24731,13 +24774,13 @@
         <v>1010401</v>
       </c>
       <c r="B16" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H16">
         <v>1010204</v>
@@ -24751,10 +24794,10 @@
         <v>1010402</v>
       </c>
       <c r="B17" t="s">
+        <v>633</v>
+      </c>
+      <c r="C17" t="s">
         <v>634</v>
-      </c>
-      <c r="C17" t="s">
-        <v>635</v>
       </c>
       <c r="E17" t="s">
         <v>481</v>
@@ -24771,13 +24814,13 @@
         <v>1010403</v>
       </c>
       <c r="B18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E18" t="s">
         <v>483</v>
@@ -24797,13 +24840,13 @@
         <v>1010501</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H19">
         <v>1010302</v>
@@ -24820,13 +24863,13 @@
         <v>1010502</v>
       </c>
       <c r="B20" t="s">
+        <v>637</v>
+      </c>
+      <c r="C20" t="s">
+        <v>636</v>
+      </c>
+      <c r="D20" t="s">
         <v>638</v>
-      </c>
-      <c r="C20" t="s">
-        <v>637</v>
-      </c>
-      <c r="D20" t="s">
-        <v>639</v>
       </c>
       <c r="H20">
         <v>1010303</v>
@@ -24843,13 +24886,13 @@
         <v>1010503</v>
       </c>
       <c r="B21" t="s">
+        <v>639</v>
+      </c>
+      <c r="C21" t="s">
+        <v>636</v>
+      </c>
+      <c r="D21" t="s">
         <v>640</v>
-      </c>
-      <c r="C21" t="s">
-        <v>637</v>
-      </c>
-      <c r="D21" t="s">
-        <v>641</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -24869,14 +24912,14 @@
         <v>1010504</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H22">
         <v>10104</v>
@@ -24890,14 +24933,14 @@
         <v>1010505</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H23">
         <v>1010401</v>
@@ -24914,13 +24957,13 @@
         <v>1010506</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>644</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>645</v>
       </c>
       <c r="E24" s="17"/>
       <c r="H24">
@@ -24938,13 +24981,13 @@
         <v>1010507</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E25" s="17"/>
       <c r="H25">
@@ -24962,10 +25005,10 @@
         <v>1020101</v>
       </c>
       <c r="B26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -24982,10 +25025,10 @@
         <v>1020201</v>
       </c>
       <c r="B27" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -25006,10 +25049,10 @@
         <v>1020202</v>
       </c>
       <c r="B28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C28" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H28">
         <v>1010502</v>
@@ -25026,7 +25069,7 @@
         <v>602</v>
       </c>
       <c r="C29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -25043,10 +25086,10 @@
         <v>1020204</v>
       </c>
       <c r="B30" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H30">
         <v>10201</v>
@@ -25063,7 +25106,7 @@
         <v>603</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -25082,10 +25125,10 @@
         <v>1030101</v>
       </c>
       <c r="B32" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H32">
         <v>10202</v>
@@ -25098,11 +25141,11 @@
       <c r="A33">
         <v>1030102</v>
       </c>
-      <c r="B33" t="s">
-        <v>653</v>
+      <c r="B33" s="14" t="s">
+        <v>1168</v>
       </c>
       <c r="C33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -25120,14 +25163,14 @@
       <c r="A34">
         <v>1030103</v>
       </c>
-      <c r="B34" t="s">
-        <v>654</v>
+      <c r="B34" s="14" t="s">
+        <v>1173</v>
       </c>
       <c r="C34" t="s">
-        <v>618</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
+        <v>617</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>1174</v>
       </c>
       <c r="H34">
         <v>1020202</v>
@@ -25141,10 +25184,10 @@
         <v>1030104</v>
       </c>
       <c r="B35" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C35" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -25163,10 +25206,10 @@
         <v>1030105</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -25182,10 +25225,10 @@
         <v>1030201</v>
       </c>
       <c r="B37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H37">
         <v>103</v>
@@ -25199,10 +25242,10 @@
         <v>1030202</v>
       </c>
       <c r="B38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -25220,14 +25263,14 @@
       <c r="A39">
         <v>1030203</v>
       </c>
-      <c r="B39" t="s">
-        <v>659</v>
+      <c r="B39" s="14" t="s">
+        <v>1175</v>
       </c>
       <c r="C39" t="s">
+        <v>617</v>
+      </c>
+      <c r="D39" t="s">
         <v>618</v>
-      </c>
-      <c r="D39" t="s">
-        <v>619</v>
       </c>
       <c r="H39">
         <v>1030101</v>
@@ -25241,10 +25284,10 @@
         <v>1030204</v>
       </c>
       <c r="B40" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C40" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -25265,10 +25308,10 @@
         <v>1030205</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -25284,7 +25327,7 @@
         <v>1030301</v>
       </c>
       <c r="B42" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -25303,11 +25346,11 @@
       <c r="A43">
         <v>1030302</v>
       </c>
-      <c r="B43" t="s">
-        <v>663</v>
+      <c r="B43" s="14" t="s">
+        <v>1171</v>
       </c>
       <c r="C43" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H43">
         <v>10302</v>
@@ -25320,14 +25363,14 @@
       <c r="A44">
         <v>1030303</v>
       </c>
-      <c r="B44" t="s">
-        <v>664</v>
+      <c r="B44" s="14" t="s">
+        <v>1170</v>
       </c>
       <c r="C44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D44" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H44">
         <v>1030201</v>
@@ -25341,7 +25384,7 @@
         <v>1040101</v>
       </c>
       <c r="B45" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -25361,13 +25404,13 @@
         <v>1040102</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D46" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H46">
         <v>1030203</v>
@@ -25384,7 +25427,7 @@
         <v>525</v>
       </c>
       <c r="C47" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H47">
         <v>1030204</v>
@@ -25398,16 +25441,16 @@
         <v>1040104</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C48" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="H48">
         <v>104</v>
@@ -25421,10 +25464,10 @@
         <v>1040201</v>
       </c>
       <c r="B49" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C49" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H49">
         <v>10401</v>
@@ -25438,10 +25481,10 @@
         <v>1040202</v>
       </c>
       <c r="B50" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -25460,10 +25503,10 @@
         <v>1040203</v>
       </c>
       <c r="B51" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -25482,10 +25525,10 @@
         <v>1040204</v>
       </c>
       <c r="B52" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C52" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -25506,10 +25549,10 @@
         <v>1040301</v>
       </c>
       <c r="B53" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -25528,10 +25571,10 @@
         <v>1040302</v>
       </c>
       <c r="B54" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C54" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D54"/>
       <c r="E54"/>
@@ -25550,10 +25593,10 @@
         <v>1040303</v>
       </c>
       <c r="B55" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H55">
         <v>1040202</v>
@@ -25567,10 +25610,10 @@
         <v>1040304</v>
       </c>
       <c r="B56" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C56" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -25591,10 +25634,10 @@
         <v>1040401</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
@@ -25613,7 +25656,7 @@
         <v>581</v>
       </c>
       <c r="C58" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
@@ -25631,17 +25674,17 @@
       <c r="A59">
         <v>2010101</v>
       </c>
-      <c r="B59" t="s">
-        <v>612</v>
+      <c r="B59" s="14" t="s">
+        <v>1166</v>
       </c>
       <c r="C59" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D59" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E59" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H59">
         <v>1040301</v>
@@ -25658,13 +25701,13 @@
         <v>605</v>
       </c>
       <c r="C60" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D60" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E60" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
@@ -25681,14 +25724,14 @@
         <v>2010103</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
@@ -25704,11 +25747,11 @@
       <c r="A62">
         <v>2020101</v>
       </c>
-      <c r="B62" t="s">
-        <v>611</v>
+      <c r="B62" s="14" t="s">
+        <v>1172</v>
       </c>
       <c r="C62" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
@@ -25727,10 +25770,10 @@
         <v>2020102</v>
       </c>
       <c r="B63" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C63" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E63" t="s">
         <v>408</v>
@@ -25750,13 +25793,13 @@
         <v>610</v>
       </c>
       <c r="C64" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D64" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E64" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H64">
         <v>1040401</v>
@@ -25770,16 +25813,16 @@
         <v>2030102</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H65">
         <v>105</v>
@@ -25793,16 +25836,16 @@
         <v>2040101</v>
       </c>
       <c r="B66" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>684</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="E66" s="18" t="s">
         <v>685</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>686</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>687</v>
       </c>
       <c r="H66">
         <v>1050101</v>
@@ -25816,16 +25859,16 @@
         <v>2040102</v>
       </c>
       <c r="B67" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E67" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H67">
         <v>20</v>
@@ -25839,13 +25882,13 @@
         <v>2040201</v>
       </c>
       <c r="B68" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C68" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E68" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H68">
         <v>201</v>
@@ -25859,10 +25902,10 @@
         <v>2040301</v>
       </c>
       <c r="B69" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C69" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -25882,15 +25925,15 @@
       <c r="A70">
         <v>3010101</v>
       </c>
-      <c r="B70" t="s">
-        <v>614</v>
+      <c r="B70" s="14" t="s">
+        <v>1169</v>
       </c>
       <c r="C70" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F70"/>
       <c r="G70"/>
@@ -25907,13 +25950,13 @@
         <v>3010201</v>
       </c>
       <c r="B71" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C71" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E71" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H71">
         <v>202</v>
@@ -25926,15 +25969,15 @@
       <c r="A72" s="17">
         <v>3010202</v>
       </c>
-      <c r="B72" s="17" t="s">
-        <v>698</v>
+      <c r="B72" s="19" t="s">
+        <v>1167</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F72"/>
       <c r="G72"/>
@@ -25954,11 +25997,11 @@
         <v>613</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H73">
         <v>2020102</v>
@@ -25972,13 +26015,13 @@
         <v>4010101</v>
       </c>
       <c r="B74" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C74" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E74" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H74">
         <v>2020103</v>
@@ -25992,16 +26035,16 @@
         <v>4010102</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C75" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D75" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E75" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H75">
         <v>203</v>
@@ -26015,16 +26058,16 @@
         <v>4010103</v>
       </c>
       <c r="B76" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C76" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D76" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E76" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H76">
         <v>2030101</v>
@@ -26038,10 +26081,10 @@
         <v>4020101</v>
       </c>
       <c r="B77" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C77" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H77">
         <v>2030102</v>
@@ -26055,13 +26098,13 @@
         <v>4030101</v>
       </c>
       <c r="B78" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C78" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D78" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H78">
         <v>2030103</v>
@@ -26075,13 +26118,13 @@
         <v>4030102</v>
       </c>
       <c r="B79" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C79" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D79" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
@@ -26099,16 +26142,16 @@
         <v>4030201</v>
       </c>
       <c r="B80" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C80" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D80" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E80" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H80">
         <v>2040101</v>
@@ -26122,16 +26165,16 @@
         <v>4030202</v>
       </c>
       <c r="B81" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C81" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D81" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E81" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H81">
         <v>2040102</v>
@@ -26145,13 +26188,13 @@
         <v>4040101</v>
       </c>
       <c r="B82" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C82" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D82" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H82">
         <v>2040201</v>
@@ -26165,13 +26208,13 @@
         <v>4040102</v>
       </c>
       <c r="B83" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C83" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D83" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="H83">
         <v>30</v>
@@ -26185,13 +26228,13 @@
         <v>4050102</v>
       </c>
       <c r="B84" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H84">
         <v>301</v>
@@ -26205,13 +26248,13 @@
         <v>4060101</v>
       </c>
       <c r="B85" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C85" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E85" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="H85">
         <v>3010101</v>
@@ -26225,13 +26268,13 @@
         <v>4060102</v>
       </c>
       <c r="B86" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C86" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E86" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H86">
         <v>302</v>
@@ -26245,13 +26288,13 @@
         <v>4060103</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>755</v>
+        <v>563</v>
       </c>
       <c r="C87" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E87" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H87">
         <v>3010201</v>
@@ -26265,16 +26308,16 @@
         <v>4060104</v>
       </c>
       <c r="B88" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C88" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D88" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E88" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H88">
         <v>3010202</v>
@@ -26288,16 +26331,16 @@
         <v>4060105</v>
       </c>
       <c r="B89" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C89" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D89" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E89" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H89">
         <v>40</v>
@@ -26311,13 +26354,13 @@
         <v>4070101</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H90">
         <v>401</v>
@@ -26331,10 +26374,10 @@
         <v>4080101</v>
       </c>
       <c r="B91" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C91" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H91">
         <v>4010101</v>
@@ -26365,10 +26408,10 @@
         <v>4090102</v>
       </c>
       <c r="B93" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C93" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H93">
         <v>4010103</v>
@@ -26382,10 +26425,10 @@
         <v>4090103</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C94" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H94">
         <v>402</v>
@@ -26399,7 +26442,7 @@
         <v>4100101</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -26416,7 +26459,7 @@
         <v>4100102</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -26433,10 +26476,10 @@
         <v>4110101</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
@@ -26452,10 +26495,10 @@
         <v>5010101</v>
       </c>
       <c r="B98" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C98" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H98">
         <v>404</v>
@@ -26469,13 +26512,13 @@
         <v>5010102</v>
       </c>
       <c r="B99" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H99">
         <v>4040101</v>
@@ -26492,7 +26535,7 @@
         <v>66</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>

--- a/Excel/镇魂街/achieve.成就.xlsx
+++ b/Excel/镇魂街/achieve.成就.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1108">
   <si>
     <t>sheet名</t>
   </si>
@@ -5190,9 +5190,6 @@
     <t>多少次</t>
   </si>
   <si>
-    <t>守护灵突破-max</t>
-  </si>
-  <si>
     <t>特定id的卡牌突破等级</t>
   </si>
   <si>
@@ -5217,9 +5214,6 @@
     <t>多少个</t>
   </si>
   <si>
-    <t>卡牌品质-qua</t>
-  </si>
-  <si>
     <t>卡牌品质</t>
   </si>
   <si>
@@ -5253,9 +5247,6 @@
     <t>专属武器强化-bhv</t>
   </si>
   <si>
-    <t>专属武器强化-id</t>
-  </si>
-  <si>
     <t>专属武器解封-id</t>
   </si>
   <si>
@@ -5343,9 +5334,6 @@
     <t>竞技场失败次数</t>
   </si>
   <si>
-    <t>商店购买-sum</t>
-  </si>
-  <si>
     <t>在商店的兑换次数</t>
   </si>
   <si>
@@ -5355,9 +5343,6 @@
     <t>在特定商店的兑换次数</t>
   </si>
   <si>
-    <t>商店购买-id</t>
-  </si>
-  <si>
     <t>特定商品Id</t>
   </si>
   <si>
@@ -5421,9 +5406,6 @@
     <t>宝箱Id</t>
   </si>
   <si>
-    <t>点金</t>
-  </si>
-  <si>
     <t>连续登录</t>
   </si>
   <si>
@@ -5700,18 +5682,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>竞技场-bhv</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时竞技场-bhv</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时竞技场-历史最高分</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>分数</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -5720,10 +5690,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>芦花古楼-sum</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>普通剧情-1</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -5845,10 +5811,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>神器-大点-id</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>神器-组件-max</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -5857,18 +5819,10 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>神器-组件-cnt</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>神器-组件-quaLv</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -5885,10 +5839,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>历史最高分</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>技能装备-shl-cnt</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -5897,10 +5847,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>寄灵人洗练-bhv</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>获得多少个专属技能</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -5925,22 +5871,10 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>世界BOSS-chamin</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵-qua</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>花费货币-id</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵突破-cnt</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>地狱道</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -6041,23 +5975,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>商店购买-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bhv</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>装备穿戴-qua</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -6110,23 +6027,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>装备穿戴-qua-lv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -6135,74 +6035,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>等级Id</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>装备{0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}套套装</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备穿戴-suit</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵升级-cnt-qua</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在商店花费{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}货币的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{0}次数</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -6219,15 +6051,7 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>拥有{0}件{1}品质{2}级的装备</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>插槽技能升级-bhv</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽技能升级-max</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -7014,6 +6838,261 @@
   </si>
   <si>
     <t>联盟</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买-sum</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器强化-id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器魂珠-cnt-sumlv</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>总等级</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵突破-max</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场-bhv</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵升级-cnt-qua</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌品质-qua</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵突破-cnt</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>装备{0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}套套装</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有{0}件{1}品质等级Id&gt;={2}级的装备</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店购买-id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-sum</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备穿戴-suit</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>商店购买-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bhv</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在商店花费{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}货币的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{0}次数</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器魂珠-cnt-lv-loc</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器魂珠-max-loc</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-大点-id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人洗练-bhv</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS-chamin</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽技能升级-max</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时竞技场-历史最高分</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时竞技场-bhv</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-组件-quaLv</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾经获得过{0}个{1}品质的神器碎片</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器-组件-quaGet</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备穿戴-lvid</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级Id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级Id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>拥有{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0}件品质Id&gt;={1}的装备</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>装备穿戴-qua-lv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器魂珠-max-sumlv</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -7162,7 +7241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7250,6 +7329,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7352,7 +7437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -7432,6 +7517,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - 着色 1" xfId="14" builtinId="30"/>
@@ -7723,7 +7810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -7864,7 +7951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P225"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -7955,10 +8042,10 @@
         <v>38</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I2" t="s">
         <v>39</v>
@@ -7976,10 +8063,10 @@
         <v>37</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="P2" t="s">
         <v>37</v>
@@ -8059,7 +8146,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="J4" s="11">
         <v>2</v>
@@ -8107,7 +8194,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="J5" s="11">
         <v>7</v>
@@ -8155,7 +8242,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="J6" s="11">
         <v>30</v>
@@ -8203,7 +8290,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="J7" s="11">
         <v>100</v>
@@ -8251,7 +8338,7 @@
         <v>68</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J8" s="11">
         <v>100000</v>
@@ -8301,7 +8388,7 @@
         <v>68</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J9" s="11">
         <v>1000000</v>
@@ -8351,7 +8438,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J10" s="11">
         <v>10000000</v>
@@ -8401,7 +8488,7 @@
         <v>68</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="J11" s="11">
         <v>100000000</v>
@@ -8451,7 +8538,7 @@
         <v>74</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="J12" s="11">
         <v>200000</v>
@@ -8501,7 +8588,7 @@
         <v>74</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="J13" s="11">
         <v>2000000</v>
@@ -8551,7 +8638,7 @@
         <v>74</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="J14" s="11">
         <v>20000000</v>
@@ -8601,7 +8688,7 @@
         <v>74</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="J15" s="11">
         <v>200000000</v>
@@ -8648,10 +8735,10 @@
         <v>79</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J16" s="11">
         <v>100</v>
@@ -8698,10 +8785,10 @@
         <v>81</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J17" s="11">
         <v>1000</v>
@@ -8748,10 +8835,10 @@
         <v>82</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J18" s="11">
         <v>10000</v>
@@ -8798,10 +8885,10 @@
         <v>83</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J19" s="11">
         <v>100000</v>
@@ -8848,10 +8935,10 @@
         <v>84</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="J20" s="11">
         <v>200</v>
@@ -8898,10 +8985,10 @@
         <v>85</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="J21" s="11">
         <v>2000</v>
@@ -8948,10 +9035,10 @@
         <v>86</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="J22" s="11">
         <v>20000</v>
@@ -8998,10 +9085,10 @@
         <v>87</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="J23" s="11">
         <v>200000</v>
@@ -9531,7 +9618,7 @@
         <v>103</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J34" s="11">
         <v>1</v>
@@ -9581,7 +9668,7 @@
         <v>106</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
@@ -9631,7 +9718,7 @@
         <v>108</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
@@ -9681,7 +9768,7 @@
         <v>110</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J37" s="11">
         <v>1</v>
@@ -9731,7 +9818,7 @@
         <v>103</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J38" s="11">
         <v>3</v>
@@ -9781,7 +9868,7 @@
         <v>106</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J39" s="11">
         <v>3</v>
@@ -9831,7 +9918,7 @@
         <v>108</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J40" s="11">
         <v>3</v>
@@ -9881,7 +9968,7 @@
         <v>110</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J41" s="11">
         <v>3</v>
@@ -10331,7 +10418,7 @@
         <v>118</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J50" s="11">
         <v>20000</v>
@@ -10381,7 +10468,7 @@
         <v>118</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J51" s="11">
         <v>100000</v>
@@ -10431,7 +10518,7 @@
         <v>118</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J52" s="11">
         <v>500000</v>
@@ -10481,7 +10568,7 @@
         <v>118</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J53" s="11">
         <v>2000000</v>
@@ -11189,7 +11276,7 @@
         <v>142</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J68" s="11">
         <v>3</v>
@@ -11236,7 +11323,7 @@
         <v>142</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J69" s="11">
         <v>9</v>
@@ -11284,7 +11371,7 @@
         <v>142</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J70" s="11">
         <v>30</v>
@@ -11332,7 +11419,7 @@
         <v>142</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J71" s="11">
         <v>45</v>
@@ -11380,7 +11467,7 @@
         <v>142</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J72" s="11">
         <v>90</v>
@@ -11520,7 +11607,7 @@
         <v>3010102</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>158</v>
@@ -11541,7 +11628,7 @@
         <v>1000</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="O75" s="11">
         <v>10</v>
@@ -11570,10 +11657,10 @@
         <v>3010103</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>602</v>
@@ -11591,7 +11678,7 @@
         <v>1000</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="O76" s="11">
         <v>20</v>
@@ -11620,10 +11707,10 @@
         <v>3010104</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>602</v>
@@ -11641,7 +11728,7 @@
         <v>1000</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="O77" s="11">
         <v>30</v>
@@ -11670,10 +11757,10 @@
         <v>3010105</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>602</v>
@@ -11691,7 +11778,7 @@
         <v>1000</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="O78" s="11">
         <v>10</v>
@@ -11720,10 +11807,10 @@
         <v>3010106</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="I79" s="11" t="s">
         <v>602</v>
@@ -11741,7 +11828,7 @@
         <v>1000</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="O79" s="11">
         <v>20</v>
@@ -11770,10 +11857,10 @@
         <v>-1</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>602</v>
@@ -11791,7 +11878,7 @@
         <v>1000</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="O80" s="11">
         <v>30</v>
@@ -12020,7 +12107,7 @@
         <v>606</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="J85" s="11">
         <v>1</v>
@@ -12512,7 +12599,7 @@
         <v>196</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="J95" s="11">
         <v>3</v>
@@ -12560,7 +12647,7 @@
         <v>199</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="J96" s="11">
         <v>1</v>
@@ -12610,7 +12697,7 @@
         <v>202</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="J97" s="11">
         <v>3</v>
@@ -12658,7 +12745,7 @@
         <v>205</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="J98" s="11">
         <v>1</v>
@@ -12708,7 +12795,7 @@
         <v>208</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="J99" s="11">
         <v>10</v>
@@ -12758,7 +12845,7 @@
         <v>210</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="J100" s="11">
         <v>10</v>
@@ -12808,7 +12895,7 @@
         <v>212</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="J101" s="11">
         <v>1</v>
@@ -12900,13 +12987,13 @@
         <v>9110102</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H103" s="32" t="s">
-        <v>931</v>
+        <v>904</v>
       </c>
       <c r="I103" s="36" t="str">
-        <f>VLOOKUP(LEFT(E103,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E103,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J103" s="32">
@@ -12947,13 +13034,13 @@
         <v>9110103</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H104" s="32" t="s">
-        <v>932</v>
+        <v>905</v>
       </c>
       <c r="I104" s="36" t="str">
-        <f>VLOOKUP(LEFT(E104,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E104,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J104" s="32">
@@ -12994,13 +13081,13 @@
         <v>-1</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H105" s="32" t="s">
-        <v>933</v>
+        <v>906</v>
       </c>
       <c r="I105" s="36" t="str">
-        <f>VLOOKUP(LEFT(E105,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E105,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J105" s="32">
@@ -13041,13 +13128,13 @@
         <v>9110105</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H106" s="32" t="s">
-        <v>934</v>
+        <v>907</v>
       </c>
       <c r="I106" s="36" t="str">
-        <f>VLOOKUP(LEFT(E106,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E106,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J106" s="32">
@@ -13088,13 +13175,13 @@
         <v>9110106</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H107" s="32" t="s">
-        <v>935</v>
+        <v>908</v>
       </c>
       <c r="I107" s="36" t="str">
-        <f>VLOOKUP(LEFT(E107,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E107,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J107" s="32">
@@ -13135,13 +13222,13 @@
         <v>-1</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H108" s="32" t="s">
-        <v>936</v>
+        <v>909</v>
       </c>
       <c r="I108" s="36" t="str">
-        <f>VLOOKUP(LEFT(E108,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E108,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J108" s="32">
@@ -13182,13 +13269,13 @@
         <v>9110108</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H109" s="32" t="s">
-        <v>937</v>
+        <v>910</v>
       </c>
       <c r="I109" s="36" t="str">
-        <f>VLOOKUP(LEFT(E109,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E109,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J109" s="32">
@@ -13229,13 +13316,13 @@
         <v>9110109</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H110" s="32" t="s">
-        <v>938</v>
+        <v>911</v>
       </c>
       <c r="I110" s="36" t="str">
-        <f>VLOOKUP(LEFT(E110,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E110,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J110" s="32">
@@ -13276,13 +13363,13 @@
         <v>-1</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H111" s="32" t="s">
-        <v>939</v>
+        <v>912</v>
       </c>
       <c r="I111" s="36" t="str">
-        <f>VLOOKUP(LEFT(E111,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E111,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J111" s="32">
@@ -13323,13 +13410,13 @@
         <v>9110111</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H112" s="32" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
       <c r="I112" s="36" t="str">
-        <f>VLOOKUP(LEFT(E112,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E112,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J112" s="32">
@@ -13370,13 +13457,13 @@
         <v>9110112</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H113" s="32" t="s">
-        <v>941</v>
+        <v>914</v>
       </c>
       <c r="I113" s="36" t="str">
-        <f>VLOOKUP(LEFT(E113,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E113,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J113" s="32">
@@ -13417,13 +13504,13 @@
         <v>-1</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>930</v>
+        <v>903</v>
       </c>
       <c r="H114" s="32" t="s">
-        <v>942</v>
+        <v>915</v>
       </c>
       <c r="I114" s="36" t="str">
-        <f>VLOOKUP(LEFT(E114,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E114,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>资源产量</v>
       </c>
       <c r="J114" s="32">
@@ -13464,13 +13551,13 @@
         <v>9110202</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>943</v>
+        <v>916</v>
       </c>
       <c r="H115" s="32" t="s">
-        <v>944</v>
+        <v>917</v>
       </c>
       <c r="I115" s="36" t="str">
-        <f>VLOOKUP(LEFT(E115,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E115,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>科技总等级</v>
       </c>
       <c r="J115" s="32">
@@ -13509,13 +13596,13 @@
         <v>9110203</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>945</v>
+        <v>918</v>
       </c>
       <c r="H116" s="32" t="s">
-        <v>946</v>
+        <v>919</v>
       </c>
       <c r="I116" s="36" t="str">
-        <f>VLOOKUP(LEFT(E116,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E116,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>科技总等级</v>
       </c>
       <c r="J116" s="32">
@@ -13554,13 +13641,13 @@
         <v>9110204</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>947</v>
+        <v>920</v>
       </c>
       <c r="H117" s="32" t="s">
-        <v>948</v>
+        <v>921</v>
       </c>
       <c r="I117" s="36" t="str">
-        <f>VLOOKUP(LEFT(E117,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E117,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>科技总等级</v>
       </c>
       <c r="J117" s="32">
@@ -13599,13 +13686,13 @@
         <v>-1</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>947</v>
+        <v>920</v>
       </c>
       <c r="H118" s="32" t="s">
-        <v>949</v>
+        <v>922</v>
       </c>
       <c r="I118" s="36" t="str">
-        <f>VLOOKUP(LEFT(E118,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E118,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>科技总等级</v>
       </c>
       <c r="J118" s="32">
@@ -13644,13 +13731,13 @@
         <v>9110302</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>950</v>
+        <v>923</v>
       </c>
       <c r="H119" s="32" t="s">
-        <v>951</v>
+        <v>924</v>
       </c>
       <c r="I119" s="36" t="str">
-        <f>VLOOKUP(LEFT(E119,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E119,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>满级科技数量</v>
       </c>
       <c r="J119" s="32">
@@ -13689,13 +13776,13 @@
         <v>-1</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>950</v>
+        <v>923</v>
       </c>
       <c r="H120" s="32" t="s">
-        <v>952</v>
+        <v>925</v>
       </c>
       <c r="I120" s="36" t="str">
-        <f>VLOOKUP(LEFT(E120,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E120,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>满级科技数量</v>
       </c>
       <c r="J120" s="32">
@@ -13734,13 +13821,13 @@
         <v>9110402</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>953</v>
+        <v>926</v>
       </c>
       <c r="H121" s="32" t="s">
-        <v>954</v>
+        <v>927</v>
       </c>
       <c r="I121" s="36" t="str">
-        <f>VLOOKUP(LEFT(E121,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E121,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>激活城镇数量</v>
       </c>
       <c r="J121" s="32">
@@ -13779,13 +13866,13 @@
         <v>9110403</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>953</v>
+        <v>926</v>
       </c>
       <c r="H122" s="32" t="s">
-        <v>955</v>
+        <v>928</v>
       </c>
       <c r="I122" s="36" t="str">
-        <f>VLOOKUP(LEFT(E122,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E122,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>激活城镇数量</v>
       </c>
       <c r="J122" s="32">
@@ -13824,13 +13911,13 @@
         <v>9110404</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>956</v>
+        <v>929</v>
       </c>
       <c r="H123" s="32" t="s">
-        <v>957</v>
+        <v>930</v>
       </c>
       <c r="I123" s="36" t="str">
-        <f>VLOOKUP(LEFT(E123,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E123,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>激活城镇数量</v>
       </c>
       <c r="J123" s="32">
@@ -13869,13 +13956,13 @@
         <v>9110405</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>953</v>
+        <v>926</v>
       </c>
       <c r="H124" s="32" t="s">
-        <v>958</v>
+        <v>931</v>
       </c>
       <c r="I124" s="36" t="str">
-        <f>VLOOKUP(LEFT(E124,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E124,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>激活城镇数量</v>
       </c>
       <c r="J124" s="32">
@@ -13914,13 +14001,13 @@
         <v>9110406</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>953</v>
+        <v>926</v>
       </c>
       <c r="H125" s="32" t="s">
-        <v>959</v>
+        <v>932</v>
       </c>
       <c r="I125" s="36" t="str">
-        <f>VLOOKUP(LEFT(E125,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E125,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>激活城镇数量</v>
       </c>
       <c r="J125" s="32">
@@ -13959,13 +14046,13 @@
         <v>9110407</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>953</v>
+        <v>926</v>
       </c>
       <c r="H126" s="32" t="s">
-        <v>960</v>
+        <v>933</v>
       </c>
       <c r="I126" s="36" t="str">
-        <f>VLOOKUP(LEFT(E126,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E126,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>激活城镇数量</v>
       </c>
       <c r="J126" s="32">
@@ -14004,13 +14091,13 @@
         <v>9110408</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>961</v>
+        <v>934</v>
       </c>
       <c r="H127" s="32" t="s">
-        <v>962</v>
+        <v>935</v>
       </c>
       <c r="I127" s="36" t="str">
-        <f>VLOOKUP(LEFT(E127,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E127,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>激活城镇数量</v>
       </c>
       <c r="J127" s="32">
@@ -14049,13 +14136,13 @@
         <v>9110409</v>
       </c>
       <c r="G128" s="32" t="s">
-        <v>961</v>
+        <v>934</v>
       </c>
       <c r="H128" s="32" t="s">
-        <v>963</v>
+        <v>936</v>
       </c>
       <c r="I128" s="36" t="str">
-        <f>VLOOKUP(LEFT(E128,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E128,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>激活城镇数量</v>
       </c>
       <c r="J128" s="32">
@@ -14094,13 +14181,13 @@
         <v>-1</v>
       </c>
       <c r="G129" s="32" t="s">
-        <v>964</v>
+        <v>937</v>
       </c>
       <c r="H129" s="32" t="s">
-        <v>965</v>
+        <v>938</v>
       </c>
       <c r="I129" s="36" t="str">
-        <f>VLOOKUP(LEFT(E129,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E129,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>激活城镇数量</v>
       </c>
       <c r="J129" s="32">
@@ -14139,13 +14226,13 @@
         <v>9120102</v>
       </c>
       <c r="G130" s="32" t="s">
-        <v>966</v>
+        <v>939</v>
       </c>
       <c r="H130" s="32" t="s">
-        <v>967</v>
+        <v>940</v>
       </c>
       <c r="I130" s="36" t="str">
-        <f>VLOOKUP(LEFT(E130,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E130,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>占领资源点</v>
       </c>
       <c r="J130" s="32">
@@ -14186,13 +14273,13 @@
         <v>9120103</v>
       </c>
       <c r="G131" s="32" t="s">
-        <v>966</v>
+        <v>939</v>
       </c>
       <c r="H131" s="32" t="s">
-        <v>968</v>
+        <v>941</v>
       </c>
       <c r="I131" s="36" t="str">
-        <f>VLOOKUP(LEFT(E131,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E131,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>占领资源点</v>
       </c>
       <c r="J131" s="32">
@@ -14233,13 +14320,13 @@
         <v>9120104</v>
       </c>
       <c r="G132" s="32" t="s">
-        <v>966</v>
+        <v>939</v>
       </c>
       <c r="H132" s="32" t="s">
-        <v>969</v>
+        <v>942</v>
       </c>
       <c r="I132" s="36" t="str">
-        <f>VLOOKUP(LEFT(E132,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E132,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>占领资源点</v>
       </c>
       <c r="J132" s="32">
@@ -14280,13 +14367,13 @@
         <v>9120105</v>
       </c>
       <c r="G133" s="32" t="s">
-        <v>970</v>
+        <v>943</v>
       </c>
       <c r="H133" s="32" t="s">
-        <v>971</v>
+        <v>944</v>
       </c>
       <c r="I133" s="36" t="str">
-        <f>VLOOKUP(LEFT(E133,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E133,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>占领资源点</v>
       </c>
       <c r="J133" s="32">
@@ -14327,13 +14414,13 @@
         <v>9120106</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>966</v>
+        <v>939</v>
       </c>
       <c r="H134" s="32" t="s">
-        <v>972</v>
+        <v>945</v>
       </c>
       <c r="I134" s="36" t="str">
-        <f>VLOOKUP(LEFT(E134,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E134,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>占领资源点</v>
       </c>
       <c r="J134" s="32">
@@ -14374,13 +14461,13 @@
         <v>9120107</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>973</v>
+        <v>946</v>
       </c>
       <c r="H135" s="32" t="s">
-        <v>974</v>
+        <v>947</v>
       </c>
       <c r="I135" s="36" t="str">
-        <f>VLOOKUP(LEFT(E135,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E135,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>占领资源点</v>
       </c>
       <c r="J135" s="32">
@@ -14421,13 +14508,13 @@
         <v>9120108</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>966</v>
+        <v>939</v>
       </c>
       <c r="H136" s="32" t="s">
-        <v>975</v>
+        <v>948</v>
       </c>
       <c r="I136" s="36" t="str">
-        <f>VLOOKUP(LEFT(E136,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E136,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>占领资源点</v>
       </c>
       <c r="J136" s="32">
@@ -14468,13 +14555,13 @@
         <v>9120109</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>970</v>
+        <v>943</v>
       </c>
       <c r="H137" s="32" t="s">
-        <v>976</v>
+        <v>949</v>
       </c>
       <c r="I137" s="36" t="str">
-        <f>VLOOKUP(LEFT(E137,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E137,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>占领资源点</v>
       </c>
       <c r="J137" s="32">
@@ -14515,13 +14602,13 @@
         <v>9120110</v>
       </c>
       <c r="G138" s="32" t="s">
-        <v>966</v>
+        <v>939</v>
       </c>
       <c r="H138" s="32" t="s">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="I138" s="36" t="str">
-        <f>VLOOKUP(LEFT(E138,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E138,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>占领资源点</v>
       </c>
       <c r="J138" s="32">
@@ -14562,13 +14649,13 @@
         <v>9120111</v>
       </c>
       <c r="G139" s="32" t="s">
-        <v>978</v>
+        <v>951</v>
       </c>
       <c r="H139" s="32" t="s">
-        <v>979</v>
+        <v>952</v>
       </c>
       <c r="I139" s="36" t="str">
-        <f>VLOOKUP(LEFT(E139,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E139,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>占领资源点</v>
       </c>
       <c r="J139" s="32">
@@ -14609,13 +14696,13 @@
         <v>-1</v>
       </c>
       <c r="G140" s="32" t="s">
-        <v>980</v>
+        <v>953</v>
       </c>
       <c r="H140" s="32" t="s">
-        <v>981</v>
+        <v>954</v>
       </c>
       <c r="I140" s="36" t="str">
-        <f>VLOOKUP(LEFT(E140,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E140,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>占领资源点</v>
       </c>
       <c r="J140" s="32">
@@ -14656,13 +14743,13 @@
         <v>9120202</v>
       </c>
       <c r="G141" s="32" t="s">
-        <v>982</v>
+        <v>955</v>
       </c>
       <c r="H141" s="32" t="s">
-        <v>983</v>
+        <v>956</v>
       </c>
       <c r="I141" s="36" t="str">
-        <f>VLOOKUP(LEFT(E141,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E141,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>领地数量</v>
       </c>
       <c r="J141" s="32">
@@ -14701,13 +14788,13 @@
         <v>9120203</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>984</v>
+        <v>957</v>
       </c>
       <c r="H142" s="32" t="s">
-        <v>985</v>
+        <v>958</v>
       </c>
       <c r="I142" s="36" t="str">
-        <f>VLOOKUP(LEFT(E142,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E142,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>领地数量</v>
       </c>
       <c r="J142" s="32">
@@ -14746,13 +14833,13 @@
         <v>9120204</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>986</v>
+        <v>959</v>
       </c>
       <c r="H143" s="32" t="s">
-        <v>987</v>
+        <v>960</v>
       </c>
       <c r="I143" s="36" t="str">
-        <f>VLOOKUP(LEFT(E143,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E143,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>领地数量</v>
       </c>
       <c r="J143" s="32">
@@ -14791,13 +14878,13 @@
         <v>9120205</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>984</v>
+        <v>957</v>
       </c>
       <c r="H144" s="32" t="s">
-        <v>988</v>
+        <v>961</v>
       </c>
       <c r="I144" s="36" t="str">
-        <f>VLOOKUP(LEFT(E144,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E144,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>领地数量</v>
       </c>
       <c r="J144" s="32">
@@ -14836,13 +14923,13 @@
         <v>9120206</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>982</v>
+        <v>955</v>
       </c>
       <c r="H145" s="32" t="s">
-        <v>989</v>
+        <v>962</v>
       </c>
       <c r="I145" s="36" t="str">
-        <f>VLOOKUP(LEFT(E145,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E145,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>领地数量</v>
       </c>
       <c r="J145" s="32">
@@ -14881,13 +14968,13 @@
         <v>-1</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>984</v>
+        <v>957</v>
       </c>
       <c r="H146" s="32" t="s">
-        <v>990</v>
+        <v>963</v>
       </c>
       <c r="I146" s="36" t="str">
-        <f>VLOOKUP(LEFT(E146,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E146,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>领地数量</v>
       </c>
       <c r="J146" s="32">
@@ -14926,13 +15013,13 @@
         <v>9120302</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H147" s="32" t="s">
-        <v>992</v>
+        <v>965</v>
       </c>
       <c r="I147" s="36" t="str">
-        <f>VLOOKUP(LEFT(E147,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E147,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J147" s="32">
@@ -14973,13 +15060,13 @@
         <v>9120303</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H148" s="32" t="s">
-        <v>993</v>
+        <v>966</v>
       </c>
       <c r="I148" s="36" t="str">
-        <f>VLOOKUP(LEFT(E148,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E148,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J148" s="32">
@@ -15020,13 +15107,13 @@
         <v>9120304</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H149" s="32" t="s">
-        <v>994</v>
+        <v>967</v>
       </c>
       <c r="I149" s="36" t="str">
-        <f>VLOOKUP(LEFT(E149,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E149,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J149" s="32">
@@ -15067,13 +15154,13 @@
         <v>9120305</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H150" s="32" t="s">
-        <v>995</v>
+        <v>968</v>
       </c>
       <c r="I150" s="36" t="str">
-        <f>VLOOKUP(LEFT(E150,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E150,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J150" s="32">
@@ -15114,13 +15201,13 @@
         <v>9120306</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H151" s="32" t="s">
-        <v>996</v>
+        <v>969</v>
       </c>
       <c r="I151" s="36" t="str">
-        <f>VLOOKUP(LEFT(E151,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E151,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J151" s="32">
@@ -15161,13 +15248,13 @@
         <v>9120307</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H152" s="32" t="s">
-        <v>997</v>
+        <v>970</v>
       </c>
       <c r="I152" s="36" t="str">
-        <f>VLOOKUP(LEFT(E152,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E152,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J152" s="32">
@@ -15208,13 +15295,13 @@
         <v>9120308</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H153" s="32" t="s">
-        <v>998</v>
+        <v>971</v>
       </c>
       <c r="I153" s="36" t="str">
-        <f>VLOOKUP(LEFT(E153,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E153,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J153" s="32">
@@ -15255,13 +15342,13 @@
         <v>9120309</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H154" s="32" t="s">
-        <v>999</v>
+        <v>972</v>
       </c>
       <c r="I154" s="36" t="str">
-        <f>VLOOKUP(LEFT(E154,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E154,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J154" s="32">
@@ -15302,13 +15389,13 @@
         <v>9120310</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H155" s="32" t="s">
-        <v>1000</v>
+        <v>973</v>
       </c>
       <c r="I155" s="36" t="str">
-        <f>VLOOKUP(LEFT(E155,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E155,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J155" s="32">
@@ -15349,13 +15436,13 @@
         <v>9120311</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H156" s="32" t="s">
-        <v>1001</v>
+        <v>974</v>
       </c>
       <c r="I156" s="36" t="str">
-        <f>VLOOKUP(LEFT(E156,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E156,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J156" s="32">
@@ -15396,13 +15483,13 @@
         <v>9120312</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H157" s="32" t="s">
-        <v>1002</v>
+        <v>975</v>
       </c>
       <c r="I157" s="36" t="str">
-        <f>VLOOKUP(LEFT(E157,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E157,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J157" s="32">
@@ -15443,13 +15530,13 @@
         <v>9120313</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H158" s="32" t="s">
-        <v>1003</v>
+        <v>976</v>
       </c>
       <c r="I158" s="36" t="str">
-        <f>VLOOKUP(LEFT(E158,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E158,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J158" s="32">
@@ -15490,13 +15577,13 @@
         <v>9120314</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H159" s="32" t="s">
-        <v>1004</v>
+        <v>977</v>
       </c>
       <c r="I159" s="36" t="str">
-        <f>VLOOKUP(LEFT(E159,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E159,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J159" s="32">
@@ -15537,13 +15624,13 @@
         <v>9120315</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H160" s="32" t="s">
-        <v>1005</v>
+        <v>978</v>
       </c>
       <c r="I160" s="36" t="str">
-        <f>VLOOKUP(LEFT(E160,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E160,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J160" s="32">
@@ -15584,13 +15671,13 @@
         <v>9120316</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H161" s="32" t="s">
-        <v>1006</v>
+        <v>979</v>
       </c>
       <c r="I161" s="36" t="str">
-        <f>VLOOKUP(LEFT(E161,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E161,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J161" s="32">
@@ -15631,13 +15718,13 @@
         <v>9120317</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H162" s="32" t="s">
-        <v>1007</v>
+        <v>980</v>
       </c>
       <c r="I162" s="36" t="str">
-        <f>VLOOKUP(LEFT(E162,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E162,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J162" s="32">
@@ -15678,13 +15765,13 @@
         <v>9120318</v>
       </c>
       <c r="G163" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H163" s="32" t="s">
-        <v>1008</v>
+        <v>981</v>
       </c>
       <c r="I163" s="36" t="str">
-        <f>VLOOKUP(LEFT(E163,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E163,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J163" s="32">
@@ -15725,13 +15812,13 @@
         <v>9120319</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H164" s="32" t="s">
-        <v>1009</v>
+        <v>982</v>
       </c>
       <c r="I164" s="36" t="str">
-        <f>VLOOKUP(LEFT(E164,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E164,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J164" s="32">
@@ -15772,13 +15859,13 @@
         <v>9120320</v>
       </c>
       <c r="G165" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H165" s="32" t="s">
-        <v>1010</v>
+        <v>983</v>
       </c>
       <c r="I165" s="36" t="str">
-        <f>VLOOKUP(LEFT(E165,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E165,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J165" s="32">
@@ -15819,13 +15906,13 @@
         <v>9120321</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H166" s="32" t="s">
-        <v>1011</v>
+        <v>984</v>
       </c>
       <c r="I166" s="36" t="str">
-        <f>VLOOKUP(LEFT(E166,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E166,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J166" s="32">
@@ -15866,13 +15953,13 @@
         <v>9120322</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H167" s="32" t="s">
-        <v>1012</v>
+        <v>985</v>
       </c>
       <c r="I167" s="36" t="str">
-        <f>VLOOKUP(LEFT(E167,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E167,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J167" s="32">
@@ -15913,13 +16000,13 @@
         <v>9120323</v>
       </c>
       <c r="G168" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H168" s="32" t="s">
-        <v>1013</v>
+        <v>986</v>
       </c>
       <c r="I168" s="36" t="str">
-        <f>VLOOKUP(LEFT(E168,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E168,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J168" s="32">
@@ -15960,13 +16047,13 @@
         <v>9120324</v>
       </c>
       <c r="G169" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H169" s="32" t="s">
-        <v>1014</v>
+        <v>987</v>
       </c>
       <c r="I169" s="36" t="str">
-        <f>VLOOKUP(LEFT(E169,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E169,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J169" s="32">
@@ -16007,13 +16094,13 @@
         <v>9120325</v>
       </c>
       <c r="G170" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H170" s="32" t="s">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="I170" s="36" t="str">
-        <f>VLOOKUP(LEFT(E170,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E170,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J170" s="32">
@@ -16054,13 +16141,13 @@
         <v>9120326</v>
       </c>
       <c r="G171" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H171" s="32" t="s">
-        <v>1016</v>
+        <v>989</v>
       </c>
       <c r="I171" s="36" t="str">
-        <f>VLOOKUP(LEFT(E171,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E171,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J171" s="32">
@@ -16101,13 +16188,13 @@
         <v>9120327</v>
       </c>
       <c r="G172" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H172" s="32" t="s">
-        <v>1017</v>
+        <v>990</v>
       </c>
       <c r="I172" s="36" t="str">
-        <f>VLOOKUP(LEFT(E172,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E172,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J172" s="32">
@@ -16148,13 +16235,13 @@
         <v>9120328</v>
       </c>
       <c r="G173" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="H173" s="32" t="s">
         <v>991</v>
       </c>
-      <c r="H173" s="32" t="s">
-        <v>1018</v>
-      </c>
       <c r="I173" s="36" t="str">
-        <f>VLOOKUP(LEFT(E173,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E173,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J173" s="32">
@@ -16195,13 +16282,13 @@
         <v>9120329</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H174" s="32" t="s">
-        <v>1019</v>
+        <v>992</v>
       </c>
       <c r="I174" s="36" t="str">
-        <f>VLOOKUP(LEFT(E174,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E174,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J174" s="32">
@@ -16242,13 +16329,13 @@
         <v>9120330</v>
       </c>
       <c r="G175" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H175" s="32" t="s">
-        <v>1020</v>
+        <v>993</v>
       </c>
       <c r="I175" s="36" t="str">
-        <f>VLOOKUP(LEFT(E175,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E175,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J175" s="32">
@@ -16289,13 +16376,13 @@
         <v>9120331</v>
       </c>
       <c r="G176" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H176" s="32" t="s">
-        <v>1021</v>
+        <v>994</v>
       </c>
       <c r="I176" s="36" t="str">
-        <f>VLOOKUP(LEFT(E176,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E176,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J176" s="32">
@@ -16336,13 +16423,13 @@
         <v>9120332</v>
       </c>
       <c r="G177" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H177" s="32" t="s">
-        <v>1022</v>
+        <v>995</v>
       </c>
       <c r="I177" s="36" t="str">
-        <f>VLOOKUP(LEFT(E177,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E177,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J177" s="32">
@@ -16383,13 +16470,13 @@
         <v>-1</v>
       </c>
       <c r="G178" s="32" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="H178" s="32" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
       <c r="I178" s="36" t="str">
-        <f>VLOOKUP(LEFT(E178,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E178,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>消灭野怪</v>
       </c>
       <c r="J178" s="32">
@@ -16430,13 +16517,13 @@
         <v>9120402</v>
       </c>
       <c r="G179" s="32" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
       <c r="H179" s="32" t="s">
-        <v>1025</v>
+        <v>998</v>
       </c>
       <c r="I179" s="36" t="str">
-        <f>VLOOKUP(LEFT(E179,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E179,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>掠夺领地</v>
       </c>
       <c r="J179" s="32">
@@ -16475,13 +16562,13 @@
         <v>9120403</v>
       </c>
       <c r="G180" s="32" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
       <c r="H180" s="32" t="s">
-        <v>1026</v>
+        <v>999</v>
       </c>
       <c r="I180" s="36" t="str">
-        <f>VLOOKUP(LEFT(E180,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E180,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>掠夺领地</v>
       </c>
       <c r="J180" s="32">
@@ -16520,13 +16607,13 @@
         <v>-1</v>
       </c>
       <c r="G181" s="32" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
       <c r="H181" s="32" t="s">
-        <v>1027</v>
+        <v>1000</v>
       </c>
       <c r="I181" s="36" t="str">
-        <f>VLOOKUP(LEFT(E181,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E181,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>掠夺领地</v>
       </c>
       <c r="J181" s="32">
@@ -16565,13 +16652,13 @@
         <v>9120502</v>
       </c>
       <c r="G182" s="32" t="s">
-        <v>1028</v>
+        <v>1001</v>
       </c>
       <c r="H182" s="32" t="s">
-        <v>1029</v>
+        <v>1002</v>
       </c>
       <c r="I182" s="36" t="str">
-        <f>VLOOKUP(LEFT(E182,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E182,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>城镇剿匪</v>
       </c>
       <c r="J182" s="32">
@@ -16610,13 +16697,13 @@
         <v>9120503</v>
       </c>
       <c r="G183" s="32" t="s">
-        <v>1028</v>
+        <v>1001</v>
       </c>
       <c r="H183" s="32" t="s">
-        <v>1030</v>
+        <v>1003</v>
       </c>
       <c r="I183" s="36" t="str">
-        <f>VLOOKUP(LEFT(E183,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E183,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>城镇剿匪</v>
       </c>
       <c r="J183" s="32">
@@ -16655,13 +16742,13 @@
         <v>9120504</v>
       </c>
       <c r="G184" s="32" t="s">
-        <v>1028</v>
+        <v>1001</v>
       </c>
       <c r="H184" s="32" t="s">
-        <v>1031</v>
+        <v>1004</v>
       </c>
       <c r="I184" s="36" t="str">
-        <f>VLOOKUP(LEFT(E184,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E184,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>城镇剿匪</v>
       </c>
       <c r="J184" s="32">
@@ -16700,13 +16787,13 @@
         <v>9120505</v>
       </c>
       <c r="G185" s="32" t="s">
-        <v>1028</v>
+        <v>1001</v>
       </c>
       <c r="H185" s="32" t="s">
-        <v>1032</v>
+        <v>1005</v>
       </c>
       <c r="I185" s="36" t="str">
-        <f>VLOOKUP(LEFT(E185,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E185,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>城镇剿匪</v>
       </c>
       <c r="J185" s="32">
@@ -16745,13 +16832,13 @@
         <v>9120506</v>
       </c>
       <c r="G186" s="32" t="s">
-        <v>1028</v>
+        <v>1001</v>
       </c>
       <c r="H186" s="32" t="s">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="I186" s="36" t="str">
-        <f>VLOOKUP(LEFT(E186,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E186,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>城镇剿匪</v>
       </c>
       <c r="J186" s="32">
@@ -16790,13 +16877,13 @@
         <v>-1</v>
       </c>
       <c r="G187" s="32" t="s">
-        <v>1034</v>
+        <v>1007</v>
       </c>
       <c r="H187" s="32" t="s">
-        <v>1035</v>
+        <v>1008</v>
       </c>
       <c r="I187" s="36" t="str">
-        <f>VLOOKUP(LEFT(E187,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E187,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>城镇剿匪</v>
       </c>
       <c r="J187" s="32">
@@ -16835,13 +16922,13 @@
         <v>9120602</v>
       </c>
       <c r="G188" s="32" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
       <c r="H188" s="32" t="s">
-        <v>1036</v>
+        <v>1009</v>
       </c>
       <c r="I188" s="36" t="str">
-        <f>VLOOKUP(LEFT(E188,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E188,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>拆迁</v>
       </c>
       <c r="J188" s="32">
@@ -16880,13 +16967,13 @@
         <v>9120603</v>
       </c>
       <c r="G189" s="32" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
       <c r="H189" s="32" t="s">
-        <v>1037</v>
+        <v>1010</v>
       </c>
       <c r="I189" s="36" t="str">
-        <f>VLOOKUP(LEFT(E189,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E189,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>拆迁</v>
       </c>
       <c r="J189" s="32">
@@ -16925,13 +17012,13 @@
         <v>-1</v>
       </c>
       <c r="G190" s="32" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
       <c r="H190" s="32" t="s">
-        <v>1038</v>
+        <v>1011</v>
       </c>
       <c r="I190" s="36" t="str">
-        <f>VLOOKUP(LEFT(E190,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E190,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>拆迁</v>
       </c>
       <c r="J190" s="32">
@@ -16970,13 +17057,13 @@
         <v>9120702</v>
       </c>
       <c r="G191" s="32" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
       <c r="H191" s="32" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
       <c r="I191" s="36" t="str">
-        <f>VLOOKUP(LEFT(E191,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E191,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>攻城排行榜</v>
       </c>
       <c r="J191" s="32">
@@ -17015,13 +17102,13 @@
         <v>9120703</v>
       </c>
       <c r="G192" s="32" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
       <c r="H192" s="32" t="s">
-        <v>1041</v>
+        <v>1014</v>
       </c>
       <c r="I192" s="36" t="str">
-        <f>VLOOKUP(LEFT(E192,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E192,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>攻城排行榜</v>
       </c>
       <c r="J192" s="32">
@@ -17060,13 +17147,13 @@
         <v>9120704</v>
       </c>
       <c r="G193" s="32" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
       <c r="H193" s="32" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="I193" s="36" t="str">
-        <f>VLOOKUP(LEFT(E193,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E193,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>攻城排行榜</v>
       </c>
       <c r="J193" s="32">
@@ -17105,13 +17192,13 @@
         <v>9120705</v>
       </c>
       <c r="G194" s="32" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
       <c r="H194" s="32" t="s">
-        <v>1043</v>
+        <v>1016</v>
       </c>
       <c r="I194" s="36" t="str">
-        <f>VLOOKUP(LEFT(E194,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E194,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>攻城排行榜</v>
       </c>
       <c r="J194" s="32">
@@ -17150,13 +17237,13 @@
         <v>-1</v>
       </c>
       <c r="G195" s="32" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
       <c r="H195" s="32" t="s">
-        <v>1044</v>
+        <v>1017</v>
       </c>
       <c r="I195" s="36" t="str">
-        <f>VLOOKUP(LEFT(E195,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E195,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>攻城排行榜</v>
       </c>
       <c r="J195" s="32">
@@ -17195,13 +17282,13 @@
         <v>9130102</v>
       </c>
       <c r="G196" s="32" t="s">
-        <v>1045</v>
+        <v>1018</v>
       </c>
       <c r="H196" s="32" t="s">
-        <v>1046</v>
+        <v>1019</v>
       </c>
       <c r="I196" s="36" t="str">
-        <f>VLOOKUP(LEFT(E196,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E196,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>统御等级-max</v>
       </c>
       <c r="J196" s="32">
@@ -17240,13 +17327,13 @@
         <v>9130103</v>
       </c>
       <c r="G197" s="32" t="s">
-        <v>1047</v>
+        <v>1020</v>
       </c>
       <c r="H197" s="32" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="I197" s="36" t="str">
-        <f>VLOOKUP(LEFT(E197,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E197,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>统御等级-max</v>
       </c>
       <c r="J197" s="32">
@@ -17285,13 +17372,13 @@
         <v>-1</v>
       </c>
       <c r="G198" s="32" t="s">
-        <v>1047</v>
+        <v>1020</v>
       </c>
       <c r="H198" s="32" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
       <c r="I198" s="36" t="str">
-        <f>VLOOKUP(LEFT(E198,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E198,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>统御等级-max</v>
       </c>
       <c r="J198" s="32">
@@ -17330,13 +17417,13 @@
         <v>9130202</v>
       </c>
       <c r="G199" s="32" t="s">
-        <v>1047</v>
+        <v>1020</v>
       </c>
       <c r="H199" s="32" t="s">
-        <v>1050</v>
+        <v>1023</v>
       </c>
       <c r="I199" s="36" t="str">
-        <f>VLOOKUP(LEFT(E199,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E199,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>统御等级-cnt</v>
       </c>
       <c r="J199" s="32">
@@ -17377,13 +17464,13 @@
         <v>9130203</v>
       </c>
       <c r="G200" s="32" t="s">
-        <v>1047</v>
+        <v>1020</v>
       </c>
       <c r="H200" s="32" t="s">
-        <v>1051</v>
+        <v>1024</v>
       </c>
       <c r="I200" s="36" t="str">
-        <f>VLOOKUP(LEFT(E200,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E200,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>统御等级-cnt</v>
       </c>
       <c r="J200" s="32">
@@ -17424,13 +17511,13 @@
         <v>-1</v>
       </c>
       <c r="G201" s="32" t="s">
-        <v>1045</v>
+        <v>1018</v>
       </c>
       <c r="H201" s="32" t="s">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="I201" s="36" t="str">
-        <f>VLOOKUP(LEFT(E201,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E201,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>统御等级-cnt</v>
       </c>
       <c r="J201" s="32">
@@ -17471,13 +17558,13 @@
         <v>9130302</v>
       </c>
       <c r="G202" s="32" t="s">
-        <v>1053</v>
+        <v>1026</v>
       </c>
       <c r="H202" s="32" t="s">
-        <v>1054</v>
+        <v>1027</v>
       </c>
       <c r="I202" s="36" t="str">
-        <f>VLOOKUP(LEFT(E202,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E202,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>征募军力值</v>
       </c>
       <c r="J202" s="32">
@@ -17516,13 +17603,13 @@
         <v>9130303</v>
       </c>
       <c r="G203" s="32" t="s">
-        <v>1055</v>
+        <v>1028</v>
       </c>
       <c r="H203" s="32" t="s">
-        <v>1056</v>
+        <v>1029</v>
       </c>
       <c r="I203" s="36" t="str">
-        <f>VLOOKUP(LEFT(E203,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E203,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>征募军力值</v>
       </c>
       <c r="J203" s="32">
@@ -17561,13 +17648,13 @@
         <v>-1</v>
       </c>
       <c r="G204" s="32" t="s">
-        <v>1053</v>
+        <v>1026</v>
       </c>
       <c r="H204" s="32" t="s">
-        <v>1057</v>
+        <v>1030</v>
       </c>
       <c r="I204" s="36" t="str">
-        <f>VLOOKUP(LEFT(E204,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E204,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>征募军力值</v>
       </c>
       <c r="J204" s="32">
@@ -17606,13 +17693,13 @@
         <v>9140102</v>
       </c>
       <c r="G205" s="32" t="s">
-        <v>1058</v>
+        <v>1031</v>
       </c>
       <c r="H205" s="32" t="s">
-        <v>1059</v>
+        <v>1032</v>
       </c>
       <c r="I205" s="36" t="str">
-        <f>VLOOKUP(LEFT(E205,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E205,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>声望等级</v>
       </c>
       <c r="J205" s="32">
@@ -17651,13 +17738,13 @@
         <v>9140103</v>
       </c>
       <c r="G206" s="32" t="s">
-        <v>1060</v>
+        <v>1033</v>
       </c>
       <c r="H206" s="32" t="s">
-        <v>1061</v>
+        <v>1034</v>
       </c>
       <c r="I206" s="36" t="str">
-        <f>VLOOKUP(LEFT(E206,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E206,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>声望等级</v>
       </c>
       <c r="J206" s="32">
@@ -17696,13 +17783,13 @@
         <v>9140104</v>
       </c>
       <c r="G207" s="32" t="s">
-        <v>1058</v>
+        <v>1031</v>
       </c>
       <c r="H207" s="32" t="s">
-        <v>1062</v>
+        <v>1035</v>
       </c>
       <c r="I207" s="36" t="str">
-        <f>VLOOKUP(LEFT(E207,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E207,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>声望等级</v>
       </c>
       <c r="J207" s="32">
@@ -17741,13 +17828,13 @@
         <v>9140105</v>
       </c>
       <c r="G208" s="32" t="s">
-        <v>1058</v>
+        <v>1031</v>
       </c>
       <c r="H208" s="32" t="s">
-        <v>1063</v>
+        <v>1036</v>
       </c>
       <c r="I208" s="36" t="str">
-        <f>VLOOKUP(LEFT(E208,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E208,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>声望等级</v>
       </c>
       <c r="J208" s="32">
@@ -17786,13 +17873,13 @@
         <v>9140106</v>
       </c>
       <c r="G209" s="32" t="s">
-        <v>1064</v>
+        <v>1037</v>
       </c>
       <c r="H209" s="32" t="s">
-        <v>1065</v>
+        <v>1038</v>
       </c>
       <c r="I209" s="36" t="str">
-        <f>VLOOKUP(LEFT(E209,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E209,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>声望等级</v>
       </c>
       <c r="J209" s="32">
@@ -17831,13 +17918,13 @@
         <v>9140107</v>
       </c>
       <c r="G210" s="32" t="s">
-        <v>1066</v>
+        <v>1039</v>
       </c>
       <c r="H210" s="32" t="s">
-        <v>1067</v>
+        <v>1040</v>
       </c>
       <c r="I210" s="36" t="str">
-        <f>VLOOKUP(LEFT(E210,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E210,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>声望等级</v>
       </c>
       <c r="J210" s="32">
@@ -17876,13 +17963,13 @@
         <v>-1</v>
       </c>
       <c r="G211" s="32" t="s">
-        <v>1058</v>
+        <v>1031</v>
       </c>
       <c r="H211" s="32" t="s">
-        <v>1068</v>
+        <v>1041</v>
       </c>
       <c r="I211" s="36" t="str">
-        <f>VLOOKUP(LEFT(E211,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E211,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>声望等级</v>
       </c>
       <c r="J211" s="32">
@@ -17921,13 +18008,13 @@
         <v>9140202</v>
       </c>
       <c r="G212" s="32" t="s">
-        <v>1069</v>
+        <v>1042</v>
       </c>
       <c r="H212" s="32" t="s">
-        <v>1070</v>
+        <v>1043</v>
       </c>
       <c r="I212" s="36" t="str">
-        <f>VLOOKUP(LEFT(E212,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E212,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>势力值</v>
       </c>
       <c r="J212" s="32">
@@ -17966,13 +18053,13 @@
         <v>9140203</v>
       </c>
       <c r="G213" s="32" t="s">
-        <v>1069</v>
+        <v>1042</v>
       </c>
       <c r="H213" s="32" t="s">
-        <v>1071</v>
+        <v>1044</v>
       </c>
       <c r="I213" s="36" t="str">
-        <f>VLOOKUP(LEFT(E213,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E213,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>势力值</v>
       </c>
       <c r="J213" s="32">
@@ -18011,13 +18098,13 @@
         <v>9140204</v>
       </c>
       <c r="G214" s="32" t="s">
-        <v>1072</v>
+        <v>1045</v>
       </c>
       <c r="H214" s="32" t="s">
-        <v>1073</v>
+        <v>1046</v>
       </c>
       <c r="I214" s="36" t="str">
-        <f>VLOOKUP(LEFT(E214,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E214,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>势力值</v>
       </c>
       <c r="J214" s="32">
@@ -18056,13 +18143,13 @@
         <v>9140205</v>
       </c>
       <c r="G215" s="32" t="s">
-        <v>1072</v>
+        <v>1045</v>
       </c>
       <c r="H215" s="32" t="s">
-        <v>1074</v>
+        <v>1047</v>
       </c>
       <c r="I215" s="36" t="str">
-        <f>VLOOKUP(LEFT(E215,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E215,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>势力值</v>
       </c>
       <c r="J215" s="32">
@@ -18101,13 +18188,13 @@
         <v>9140206</v>
       </c>
       <c r="G216" s="32" t="s">
-        <v>1072</v>
+        <v>1045</v>
       </c>
       <c r="H216" s="32" t="s">
-        <v>1075</v>
+        <v>1048</v>
       </c>
       <c r="I216" s="36" t="str">
-        <f>VLOOKUP(LEFT(E216,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E216,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>势力值</v>
       </c>
       <c r="J216" s="32">
@@ -18146,13 +18233,13 @@
         <v>9140207</v>
       </c>
       <c r="G217" s="32" t="s">
-        <v>1069</v>
+        <v>1042</v>
       </c>
       <c r="H217" s="32" t="s">
-        <v>1076</v>
+        <v>1049</v>
       </c>
       <c r="I217" s="36" t="str">
-        <f>VLOOKUP(LEFT(E217,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E217,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>势力值</v>
       </c>
       <c r="J217" s="32">
@@ -18191,13 +18278,13 @@
         <v>9140208</v>
       </c>
       <c r="G218" s="32" t="s">
-        <v>1069</v>
+        <v>1042</v>
       </c>
       <c r="H218" s="32" t="s">
-        <v>1077</v>
+        <v>1050</v>
       </c>
       <c r="I218" s="36" t="str">
-        <f>VLOOKUP(LEFT(E218,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E218,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>势力值</v>
       </c>
       <c r="J218" s="32">
@@ -18236,13 +18323,13 @@
         <v>9140209</v>
       </c>
       <c r="G219" s="32" t="s">
-        <v>1069</v>
+        <v>1042</v>
       </c>
       <c r="H219" s="32" t="s">
-        <v>1078</v>
+        <v>1051</v>
       </c>
       <c r="I219" s="36" t="str">
-        <f>VLOOKUP(LEFT(E219,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E219,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>势力值</v>
       </c>
       <c r="J219" s="32">
@@ -18281,13 +18368,13 @@
         <v>9140210</v>
       </c>
       <c r="G220" s="32" t="s">
-        <v>1069</v>
+        <v>1042</v>
       </c>
       <c r="H220" s="32" t="s">
-        <v>1079</v>
+        <v>1052</v>
       </c>
       <c r="I220" s="36" t="str">
-        <f>VLOOKUP(LEFT(E220,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E220,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>势力值</v>
       </c>
       <c r="J220" s="32">
@@ -18326,13 +18413,13 @@
         <v>-1</v>
       </c>
       <c r="G221" s="32" t="s">
-        <v>1069</v>
+        <v>1042</v>
       </c>
       <c r="H221" s="32" t="s">
-        <v>1080</v>
+        <v>1053</v>
       </c>
       <c r="I221" s="36" t="str">
-        <f>VLOOKUP(LEFT(E221,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E221,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>势力值</v>
       </c>
       <c r="J221" s="32">
@@ -18371,13 +18458,13 @@
         <v>9150102</v>
       </c>
       <c r="G222" s="32" t="s">
-        <v>1081</v>
+        <v>1054</v>
       </c>
       <c r="H222" s="32" t="s">
-        <v>1082</v>
+        <v>1055</v>
       </c>
       <c r="I222" s="36" t="str">
-        <f>VLOOKUP(LEFT(E222,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E222,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>个人联盟总贡献</v>
       </c>
       <c r="J222" s="32">
@@ -18416,13 +18503,13 @@
         <v>9150103</v>
       </c>
       <c r="G223" s="32" t="s">
-        <v>1081</v>
+        <v>1054</v>
       </c>
       <c r="H223" s="32" t="s">
-        <v>1083</v>
+        <v>1056</v>
       </c>
       <c r="I223" s="36" t="str">
-        <f>VLOOKUP(LEFT(E223,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E223,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>个人联盟总贡献</v>
       </c>
       <c r="J223" s="32">
@@ -18461,13 +18548,13 @@
         <v>9150104</v>
       </c>
       <c r="G224" s="32" t="s">
-        <v>1081</v>
+        <v>1054</v>
       </c>
       <c r="H224" s="32" t="s">
-        <v>1084</v>
+        <v>1057</v>
       </c>
       <c r="I224" s="36" t="str">
-        <f>VLOOKUP(LEFT(E224,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E224,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>个人联盟总贡献</v>
       </c>
       <c r="J224" s="32">
@@ -18506,13 +18593,13 @@
         <v>-1</v>
       </c>
       <c r="G225" s="32" t="s">
-        <v>1081</v>
+        <v>1054</v>
       </c>
       <c r="H225" s="32" t="s">
-        <v>1085</v>
+        <v>1058</v>
       </c>
       <c r="I225" s="36" t="str">
-        <f>VLOOKUP(LEFT(E225,5)-1000,成就条件类型!$A$123:$B$146,2,FALSE)</f>
+        <f>VLOOKUP(LEFT(E225,5)-1000,成就条件类型!$A$129:$B$152,2,FALSE)</f>
         <v>个人联盟总贡献</v>
       </c>
       <c r="J225" s="32">
@@ -18564,7 +18651,7 @@
         <v>218</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>1086</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -18572,7 +18659,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -18592,7 +18679,7 @@
         <v>221</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>1087</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -18761,7 +18848,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18943,7 +19030,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19027,7 +19114,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19041,7 +19128,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>1088</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19055,7 +19142,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1089</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19069,7 +19156,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>1090</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19083,7 +19170,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19097,7 +19184,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1092</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -20396,10 +20483,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20427,7 +20514,7 @@
         <v>243</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>551</v>
@@ -20467,7 +20554,7 @@
         <v>249</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>552</v>
@@ -20478,7 +20565,7 @@
         <v>1010101</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C4" t="s">
         <v>613</v>
@@ -20495,7 +20582,7 @@
         <v>1010102</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C5" t="s">
         <v>479</v>
@@ -20515,13 +20602,13 @@
         <v>1010103</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C6" t="s">
         <v>614</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" t="s">
@@ -20539,10 +20626,10 @@
         <v>1010104</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D7" t="s">
         <v>616</v>
@@ -20562,19 +20649,19 @@
         <v>1010105</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>857</v>
+        <v>1078</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>614</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>860</v>
+        <v>835</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>859</v>
+        <v>834</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>861</v>
+        <v>836</v>
       </c>
       <c r="I8">
         <v>1010101</v>
@@ -20613,8 +20700,8 @@
       <c r="A10">
         <v>1010202</v>
       </c>
-      <c r="B10" t="s">
-        <v>620</v>
+      <c r="B10" s="14" t="s">
+        <v>1076</v>
       </c>
       <c r="C10" t="s">
         <v>479</v>
@@ -20637,13 +20724,13 @@
         <v>1010203</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>811</v>
+        <v>1080</v>
       </c>
       <c r="C11" t="s">
         <v>614</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" t="s">
@@ -20661,16 +20748,16 @@
         <v>1010204</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D12" t="s">
         <v>616</v>
       </c>
       <c r="F12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I12">
         <v>10102</v>
@@ -20684,7 +20771,7 @@
         <v>1010301</v>
       </c>
       <c r="B13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C13" t="s">
         <v>613</v>
@@ -20730,13 +20817,13 @@
         <v>1010303</v>
       </c>
       <c r="B15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C15" t="s">
         <v>614</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" t="s">
@@ -20757,16 +20844,16 @@
         <v>1010304</v>
       </c>
       <c r="B16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D16" t="s">
         <v>616</v>
       </c>
       <c r="F16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I16">
         <v>1010204</v>
@@ -20780,7 +20867,7 @@
         <v>1010401</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>801</v>
+        <v>1092</v>
       </c>
       <c r="C17" t="s">
         <v>613</v>
@@ -20800,10 +20887,10 @@
         <v>1010402</v>
       </c>
       <c r="B18" t="s">
+        <v>625</v>
+      </c>
+      <c r="C18" t="s">
         <v>626</v>
-      </c>
-      <c r="C18" t="s">
-        <v>627</v>
       </c>
       <c r="F18" t="s">
         <v>479</v>
@@ -20824,13 +20911,13 @@
         <v>1010403</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>614</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
@@ -20852,7 +20939,7 @@
         <v>1010404</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>614</v>
@@ -20860,7 +20947,7 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="21" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="G20" s="19"/>
       <c r="I20">
@@ -20878,17 +20965,17 @@
         <v>1010405</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>614</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="21" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21"/>
@@ -20907,7 +20994,7 @@
         <v>1010501</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C22" s="19">
         <v>1</v>
@@ -20929,14 +21016,14 @@
       <c r="A23" s="19">
         <v>1010502</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>629</v>
+      <c r="B23" s="21" t="s">
+        <v>1079</v>
       </c>
       <c r="C23" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>628</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>630</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -20955,13 +21042,13 @@
         <v>1010503</v>
       </c>
       <c r="B24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I24">
         <v>1010402</v>
@@ -20978,13 +21065,13 @@
         <v>1010504</v>
       </c>
       <c r="B25" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I25">
         <v>1010403</v>
@@ -21001,13 +21088,13 @@
         <v>1010505</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="C26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F26" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I26">
         <v>10105</v>
@@ -21021,13 +21108,13 @@
         <v>1010506</v>
       </c>
       <c r="B27" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D27" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -21048,13 +21135,13 @@
         <v>1010507</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>809</v>
+        <v>701</v>
       </c>
       <c r="C28" t="s">
-        <v>628</v>
-      </c>
-      <c r="D28" t="s">
-        <v>636</v>
+        <v>627</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>1098</v>
       </c>
       <c r="I28">
         <v>1010502</v>
@@ -21068,7 +21155,7 @@
         <v>1020101</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>788</v>
+        <v>1091</v>
       </c>
       <c r="C29" t="s">
         <v>615</v>
@@ -21088,7 +21175,7 @@
         <v>1020201</v>
       </c>
       <c r="B30" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C30" t="s">
         <v>613</v>
@@ -21105,7 +21192,7 @@
         <v>1020202</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="C31" t="s">
         <v>615</v>
@@ -21125,13 +21212,13 @@
         <v>1020203</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="C32" t="s">
         <v>614</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>791</v>
+        <v>1099</v>
       </c>
       <c r="I32">
         <v>10202</v>
@@ -21145,7 +21232,7 @@
         <v>1020204</v>
       </c>
       <c r="B33" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C33" t="s">
         <v>615</v>
@@ -21171,7 +21258,7 @@
         <v>600</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
@@ -21184,23 +21271,23 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19">
+      <c r="A35" s="39">
         <v>1020206</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>793</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>790</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>794</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>795</v>
+      <c r="B35" s="40" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>779</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>781</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>782</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -21213,18 +21300,21 @@
       <c r="K35"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
-        <v>1030101</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>640</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="39">
+        <v>1020207</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>779</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>1100</v>
+      </c>
       <c r="I36">
         <v>1020204</v>
       </c>
@@ -21233,15 +21323,18 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1030102</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" t="s">
-        <v>615</v>
-      </c>
+      <c r="A37" s="19">
+        <v>1030101</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>638</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
       <c r="I37">
         <v>103</v>
       </c>
@@ -21251,18 +21344,16 @@
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1030103</v>
+        <v>1030102</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>736</v>
+        <v>511</v>
       </c>
       <c r="C38" t="s">
-        <v>614</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="E38" s="14"/>
+        <v>615</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
@@ -21276,14 +21367,18 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1030104</v>
-      </c>
-      <c r="B39" t="s">
-        <v>641</v>
+        <v>1030103</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>730</v>
       </c>
       <c r="C39" t="s">
-        <v>615</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="E39" s="14"/>
       <c r="I39">
         <v>1030101</v>
       </c>
@@ -21293,13 +21388,13 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1030105</v>
+        <v>1030104</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>753</v>
+        <v>1067</v>
       </c>
       <c r="C40" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -21316,13 +21411,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1030201</v>
+        <v>1030105</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>797</v>
+        <v>747</v>
       </c>
       <c r="C41" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="I41">
         <v>1030103</v>
@@ -21332,15 +21427,22 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1030202</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>796</v>
-      </c>
-      <c r="C42" t="s">
-        <v>615</v>
-      </c>
+      <c r="A42" s="40">
+        <v>1030106</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F42" s="40"/>
       <c r="I42">
         <v>1030104</v>
       </c>
@@ -21349,18 +21451,20 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1030203</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>833</v>
-      </c>
-      <c r="C43" t="s">
-        <v>614</v>
-      </c>
-      <c r="D43" t="s">
-        <v>615</v>
-      </c>
+      <c r="A43" s="39">
+        <v>1030107</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
       <c r="I43">
         <v>10302</v>
       </c>
@@ -21369,18 +21473,20 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1030204</v>
-      </c>
-      <c r="B44" t="s">
-        <v>642</v>
-      </c>
-      <c r="C44" t="s">
-        <v>615</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
+      <c r="A44" s="39">
+        <v>1030108</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
       <c r="I44">
         <v>1030201</v>
       </c>
@@ -21389,20 +21495,18 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="19">
-        <v>1030205</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>832</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>830</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>831</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="39">
+        <v>1030109</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
       <c r="I45">
         <v>1030202</v>
       </c>
@@ -21411,18 +21515,15 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="17">
-        <v>1030205</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="A46">
+        <v>1030201</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="C46" t="s">
+        <v>613</v>
+      </c>
       <c r="I46">
         <v>1030203</v>
       </c>
@@ -21432,16 +21533,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1030301</v>
-      </c>
-      <c r="B47" t="s">
-        <v>644</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>19</v>
+        <v>1030202</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="C47" t="s">
+        <v>615</v>
       </c>
       <c r="I47">
         <v>1030204</v>
@@ -21451,18 +21549,18 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="19">
-        <v>1030302</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="C48" s="19" t="s">
+      <c r="A48">
+        <v>1030203</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="C48" t="s">
         <v>614</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="D48" t="s">
+        <v>615</v>
+      </c>
       <c r="I48">
         <v>104</v>
       </c>
@@ -21471,20 +21569,18 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="19">
-        <v>1030303</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>735</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49">
+        <v>1030204</v>
+      </c>
+      <c r="B49" t="s">
+        <v>639</v>
+      </c>
+      <c r="C49" t="s">
+        <v>615</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
       <c r="I49">
         <v>10401</v>
       </c>
@@ -21494,16 +21590,16 @@
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
-        <v>1040101</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="C50" s="19">
-        <v>1</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>19</v>
+        <v>1030205</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>814</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>812</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>813</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
@@ -21518,20 +21614,18 @@
       <c r="K50"/>
     </row>
     <row r="51" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19">
-        <v>1040102</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>722</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="A51" s="17">
+        <v>1030205</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51">
@@ -21543,18 +21637,20 @@
       <c r="K51"/>
     </row>
     <row r="52" spans="1:11" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19">
-        <v>1040103</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>800</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="A52">
+        <v>1030301</v>
+      </c>
+      <c r="B52" t="s">
+        <v>641</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52">
@@ -21567,21 +21663,17 @@
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
-        <v>1040104</v>
+        <v>1030302</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>799</v>
+        <v>572</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="D53" s="21" t="s">
-        <v>720</v>
-      </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21" t="s">
-        <v>721</v>
-      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53">
@@ -21594,23 +21686,19 @@
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
-        <v>1040105</v>
+        <v>1030303</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>743</v>
-      </c>
-      <c r="C54" s="19">
-        <v>1</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>720</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>744</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>746</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54">
@@ -21623,19 +21711,19 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
-        <v>1040201</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>864</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>815</v>
-      </c>
-      <c r="D55" s="19"/>
+        <v>1040101</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="C55" s="19">
+        <v>1</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="E55" s="19"/>
-      <c r="F55" s="21" t="s">
-        <v>867</v>
-      </c>
+      <c r="F55" s="19"/>
       <c r="I55">
         <v>1040202</v>
       </c>
@@ -21645,19 +21733,19 @@
     </row>
     <row r="56" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
-        <v>1040202</v>
+        <v>1040102</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>865</v>
+        <v>716</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="D56" s="19"/>
+        <v>614</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>634</v>
+      </c>
       <c r="E56" s="19"/>
-      <c r="F56" s="21" t="s">
-        <v>868</v>
-      </c>
+      <c r="F56" s="19"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56">
@@ -21670,21 +21758,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
-        <v>1040203</v>
+        <v>1040103</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>814</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>813</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="D57" s="19"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="21" t="s">
-        <v>869</v>
-      </c>
+      <c r="F57" s="19"/>
       <c r="I57">
         <v>1040204</v>
       </c>
@@ -21694,19 +21778,21 @@
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
-        <v>1040204</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>646</v>
+        <v>1040104</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>785</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="D58" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="D58" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21" t="s">
+        <v>715</v>
+      </c>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58">
@@ -21719,17 +21805,23 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
-        <v>1040301</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+        <v>1040105</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="C59" s="19">
+        <v>1</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>740</v>
+      </c>
       <c r="I59">
         <v>1040301</v>
       </c>
@@ -21739,17 +21831,19 @@
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
-        <v>1040302</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>613</v>
+        <v>1040201</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>838</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>797</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="F60" s="21" t="s">
+        <v>840</v>
+      </c>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60">
@@ -21762,19 +21856,19 @@
     </row>
     <row r="61" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
-        <v>1040303</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>814</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>813</v>
-      </c>
+        <v>1040202</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="D61" s="19"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
+      <c r="F61" s="21" t="s">
+        <v>841</v>
+      </c>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61">
@@ -21786,20 +21880,22 @@
       <c r="K61"/>
     </row>
     <row r="62" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>1040304</v>
-      </c>
-      <c r="B62" t="s">
-        <v>650</v>
-      </c>
-      <c r="C62" t="s">
-        <v>614</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62"/>
+      <c r="A62" s="19">
+        <v>1040203</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="21" t="s">
+        <v>842</v>
+      </c>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62">
@@ -21811,18 +21907,20 @@
       <c r="K62"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="18">
-        <v>1040401</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="C63" s="18" t="s">
+      <c r="A63" s="19">
+        <v>1040204</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
+      <c r="D63" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
       <c r="I63">
         <v>10404</v>
       </c>
@@ -21832,17 +21930,15 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
-        <v>1040501</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>819</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>816</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>817</v>
-      </c>
+        <v>1040301</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="I64">
@@ -21854,17 +21950,15 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
-        <v>1040502</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>818</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>816</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>813</v>
-      </c>
+        <v>1040302</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="I65">
@@ -21875,15 +21969,20 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1050101</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>781</v>
-      </c>
-      <c r="C66" t="s">
-        <v>615</v>
-      </c>
+      <c r="A66" s="19">
+        <v>1040303</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
       <c r="I66">
         <v>1050101</v>
       </c>
@@ -21892,21 +21991,17 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="23">
-        <v>1060101</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>839</v>
-      </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="18" t="s">
-        <v>862</v>
+      <c r="A67">
+        <v>1040304</v>
+      </c>
+      <c r="B67" t="s">
+        <v>647</v>
+      </c>
+      <c r="C67" t="s">
+        <v>614</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
       </c>
       <c r="I67">
         <v>20</v>
@@ -21916,23 +22011,14 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="23">
-        <v>1060102</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>851</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>853</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>854</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>863</v>
+      <c r="A68">
+        <v>1040401</v>
+      </c>
+      <c r="B68" t="s">
+        <v>816</v>
+      </c>
+      <c r="C68" t="s">
+        <v>614</v>
       </c>
       <c r="I68">
         <v>201</v>
@@ -21942,20 +22028,20 @@
       </c>
     </row>
     <row r="69" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23">
-        <v>1060103</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="18" t="s">
-        <v>855</v>
-      </c>
+      <c r="A69" s="19">
+        <v>1040501</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69">
@@ -21967,20 +22053,20 @@
       <c r="K69"/>
     </row>
     <row r="70" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="23">
-        <v>1060201</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>840</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>845</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18" t="s">
-        <v>848</v>
-      </c>
+      <c r="A70" s="19">
+        <v>1040502</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>800</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70">
@@ -21992,19 +22078,14 @@
       <c r="K70"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="23">
-        <v>1060202</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>842</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>846</v>
-      </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18" t="s">
-        <v>849</v>
+      <c r="A71">
+        <v>1050101</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="C71" t="s">
+        <v>615</v>
       </c>
       <c r="I71">
         <v>202</v>
@@ -22014,21 +22095,21 @@
       </c>
     </row>
     <row r="72" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="23">
-        <v>1060203</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>841</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="18" t="s">
-        <v>850</v>
+      <c r="A72">
+        <v>1060101</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="C72" t="s">
+        <v>824</v>
+      </c>
+      <c r="D72" t="s">
+        <v>820</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>837</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
@@ -22041,20 +22122,23 @@
       <c r="K72"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2010101</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="C73" t="s">
-        <v>614</v>
-      </c>
-      <c r="D73" t="s">
-        <v>651</v>
-      </c>
-      <c r="F73" t="s">
-        <v>652</v>
+      <c r="A73" s="23">
+        <v>1060102</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>1082</v>
       </c>
       <c r="I73">
         <v>2020102</v>
@@ -22065,19 +22149,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2010102</v>
-      </c>
-      <c r="B74" t="s">
-        <v>602</v>
+        <v>1060103</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>1086</v>
       </c>
       <c r="C74" t="s">
-        <v>614</v>
-      </c>
-      <c r="D74" t="s">
-        <v>653</v>
+        <v>825</v>
       </c>
       <c r="F74" t="s">
-        <v>654</v>
+        <v>1081</v>
       </c>
       <c r="I74">
         <v>2020103</v>
@@ -22087,17 +22168,21 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>2010103</v>
-      </c>
-      <c r="B75" t="s">
-        <v>655</v>
-      </c>
-      <c r="C75" t="s">
-        <v>614</v>
-      </c>
-      <c r="F75" t="s">
-        <v>656</v>
+      <c r="A75" s="39">
+        <v>1060103</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>706</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E75" s="39"/>
+      <c r="F75" s="40" t="s">
+        <v>1105</v>
       </c>
       <c r="I75">
         <v>203</v>
@@ -22108,13 +22193,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2020101</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>762</v>
+        <v>1060201</v>
+      </c>
+      <c r="B76" t="s">
+        <v>821</v>
       </c>
       <c r="C76" t="s">
-        <v>613</v>
+        <v>826</v>
+      </c>
+      <c r="F76" t="s">
+        <v>829</v>
       </c>
       <c r="I76">
         <v>2030101</v>
@@ -22125,16 +22213,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2020102</v>
+        <v>1060202</v>
       </c>
       <c r="B77" t="s">
-        <v>657</v>
+        <v>823</v>
       </c>
       <c r="C77" t="s">
-        <v>613</v>
+        <v>827</v>
       </c>
       <c r="F77" t="s">
-        <v>406</v>
+        <v>830</v>
       </c>
       <c r="I77">
         <v>2030102</v>
@@ -22145,19 +22233,19 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2030101</v>
+        <v>1060203</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="C78" t="s">
-        <v>658</v>
+        <v>824</v>
       </c>
       <c r="D78" t="s">
-        <v>651</v>
+        <v>828</v>
       </c>
       <c r="F78" t="s">
-        <v>659</v>
+        <v>831</v>
       </c>
       <c r="I78">
         <v>2030103</v>
@@ -22168,20 +22256,20 @@
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2030102</v>
+        <v>2010101</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>823</v>
+        <v>775</v>
       </c>
       <c r="C79" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="D79" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>713</v>
+        <v>649</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
@@ -22193,22 +22281,21 @@
       </c>
       <c r="K79"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="22">
-        <v>2040101</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>822</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>820</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22" t="s">
-        <v>821</v>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2010102</v>
+      </c>
+      <c r="B80" t="s">
+        <v>602</v>
+      </c>
+      <c r="C80" t="s">
+        <v>614</v>
+      </c>
+      <c r="D80" t="s">
+        <v>650</v>
+      </c>
+      <c r="F80" t="s">
+        <v>651</v>
       </c>
       <c r="I80">
         <v>2040101</v>
@@ -22219,19 +22306,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2040102</v>
+        <v>2010103</v>
       </c>
       <c r="B81" t="s">
-        <v>661</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
+        <v>652</v>
+      </c>
+      <c r="C81" t="s">
+        <v>614</v>
+      </c>
+      <c r="F81" t="s">
         <v>653</v>
-      </c>
-      <c r="F81" t="s">
-        <v>662</v>
       </c>
       <c r="I81">
         <v>2040102</v>
@@ -22242,17 +22326,14 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2040201</v>
+        <v>2020101</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>786</v>
+        <v>1085</v>
       </c>
       <c r="C82" t="s">
         <v>613</v>
       </c>
-      <c r="F82" t="s">
-        <v>663</v>
-      </c>
       <c r="I82">
         <v>2040201</v>
       </c>
@@ -22262,16 +22343,16 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2040301</v>
+        <v>2020102</v>
       </c>
       <c r="B83" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C83" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
       <c r="F83" t="s">
-        <v>167</v>
+        <v>406</v>
       </c>
       <c r="I83">
         <v>30</v>
@@ -22282,16 +22363,19 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>3010101</v>
+        <v>2030101</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>798</v>
+        <v>1093</v>
       </c>
       <c r="C84" t="s">
-        <v>666</v>
+        <v>655</v>
+      </c>
+      <c r="D84" t="s">
+        <v>648</v>
       </c>
       <c r="F84" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="I84">
         <v>301</v>
@@ -22302,16 +22386,19 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>3010201</v>
+        <v>2030102</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>757</v>
+        <v>805</v>
       </c>
       <c r="C85" t="s">
-        <v>613</v>
+        <v>655</v>
+      </c>
+      <c r="D85" t="s">
+        <v>648</v>
       </c>
       <c r="F85" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="I85">
         <v>3010101</v>
@@ -22320,18 +22407,22 @@
         <v>463</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>3010202</v>
-      </c>
-      <c r="B86" t="s">
-        <v>754</v>
-      </c>
-      <c r="C86" t="s">
-        <v>613</v>
-      </c>
-      <c r="F86" t="s">
-        <v>669</v>
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="22">
+        <v>2040101</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22" t="s">
+        <v>803</v>
       </c>
       <c r="I86">
         <v>302</v>
@@ -22342,16 +22433,19 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>3010203</v>
+        <v>2040102</v>
       </c>
       <c r="B87" t="s">
-        <v>610</v>
-      </c>
-      <c r="C87" t="s">
-        <v>613</v>
+        <v>658</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>650</v>
       </c>
       <c r="F87" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="I87">
         <v>3010201</v>
@@ -22362,13 +22456,16 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>3020101</v>
+        <v>2040201</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>760</v>
+        <v>776</v>
+      </c>
+      <c r="C88" t="s">
+        <v>613</v>
+      </c>
+      <c r="F88" t="s">
+        <v>660</v>
       </c>
       <c r="I88">
         <v>3010202</v>
@@ -22379,24 +22476,30 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>3020201</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>758</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>761</v>
+        <v>2040301</v>
+      </c>
+      <c r="B89" t="s">
+        <v>661</v>
+      </c>
+      <c r="C89" t="s">
+        <v>662</v>
+      </c>
+      <c r="F89" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>3020202</v>
+        <v>3010101</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>755</v>
+        <v>463</v>
       </c>
       <c r="C90" t="s">
-        <v>613</v>
+        <v>663</v>
+      </c>
+      <c r="F90" t="s">
+        <v>664</v>
       </c>
       <c r="I90">
         <v>40</v>
@@ -22407,14 +22510,17 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>3020203</v>
+        <v>3010201</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>756</v>
+        <v>1077</v>
       </c>
       <c r="C91" t="s">
         <v>613</v>
       </c>
+      <c r="F91" t="s">
+        <v>665</v>
+      </c>
       <c r="I91">
         <v>401</v>
       </c>
@@ -22424,16 +22530,16 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>4010101</v>
+        <v>3010202</v>
       </c>
       <c r="B92" t="s">
-        <v>671</v>
+        <v>748</v>
       </c>
       <c r="C92" t="s">
         <v>613</v>
       </c>
       <c r="F92" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="I92">
         <v>4010101</v>
@@ -22444,19 +22550,16 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>4010102</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>544</v>
+        <v>3010203</v>
+      </c>
+      <c r="B93" t="s">
+        <v>610</v>
       </c>
       <c r="C93" t="s">
         <v>613</v>
       </c>
-      <c r="D93" t="s">
-        <v>673</v>
-      </c>
       <c r="F93" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="I93">
         <v>4010102</v>
@@ -22467,19 +22570,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>4010103</v>
-      </c>
-      <c r="B94" t="s">
-        <v>675</v>
-      </c>
-      <c r="C94" t="s">
-        <v>613</v>
-      </c>
-      <c r="D94" t="s">
-        <v>676</v>
-      </c>
-      <c r="F94" t="s">
-        <v>677</v>
+        <v>3020101</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>751</v>
       </c>
       <c r="I94">
         <v>4010103</v>
@@ -22489,21 +22586,14 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="19">
-        <v>4010104</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>827</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>824</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>825</v>
-      </c>
-      <c r="E95" s="19"/>
-      <c r="F95" s="21" t="s">
-        <v>826</v>
+      <c r="A95">
+        <v>3020201</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>752</v>
       </c>
       <c r="I95">
         <v>402</v>
@@ -22513,21 +22603,14 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="23">
-        <v>4010105</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>837</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="18" t="s">
-        <v>858</v>
+      <c r="A96">
+        <v>3020202</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="C96" t="s">
+        <v>613</v>
       </c>
       <c r="I96">
         <v>4020101</v>
@@ -22538,10 +22621,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>4020101</v>
-      </c>
-      <c r="B97" t="s">
-        <v>678</v>
+        <v>3020203</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>750</v>
       </c>
       <c r="C97" t="s">
         <v>613</v>
@@ -22555,16 +22638,16 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>4030101</v>
-      </c>
-      <c r="B98" t="s">
-        <v>679</v>
+        <v>4010101</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>1066</v>
       </c>
       <c r="C98" t="s">
-        <v>614</v>
-      </c>
-      <c r="D98" t="s">
-        <v>680</v>
+        <v>613</v>
+      </c>
+      <c r="F98" t="s">
+        <v>668</v>
       </c>
       <c r="I98">
         <v>4030101</v>
@@ -22575,16 +22658,19 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>4030102</v>
+        <v>4010102</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>835</v>
+        <v>544</v>
       </c>
       <c r="C99" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D99" t="s">
-        <v>681</v>
+        <v>669</v>
+      </c>
+      <c r="F99" t="s">
+        <v>670</v>
       </c>
       <c r="I99">
         <v>404</v>
@@ -22595,19 +22681,19 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>4030201</v>
-      </c>
-      <c r="B100" t="s">
-        <v>682</v>
+        <v>4010103</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>1083</v>
       </c>
       <c r="C100" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D100" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="F100" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="I100">
         <v>4040101</v>
@@ -22617,20 +22703,21 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>4030202</v>
-      </c>
-      <c r="B101" t="s">
-        <v>684</v>
-      </c>
-      <c r="C101" t="s">
-        <v>614</v>
-      </c>
-      <c r="D101" t="s">
-        <v>681</v>
-      </c>
-      <c r="F101" t="s">
-        <v>683</v>
+      <c r="A101" s="19">
+        <v>4010104</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>806</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="21" t="s">
+        <v>808</v>
       </c>
       <c r="I101">
         <v>405</v>
@@ -22641,16 +22728,19 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>4040101</v>
+        <v>4010105</v>
       </c>
       <c r="B102" t="s">
-        <v>685</v>
+        <v>1087</v>
       </c>
       <c r="C102" t="s">
-        <v>614</v>
+        <v>818</v>
       </c>
       <c r="D102" t="s">
-        <v>680</v>
+        <v>676</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1088</v>
       </c>
       <c r="I102">
         <v>4050101</v>
@@ -22661,16 +22751,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>4040102</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>810</v>
+        <v>4020101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>673</v>
       </c>
       <c r="C103" t="s">
-        <v>614</v>
-      </c>
-      <c r="D103" t="s">
-        <v>681</v>
+        <v>613</v>
       </c>
       <c r="I103">
         <v>4050102</v>
@@ -22681,16 +22768,16 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>4050102</v>
+        <v>4030101</v>
       </c>
       <c r="B104" t="s">
-        <v>686</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
+        <v>674</v>
+      </c>
+      <c r="C104" t="s">
+        <v>614</v>
       </c>
       <c r="D104" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="I104">
         <v>406</v>
@@ -22701,16 +22788,16 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>4060101</v>
-      </c>
-      <c r="B105" t="s">
-        <v>688</v>
+        <v>4030102</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>817</v>
       </c>
       <c r="C105" t="s">
-        <v>613</v>
-      </c>
-      <c r="F105" t="s">
-        <v>689</v>
+        <v>614</v>
+      </c>
+      <c r="D105" t="s">
+        <v>676</v>
       </c>
       <c r="I105">
         <v>4060101</v>
@@ -22721,16 +22808,19 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>4060102</v>
+        <v>4030201</v>
       </c>
       <c r="B106" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C106" t="s">
-        <v>613</v>
+        <v>614</v>
+      </c>
+      <c r="D106" t="s">
+        <v>675</v>
       </c>
       <c r="F106" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="I106">
         <v>4060102</v>
@@ -22741,16 +22831,19 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>4060103</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>710</v>
+        <v>4030202</v>
+      </c>
+      <c r="B107" t="s">
+        <v>679</v>
       </c>
       <c r="C107" t="s">
-        <v>613</v>
+        <v>614</v>
+      </c>
+      <c r="D107" t="s">
+        <v>676</v>
       </c>
       <c r="F107" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="I107">
         <v>4060103</v>
@@ -22761,19 +22854,16 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>4060104</v>
+        <v>4040101</v>
       </c>
       <c r="B108" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C108" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D108" t="s">
-        <v>636</v>
-      </c>
-      <c r="F108" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="I108">
         <v>4060104</v>
@@ -22784,19 +22874,16 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>4060105</v>
+        <v>4040102</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>828</v>
+        <v>793</v>
       </c>
       <c r="C109" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D109" t="s">
-        <v>636</v>
-      </c>
-      <c r="F109" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="I109">
         <v>4060105</v>
@@ -22807,18 +22894,17 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>4060106</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>740</v>
-      </c>
-      <c r="C110" t="s">
-        <v>613</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="E110" s="14"/>
+        <v>4050102</v>
+      </c>
+      <c r="B110" t="s">
+        <v>681</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>682</v>
+      </c>
       <c r="I110">
         <v>407</v>
       </c>
@@ -22828,16 +22914,16 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>4070101</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111" t="s">
-        <v>696</v>
+        <v>4060101</v>
+      </c>
+      <c r="B111" t="s">
+        <v>683</v>
+      </c>
+      <c r="C111" t="s">
+        <v>613</v>
+      </c>
+      <c r="F111" t="s">
+        <v>684</v>
       </c>
       <c r="I111">
         <v>4070101</v>
@@ -22848,14 +22934,17 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>4080101</v>
+        <v>4060102</v>
       </c>
       <c r="B112" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="C112" t="s">
         <v>613</v>
       </c>
+      <c r="F112" t="s">
+        <v>686</v>
+      </c>
       <c r="I112">
         <v>408</v>
       </c>
@@ -22865,13 +22954,16 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>4090101</v>
+        <v>4060103</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>829</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
+        <v>704</v>
+      </c>
+      <c r="C113" t="s">
+        <v>613</v>
+      </c>
+      <c r="F113" t="s">
+        <v>687</v>
       </c>
       <c r="I113">
         <v>4080101</v>
@@ -22882,14 +22974,20 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>4090102</v>
+        <v>4060104</v>
       </c>
       <c r="B114" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C114" t="s">
         <v>613</v>
       </c>
+      <c r="D114" t="s">
+        <v>634</v>
+      </c>
+      <c r="F114" t="s">
+        <v>689</v>
+      </c>
       <c r="I114">
         <v>50</v>
       </c>
@@ -22899,14 +22997,20 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>4090103</v>
+        <v>4060105</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>716</v>
+        <v>810</v>
       </c>
       <c r="C115" t="s">
         <v>613</v>
       </c>
+      <c r="D115" t="s">
+        <v>634</v>
+      </c>
+      <c r="F115" t="s">
+        <v>690</v>
+      </c>
       <c r="I115">
         <v>501</v>
       </c>
@@ -22916,11 +23020,18 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>4100101</v>
-      </c>
-      <c r="B116" t="s">
-        <v>699</v>
-      </c>
+        <v>4060106</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="C116" t="s">
+        <v>613</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="E116" s="14"/>
       <c r="I116">
         <v>5010101</v>
       </c>
@@ -22930,438 +23041,504 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>4100102</v>
-      </c>
-      <c r="B117" t="s">
-        <v>700</v>
+        <v>4070101</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>4110101</v>
-      </c>
-      <c r="B118" t="s">
-        <v>711</v>
+        <v>4080101</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>1084</v>
       </c>
       <c r="C118" t="s">
-        <v>712</v>
+        <v>613</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>5010101</v>
+        <v>4090101</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>812</v>
-      </c>
-      <c r="C119" t="s">
-        <v>701</v>
+        <v>811</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
+        <v>4090102</v>
+      </c>
+      <c r="B120" t="s">
+        <v>692</v>
+      </c>
+      <c r="C120" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>4090103</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="C121" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>4100101</v>
+      </c>
+      <c r="B122" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>4100102</v>
+      </c>
+      <c r="B123" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>4110101</v>
+      </c>
+      <c r="B124" t="s">
+        <v>705</v>
+      </c>
+      <c r="C124" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>5010101</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="C125" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126">
         <v>5010102</v>
       </c>
-      <c r="B120" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="C120">
+      <c r="B126" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="C126">
         <v>1</v>
       </c>
-      <c r="D120" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="17">
+      <c r="D126" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="17">
         <v>5020101</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B127" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C121" s="17" t="s">
-        <v>703</v>
-      </c>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="19">
+      <c r="C127" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="19">
         <v>5030101</v>
       </c>
-      <c r="B122" s="21" t="s">
-        <v>782</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>783</v>
-      </c>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="21" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A123" s="24">
-        <v>90101</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>870</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>871</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>872</v>
-      </c>
-      <c r="F123" s="25" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A124" s="24">
-        <v>90102</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="F124" s="25" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="24">
-        <v>90103</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>877</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="F125" s="25" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="24">
-        <v>90104</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>879</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>880</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A127" s="26">
-        <v>90105</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="29" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A128" s="26">
-        <v>90106</v>
-      </c>
-      <c r="B128" s="27" t="s">
-        <v>885</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="30" t="s">
-        <v>886</v>
+      <c r="B128" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="21" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="24">
-        <v>90201</v>
+        <v>90101</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>887</v>
+        <v>843</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>712</v>
+        <v>844</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>888</v>
+        <v>845</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>889</v>
+        <v>846</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="24">
-        <v>90202</v>
+        <v>90102</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>890</v>
+        <v>847</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>880</v>
+        <v>848</v>
       </c>
       <c r="F130" s="25" t="s">
-        <v>891</v>
+        <v>849</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="24">
-        <v>90203</v>
+        <v>90103</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>892</v>
+        <v>850</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>893</v>
+        <v>706</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>894</v>
+        <v>851</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="24">
-        <v>90204</v>
+        <v>90104</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>895</v>
+        <v>852</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>896</v>
+        <v>853</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>897</v>
+        <v>854</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="24">
-        <v>90205</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>898</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="F133" s="25" t="s">
-        <v>899</v>
+      <c r="A133" s="26">
+        <v>90105</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>856</v>
+      </c>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="29" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A134" s="24">
-        <v>90206</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>900</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>901</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>902</v>
+      <c r="A134" s="26">
+        <v>90106</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>856</v>
+      </c>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="30" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="24">
-        <v>90207</v>
+        <v>90201</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>903</v>
+        <v>860</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>883</v>
+        <v>706</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>861</v>
       </c>
       <c r="F135" s="25" t="s">
-        <v>904</v>
+        <v>862</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A136" s="26">
-        <v>90208</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>905</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="30" t="s">
-        <v>906</v>
+      <c r="A136" s="24">
+        <v>90202</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A137" s="26">
-        <v>90209</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>907</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>908</v>
-      </c>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="30" t="s">
-        <v>909</v>
+      <c r="A137" s="24">
+        <v>90203</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="24">
-        <v>90301</v>
+        <v>90204</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>910</v>
-      </c>
-      <c r="C138" t="s">
-        <v>479</v>
+        <v>868</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>869</v>
       </c>
       <c r="F138" s="25" t="s">
-        <v>911</v>
+        <v>870</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="24">
-        <v>90302</v>
+        <v>90205</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>912</v>
-      </c>
-      <c r="C139" t="s">
-        <v>614</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>893</v>
+        <v>871</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>706</v>
       </c>
       <c r="F139" s="25" t="s">
-        <v>913</v>
+        <v>872</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="24">
-        <v>90303</v>
+        <v>90206</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>914</v>
+        <v>873</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>915</v>
+        <v>874</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>916</v>
+        <v>875</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A141" s="26">
-        <v>90304</v>
-      </c>
-      <c r="B141" s="27" t="s">
-        <v>917</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="30" t="s">
-        <v>918</v>
+      <c r="A141" s="24">
+        <v>90207</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
-        <v>90305</v>
+        <v>90208</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>919</v>
+        <v>878</v>
       </c>
       <c r="C142" s="27" t="s">
-        <v>908</v>
+        <v>856</v>
       </c>
       <c r="D142" s="28"/>
       <c r="E142" s="28"/>
       <c r="F142" s="30" t="s">
-        <v>920</v>
+        <v>879</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A143" s="24">
-        <v>90401</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>921</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="F143" s="25" t="s">
-        <v>923</v>
+      <c r="A143" s="26">
+        <v>90209</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>881</v>
+      </c>
+      <c r="D143" s="28"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="30" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="24">
-        <v>90402</v>
+        <v>90301</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>924</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>915</v>
+        <v>883</v>
+      </c>
+      <c r="C144" t="s">
+        <v>479</v>
       </c>
       <c r="F144" s="25" t="s">
-        <v>925</v>
+        <v>884</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="24">
+        <v>90302</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="C145" t="s">
+        <v>614</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A146" s="24">
+        <v>90303</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A147" s="26">
+        <v>90304</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>890</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="30" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A148" s="26">
+        <v>90305</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="C148" s="27" t="s">
+        <v>881</v>
+      </c>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="30" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A149" s="24">
+        <v>90401</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A150" s="24">
+        <v>90402</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="F150" s="25" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A151" s="24">
         <v>90501</v>
       </c>
-      <c r="B145" s="14" t="s">
-        <v>926</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>915</v>
-      </c>
-      <c r="F145" s="25" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A146" s="26">
+      <c r="B151" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A152" s="26">
         <v>90502</v>
       </c>
-      <c r="B146" s="27" t="s">
-        <v>928</v>
-      </c>
-      <c r="C146" s="27">
+      <c r="B152" s="27" t="s">
+        <v>901</v>
+      </c>
+      <c r="C152" s="27">
         <v>1</v>
       </c>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="27" t="s">
-        <v>929</v>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="27" t="s">
+        <v>902</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/achieve.成就.xlsx
+++ b/Excel/镇魂街/achieve.成就.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465" activeTab="4"/>
+    <workbookView windowWidth="28110" windowHeight="11985" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,12 +15,12 @@
     <sheet name="剧情成就类型" sheetId="33" r:id="rId6"/>
     <sheet name="每日推荐" sheetId="31" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="747">
   <si>
     <t>sheet名</t>
   </si>
@@ -164,7 +159,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -175,7 +169,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,7 +179,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1347,7 +1339,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1358,7 +1349,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1426,6 +1416,9 @@
     <t>卡牌升级-cnt</t>
   </si>
   <si>
+    <t>守护灵突破-cnt</t>
+  </si>
+  <si>
     <t>卡牌升级-id</t>
   </si>
   <si>
@@ -1450,6 +1443,12 @@
     <t>卡牌突破-max</t>
   </si>
   <si>
+    <t>星级</t>
+  </si>
+  <si>
+    <t>多少个达到特定星级</t>
+  </si>
+  <si>
     <t>卡牌突破-cnt</t>
   </si>
   <si>
@@ -1462,9 +1461,18 @@
     <t>卡牌突破-id</t>
   </si>
   <si>
+    <t>守护灵升星-cnt</t>
+  </si>
+  <si>
     <t>卡牌升星</t>
   </si>
   <si>
+    <t>寄灵人升星-cnt</t>
+  </si>
+  <si>
+    <t>寄灵人洗练-bhv</t>
+  </si>
+  <si>
     <t>寄灵人洗练-max</t>
   </si>
   <si>
@@ -1474,19 +1482,31 @@
     <t>寄灵人洗练-cnt</t>
   </si>
   <si>
+    <t>寄灵人洗练-exSkill</t>
+  </si>
+  <si>
     <t>获得多少个专属技能</t>
   </si>
   <si>
+    <t>卡牌洗练</t>
+  </si>
+  <si>
+    <t>寄灵人洗练-qua</t>
+  </si>
+  <si>
     <t>品质Id</t>
   </si>
   <si>
     <t>多少个洗练达到特定品质的寄灵人</t>
   </si>
   <si>
+    <t>卡牌洗练-bhv</t>
+  </si>
+  <si>
     <t>特定卡牌-id</t>
   </si>
   <si>
-    <t>卡牌洗练</t>
+    <t>卡牌洗练-max</t>
   </si>
   <si>
     <t>卡牌品质-qua</t>
@@ -1498,7 +1518,7 @@
     <t>卡牌品质</t>
   </si>
   <si>
-    <t>卡牌洗练-bhv</t>
+    <t>卡牌洗练-cnt</t>
   </si>
   <si>
     <t>特定卡牌-color</t>
@@ -1507,7 +1527,7 @@
     <t>水晶颜色(0,1,2,3)</t>
   </si>
   <si>
-    <t>卡牌洗练-max</t>
+    <t>特定卡牌</t>
   </si>
   <si>
     <r>
@@ -1515,7 +1535,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1526,7 +1545,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1537,15 +1555,11 @@
     <t>拥有寄灵人数量</t>
   </si>
   <si>
-    <t>卡牌洗练-cnt</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1556,7 +1570,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1567,27 +1580,24 @@
     <t>拥有守护灵数量</t>
   </si>
   <si>
-    <t>特定卡牌</t>
+    <t>神器-大点</t>
   </si>
   <si>
     <t>神器-大点-id</t>
   </si>
   <si>
+    <t>神器大点最高等级</t>
+  </si>
+  <si>
     <t>神器-组件-bhv</t>
   </si>
   <si>
-    <t>神器-大点</t>
+    <t>神器-组件</t>
   </si>
   <si>
     <t>神器-组件-max</t>
   </si>
   <si>
-    <t>神器大点最高等级</t>
-  </si>
-  <si>
-    <t>神器-组件</t>
-  </si>
-  <si>
     <t>神器-组件-id</t>
   </si>
   <si>
@@ -1606,21 +1616,24 @@
     <t>曾经获得过{0}个{1}品质的神器碎片</t>
   </si>
   <si>
+    <t>专属武器强化</t>
+  </si>
+  <si>
     <t>专属武器强化-bhv</t>
   </si>
   <si>
     <t>专属武器强化-max</t>
   </si>
   <si>
-    <t>专属武器强化</t>
-  </si>
-  <si>
     <t>专属武器强化-cnt</t>
   </si>
   <si>
     <t>专属武器强化-id</t>
   </si>
   <si>
+    <t>专属武器解封</t>
+  </si>
+  <si>
     <t>专属武器魂珠-cnt-lv-loc</t>
   </si>
   <si>
@@ -1630,67 +1643,76 @@
     <t>专属武器魂珠-cnt-sumlv</t>
   </si>
   <si>
-    <t>专属武器解封</t>
+    <t>专属武器解封-max</t>
   </si>
   <si>
     <t>专属武器魂珠-max-loc</t>
   </si>
   <si>
+    <t>专属武器解封-cnt</t>
+  </si>
+  <si>
     <t>专属武器魂珠-max-sumlv</t>
   </si>
   <si>
-    <t>专属武器解封-max</t>
-  </si>
-  <si>
-    <t>专属武器解封-cnt</t>
-  </si>
-  <si>
     <t>专属武器解封-id</t>
   </si>
   <si>
     <t>技能获取</t>
   </si>
   <si>
+    <t>技能获取-id</t>
+  </si>
+  <si>
+    <t>技能获取-qua</t>
+  </si>
+  <si>
     <t>专属武器解封-qua</t>
   </si>
   <si>
-    <t>技能获取-id</t>
-  </si>
-  <si>
     <t>专属武器解封-sum</t>
   </si>
   <si>
-    <t>技能获取-qua</t>
+    <t>技能升级</t>
   </si>
   <si>
     <t>专属武器激活-id</t>
   </si>
   <si>
-    <t>技能升级</t>
+    <t>技能升级-bhv</t>
+  </si>
+  <si>
+    <t>技能升级-max</t>
   </si>
   <si>
     <t>专属武器激活-qua</t>
   </si>
   <si>
-    <t>技能升级-bhv</t>
-  </si>
-  <si>
-    <t>技能升级-max</t>
-  </si>
-  <si>
     <t>技能升级-cnt</t>
   </si>
   <si>
     <t>技能升级-id</t>
   </si>
   <si>
+    <t>插槽技能技能获取-qua</t>
+  </si>
+  <si>
+    <t>技能突破</t>
+  </si>
+  <si>
+    <t>技能突破-bhv</t>
+  </si>
+  <si>
+    <t>技能装备-shl-cnt</t>
+  </si>
+  <si>
     <t>守护灵Id</t>
   </si>
   <si>
     <t>特定Id守护灵装备了几个插槽技能</t>
   </si>
   <si>
-    <t>技能突破</t>
+    <t>技能突破-max</t>
   </si>
   <si>
     <t>技能装备-shl-id</t>
@@ -1701,7 +1723,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1712,7 +1733,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1723,7 +1743,7 @@
     <t>给特定守护灵装备上特定Id的插槽技能</t>
   </si>
   <si>
-    <t>技能突破-bhv</t>
+    <t>技能突破-cnt</t>
   </si>
   <si>
     <t>插槽技能升级-bhv</t>
@@ -1732,7 +1752,7 @@
     <t>升级插槽技能{0}次</t>
   </si>
   <si>
-    <t>技能突破-max</t>
+    <t>技能突破-id</t>
   </si>
   <si>
     <t>插槽技能升级-max</t>
@@ -1741,34 +1761,49 @@
     <t>拥有一个高达{0}级的插槽技能</t>
   </si>
   <si>
-    <t>技能突破-cnt</t>
+    <t>技能分解</t>
+  </si>
+  <si>
+    <t>插槽技能升级-cnt</t>
   </si>
   <si>
     <t>拥有{0}个高达{1}级的插槽技能</t>
   </si>
   <si>
-    <t>技能突破-id</t>
-  </si>
-  <si>
-    <t>技能分解</t>
-  </si>
-  <si>
     <t>玩家等级</t>
   </si>
   <si>
+    <t>天赋技能升级-cnt</t>
+  </si>
+  <si>
+    <t>拥有{0}个高达{1}级的天赋技能</t>
+  </si>
+  <si>
     <t>PVE</t>
   </si>
   <si>
+    <t>主线</t>
+  </si>
+  <si>
+    <t>主线-cha</t>
+  </si>
+  <si>
+    <t>主线-id</t>
+  </si>
+  <si>
     <t>技能经验获得-bhv</t>
   </si>
   <si>
-    <t>主线</t>
-  </si>
-  <si>
-    <t>主线-cha</t>
-  </si>
-  <si>
-    <t>主线-id</t>
+    <t>寄灵人天赋技-cnt</t>
+  </si>
+  <si>
+    <t>芦花古楼-id</t>
+  </si>
+  <si>
+    <t>守护灵天赋技-cnt</t>
+  </si>
+  <si>
+    <t>芦花古楼-cha</t>
   </si>
   <si>
     <t>装备穿戴-qua</t>
@@ -1777,16 +1812,7 @@
     <t>拥有{0}件{1}品质的装备</t>
   </si>
   <si>
-    <t>芦花古楼-id</t>
-  </si>
-  <si>
-    <t>等级Id</t>
-  </si>
-  <si>
-    <t>拥有{0}件{1}品质等级Id&gt;={2}级的装备</t>
-  </si>
-  <si>
-    <t>芦花古楼-cha</t>
+    <t>世界BOSS</t>
   </si>
   <si>
     <r>
@@ -1794,7 +1820,40 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装备穿戴-qua-lv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+  </si>
+  <si>
+    <t>等级Id</t>
+  </si>
+  <si>
+    <t>拥有{0}件{1}品质等级Id&gt;={2}级的装备</t>
+  </si>
+  <si>
+    <t>世界BOSS-cha</t>
+  </si>
+  <si>
+    <t>拥有-suit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1805,7 +1864,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1819,7 +1877,16 @@
     <t>拥有{0}件等级d&gt;={1}的装备</t>
   </si>
   <si>
-    <t>世界BOSS</t>
+    <t>世界BOSS-id</t>
+  </si>
+  <si>
+    <t>拥有-suit-lvid</t>
+  </si>
+  <si>
+    <t>拥有{0}件等级&gt;{1}的套装装备</t>
+  </si>
+  <si>
+    <t>挂机派遣</t>
   </si>
   <si>
     <t>装备强化-bhv</t>
@@ -1828,7 +1895,7 @@
     <t>装备强化{0}次</t>
   </si>
   <si>
-    <t>世界BOSS-cha</t>
+    <t>挂机派遣-cha</t>
   </si>
   <si>
     <t>装备强化-max</t>
@@ -1837,22 +1904,22 @@
     <t>装备最高强化等级达到{1}</t>
   </si>
   <si>
+    <t>挂机派遣-id</t>
+  </si>
+  <si>
     <t>装备强化-cnt</t>
   </si>
   <si>
     <t>拥有{0}件强化等级&gt;={1}的装备</t>
   </si>
   <si>
-    <t>世界BOSS-id</t>
-  </si>
-  <si>
     <t>章节Id</t>
   </si>
   <si>
     <t>某章总共通过了多少关，包括芦花古楼和世界BOSS</t>
   </si>
   <si>
-    <t>挂机派遣</t>
+    <t>PVP</t>
   </si>
   <si>
     <t>关卡Id</t>
@@ -1861,22 +1928,16 @@
     <t>某一关打了多少次，包括芦花古楼和世界BOSS</t>
   </si>
   <si>
-    <t>挂机派遣-cha</t>
-  </si>
-  <si>
     <t>关卡总星数</t>
   </si>
   <si>
-    <t>挂机派遣-id</t>
-  </si>
-  <si>
     <t>芦花古楼-bhv</t>
   </si>
   <si>
     <t>芦花古楼挑战次数</t>
   </si>
   <si>
-    <t>PVP</t>
+    <t>竞技场-times</t>
   </si>
   <si>
     <t>击杀次数</t>
@@ -1903,28 +1964,37 @@
     <t>多少个队伍挂机&gt;=某章节</t>
   </si>
   <si>
+    <t>行为</t>
+  </si>
+  <si>
     <t>在某个挂机关卡挂机</t>
   </si>
   <si>
-    <t>竞技场-times</t>
+    <t>商店购买</t>
   </si>
   <si>
     <t>使用牧守令扫荡次数</t>
   </si>
   <si>
+    <t>商店购买-sum</t>
+  </si>
+  <si>
     <t>总时长</t>
   </si>
   <si>
     <t>派遣巡逻总时长</t>
   </si>
   <si>
+    <t>商店购买-shopSum</t>
+  </si>
+  <si>
     <t>分数</t>
   </si>
   <si>
     <t>竞技场历史最高分</t>
   </si>
   <si>
-    <t>行为</t>
+    <t>商店购买-id</t>
   </si>
   <si>
     <t>竞技场-bhv</t>
@@ -1933,40 +2003,46 @@
     <t>参与次数</t>
   </si>
   <si>
-    <t>商店购买</t>
-  </si>
-  <si>
     <t>胜利次数</t>
   </si>
   <si>
-    <t>商店购买-sum</t>
+    <t>聊天-times</t>
   </si>
   <si>
     <t>竞技场失败次数</t>
   </si>
   <si>
-    <t>商店购买-shopSum</t>
-  </si>
-  <si>
-    <t>商店购买-id</t>
+    <t>获得道具</t>
+  </si>
+  <si>
+    <t>实时竞技场-历史最高分</t>
+  </si>
+  <si>
+    <t>获得道具-id</t>
+  </si>
+  <si>
+    <t>实时竞技场-bhv</t>
+  </si>
+  <si>
+    <t>花费道具</t>
   </si>
   <si>
     <t>实时竞技场-win</t>
   </si>
   <si>
-    <t>聊天-times</t>
+    <t>花费道具-id</t>
   </si>
   <si>
     <t>实时竞技场-lose</t>
   </si>
   <si>
-    <t>获得道具</t>
+    <t>上阵角色</t>
   </si>
   <si>
     <t>在商店的兑换次数</t>
   </si>
   <si>
-    <t>获得道具-id</t>
+    <t>上阵角色-sum</t>
   </si>
   <si>
     <t>商店Id</t>
@@ -1975,7 +2051,7 @@
     <t>在特定商店的兑换次数</t>
   </si>
   <si>
-    <t>花费道具</t>
+    <t>上阵角色-id</t>
   </si>
   <si>
     <t>特定商品Id</t>
@@ -1984,7 +2060,10 @@
     <t>特定商品ID的兑换次数</t>
   </si>
   <si>
-    <t>花费道具-id</t>
+    <t>抽卡</t>
+  </si>
+  <si>
+    <t>商店购买-cost</t>
   </si>
   <si>
     <t>花费货币量</t>
@@ -1996,7 +2075,7 @@
     <t>在商店花费多少个特定的货币</t>
   </si>
   <si>
-    <t>上阵角色</t>
+    <t>抽卡-sum</t>
   </si>
   <si>
     <r>
@@ -2004,7 +2083,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2015,7 +2093,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2031,7 +2108,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2042,7 +2118,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2053,7 +2128,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2064,7 +2138,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2072,19 +2145,25 @@
     </r>
   </si>
   <si>
-    <t>上阵角色-sum</t>
-  </si>
-  <si>
-    <t>上阵角色-id</t>
+    <t>商店购买-shopIdSum</t>
+  </si>
+  <si>
+    <t>ShopId</t>
+  </si>
+  <si>
+    <t>在特定页签商店的兑换次数</t>
+  </si>
+  <si>
+    <t>抽卡-jlr-qua</t>
   </si>
   <si>
     <t>道具Id</t>
   </si>
   <si>
-    <t>抽卡</t>
-  </si>
-  <si>
-    <t>抽卡-sum</t>
+    <t>抽卡-shl-qua</t>
+  </si>
+  <si>
+    <t>领取奖励</t>
   </si>
   <si>
     <t>拥有道具-id</t>
@@ -2093,57 +2172,48 @@
     <t>记录历史拥有的最大值</t>
   </si>
   <si>
+    <t>星星宝箱</t>
+  </si>
+  <si>
     <t>拥有货币-id</t>
   </si>
   <si>
-    <t>抽卡-jlr-qua</t>
-  </si>
-  <si>
-    <t>抽卡-shl-qua</t>
+    <t>点金</t>
+  </si>
+  <si>
+    <t>任务</t>
   </si>
   <si>
     <t>特定卡牌Id</t>
   </si>
   <si>
-    <t>领取奖励</t>
+    <t>地狱道任务</t>
   </si>
   <si>
     <t>抽卡总次数</t>
   </si>
   <si>
-    <t>星星宝箱</t>
+    <t>地狱道任务-id</t>
   </si>
   <si>
     <t>寄灵人抽卡次数</t>
   </si>
   <si>
-    <t>点金</t>
-  </si>
-  <si>
     <t>守护灵抽卡次数</t>
   </si>
   <si>
     <t>寄灵人抽到&gt;=指定品质的次数</t>
   </si>
   <si>
-    <t>任务</t>
-  </si>
-  <si>
     <t>守护灵抽到&gt;=指定品质的次数</t>
   </si>
   <si>
-    <t>地狱道任务</t>
-  </si>
-  <si>
     <t>抽卡-pool</t>
   </si>
   <si>
     <t>卡池Id</t>
   </si>
   <si>
-    <t>地狱道任务-id</t>
-  </si>
-  <si>
     <t>宝箱Id</t>
   </si>
   <si>
@@ -2154,6 +2224,9 @@
   </si>
   <si>
     <t>充值-cnt</t>
+  </si>
+  <si>
+    <t>地狱道</t>
   </si>
   <si>
     <t>地狱道等级</t>
@@ -2179,7 +2252,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2190,7 +2262,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2359,7 +2430,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2370,7 +2440,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2378,9 +2447,6 @@
     </r>
   </si>
   <si>
-    <t>获得数量</t>
-  </si>
-  <si>
     <t>使用剧情道具</t>
   </si>
   <si>
@@ -2432,188 +2498,23 @@
     <t>事件探索项Id</t>
   </si>
   <si>
-    <t>守护灵天赋技-cnt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋技能升级-cnt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有{0}个高达{1}级的天赋技能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能升级-id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有-suit-lvid</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级Id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有{0}件等级&gt;{1}的套装装备</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店购买-shopIdSum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>次数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopId</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在特定页签商店的兑换次数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人洗练-bhv</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人洗练-exSkill</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人洗练-qua</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人天赋技-cnt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽技能升级-cnt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽技能技能获取-qua</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>星级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>多少个达到特定星级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>多少个达到特定星级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵升星-cnt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>星级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>多少个达到特定星级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人升星-cnt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时竞技场-bhv</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时竞技场-历史最高分</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能装备-shl-cnt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>装备穿戴-qua-lv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有-suit</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店购买-cost</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>点金</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱道</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵突破-cnt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS-chamin</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>完成事件</t>
+  </si>
+  <si>
+    <t>事件id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2623,17 +2524,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2642,7 +2534,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2650,7 +2541,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2658,7 +2548,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2666,42 +2555,175 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2722,13 +2744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2746,19 +2768,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2770,13 +2882,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2788,12 +2924,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2843,6 +3033,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2853,134 +3102,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="57" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="57" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="56" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="14">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="61">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="15" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="4" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="33" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="39" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="39" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="39" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="4" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="33" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="8"/>
+  <cellStyles count="62">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="9"/>
-    <cellStyle name="常规 3" xfId="11"/>
-    <cellStyle name="超链接 2" xfId="12"/>
-    <cellStyle name="大标题" xfId="7"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="13"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="14"/>
-    <cellStyle name="纵向标题" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="Grid" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="大标题" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="Normal" xfId="55"/>
+    <cellStyle name="常规 2" xfId="56"/>
+    <cellStyle name="常规 3" xfId="57"/>
+    <cellStyle name="文本" xfId="58"/>
+    <cellStyle name="超链接 2" xfId="59"/>
+    <cellStyle name="无效" xfId="60"/>
+    <cellStyle name="中文标题" xfId="61"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3238,19 +3695,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -3261,7 +3718,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:8">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3287,7 +3744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="57.75" customHeight="1" spans="1:8">
       <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
@@ -3309,7 +3766,7 @@
       </c>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="54" customHeight="1" spans="1:8">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -3331,7 +3788,7 @@
       </c>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="47.25" customHeight="1" spans="1:8">
       <c r="A4" s="26" t="s">
         <v>15</v>
       </c>
@@ -3353,7 +3810,7 @@
       </c>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="55.5" customHeight="1" spans="1:8">
       <c r="A5" s="26" t="s">
         <v>15</v>
       </c>
@@ -3373,25 +3830,26 @@
       </c>
       <c r="H5" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P224"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
@@ -3408,7 +3866,7 @@
     <col min="15" max="16" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:16">
       <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
@@ -3458,7 +3916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3508,7 +3966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" ht="15" spans="1:16">
       <c r="A3" s="24" t="s">
         <v>45</v>
       </c>
@@ -3556,7 +4014,7 @@
       </c>
       <c r="P3" s="24"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:16">
       <c r="A4" s="25">
         <v>1</v>
       </c>
@@ -3604,7 +4062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:16">
       <c r="A5" s="25">
         <v>1</v>
       </c>
@@ -3652,7 +4110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:16">
       <c r="A6" s="25">
         <v>1</v>
       </c>
@@ -3700,7 +4158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:16">
       <c r="A7" s="25">
         <v>1</v>
       </c>
@@ -3748,7 +4206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:16">
       <c r="A8" s="25">
         <v>1</v>
       </c>
@@ -3798,7 +4256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:16">
       <c r="A9" s="25">
         <v>1</v>
       </c>
@@ -3848,7 +4306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:16">
       <c r="A10" s="25">
         <v>1</v>
       </c>
@@ -3898,7 +4356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:16">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -3948,7 +4406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:16">
       <c r="A12" s="25">
         <v>1</v>
       </c>
@@ -3998,7 +4456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:16">
       <c r="A13" s="25">
         <v>1</v>
       </c>
@@ -4048,7 +4506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:16">
       <c r="A14" s="25">
         <v>1</v>
       </c>
@@ -4098,7 +4556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:16">
       <c r="A15" s="25">
         <v>1</v>
       </c>
@@ -4148,7 +4606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:16">
       <c r="A16" s="25">
         <v>1</v>
       </c>
@@ -4198,7 +4656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:16">
       <c r="A17" s="25">
         <v>1</v>
       </c>
@@ -4248,7 +4706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:16">
       <c r="A18" s="25">
         <v>1</v>
       </c>
@@ -4298,7 +4756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:16">
       <c r="A19" s="25">
         <v>1</v>
       </c>
@@ -4348,7 +4806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:16">
       <c r="A20" s="25">
         <v>1</v>
       </c>
@@ -4398,7 +4856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:16">
       <c r="A21" s="25">
         <v>1</v>
       </c>
@@ -4448,7 +4906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:16">
       <c r="A22" s="25">
         <v>1</v>
       </c>
@@ -4498,7 +4956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:16">
       <c r="A23" s="25">
         <v>1</v>
       </c>
@@ -4548,7 +5006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:16">
       <c r="A24" s="25">
         <v>1</v>
       </c>
@@ -4596,7 +5054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:16">
       <c r="A25" s="25">
         <v>1</v>
       </c>
@@ -4644,7 +5102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:16">
       <c r="A26" s="25">
         <v>1</v>
       </c>
@@ -4692,7 +5150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:16">
       <c r="A27" s="25">
         <v>1</v>
       </c>
@@ -4740,7 +5198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:16">
       <c r="A28" s="25">
         <v>2</v>
       </c>
@@ -4788,7 +5246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:16">
       <c r="A29" s="25">
         <v>2</v>
       </c>
@@ -4836,7 +5294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:16">
       <c r="A30" s="25">
         <v>2</v>
       </c>
@@ -4884,7 +5342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:16">
       <c r="A31" s="25">
         <v>2</v>
       </c>
@@ -4932,7 +5390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:16">
       <c r="A32" s="25">
         <v>2</v>
       </c>
@@ -4980,7 +5438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:16">
       <c r="A33" s="25">
         <v>2</v>
       </c>
@@ -5028,7 +5486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A34" s="25">
         <v>2</v>
       </c>
@@ -5078,7 +5536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A35" s="25">
         <v>2</v>
       </c>
@@ -5128,7 +5586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A36" s="25">
         <v>2</v>
       </c>
@@ -5178,7 +5636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A37" s="25">
         <v>2</v>
       </c>
@@ -5228,7 +5686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A38" s="25">
         <v>2</v>
       </c>
@@ -5278,7 +5736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A39" s="25">
         <v>2</v>
       </c>
@@ -5328,7 +5786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A40" s="25">
         <v>2</v>
       </c>
@@ -5378,7 +5836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A41" s="25">
         <v>2</v>
       </c>
@@ -5428,7 +5886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A42" s="25">
         <v>2</v>
       </c>
@@ -5478,7 +5936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A43" s="25">
         <v>2</v>
       </c>
@@ -5528,7 +5986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A44" s="25">
         <v>2</v>
       </c>
@@ -5578,7 +6036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A45" s="25">
         <v>2</v>
       </c>
@@ -5628,7 +6086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A46" s="25">
         <v>2</v>
       </c>
@@ -5678,7 +6136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A47" s="25">
         <v>2</v>
       </c>
@@ -5728,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A48" s="25">
         <v>2</v>
       </c>
@@ -5778,7 +6236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A49" s="25">
         <v>2</v>
       </c>
@@ -5828,7 +6286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A50" s="25">
         <v>2</v>
       </c>
@@ -5878,7 +6336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A51" s="25">
         <v>2</v>
       </c>
@@ -5928,7 +6386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A52" s="25">
         <v>2</v>
       </c>
@@ -5978,7 +6436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A53" s="25">
         <v>2</v>
       </c>
@@ -6028,7 +6486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A54" s="25">
         <v>2</v>
       </c>
@@ -6075,7 +6533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A55" s="25">
         <v>2</v>
       </c>
@@ -6122,7 +6580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A56" s="25">
         <v>2</v>
       </c>
@@ -6169,7 +6627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A57" s="25">
         <v>2</v>
       </c>
@@ -6216,7 +6674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A58" s="25">
         <v>2</v>
       </c>
@@ -6263,7 +6721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A59" s="25">
         <v>2</v>
       </c>
@@ -6310,7 +6768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A60" s="25">
         <v>2</v>
       </c>
@@ -6357,7 +6815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A61" s="25">
         <v>2</v>
       </c>
@@ -6404,7 +6862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A62" s="25">
         <v>2</v>
       </c>
@@ -6451,7 +6909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A63" s="25">
         <v>2</v>
       </c>
@@ -6498,7 +6956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A64" s="25">
         <v>2</v>
       </c>
@@ -6545,7 +7003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A65" s="25">
         <v>2</v>
       </c>
@@ -6592,7 +7050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A66" s="25">
         <v>2</v>
       </c>
@@ -6639,7 +7097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="67" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A67" s="25">
         <v>2</v>
       </c>
@@ -6686,7 +7144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" s="25" customFormat="1" ht="16.5" spans="1:16">
       <c r="A68" s="25">
         <v>2</v>
       </c>
@@ -6733,7 +7191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" ht="16.5" spans="1:16">
       <c r="A69" s="25">
         <v>2</v>
       </c>
@@ -6781,7 +7239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" ht="16.5" spans="1:16">
       <c r="A70" s="25">
         <v>2</v>
       </c>
@@ -6829,7 +7287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" ht="16.5" spans="1:16">
       <c r="A71" s="25">
         <v>2</v>
       </c>
@@ -6877,7 +7335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" ht="16.5" spans="1:16">
       <c r="A72" s="25">
         <v>2</v>
       </c>
@@ -6925,7 +7383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" ht="16.5" spans="1:16">
       <c r="A73" s="25">
         <v>2</v>
       </c>
@@ -6975,7 +7433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" ht="16.5" spans="1:16">
       <c r="A74" s="25">
         <v>2</v>
       </c>
@@ -7023,7 +7481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" ht="16.5" spans="1:16">
       <c r="A75" s="25">
         <v>3</v>
       </c>
@@ -7073,7 +7531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" ht="16.5" spans="1:16">
       <c r="A76" s="25">
         <v>3</v>
       </c>
@@ -7123,7 +7581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" ht="16.5" spans="1:16">
       <c r="A77" s="25">
         <v>3</v>
       </c>
@@ -7173,7 +7631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" ht="16.5" spans="1:16">
       <c r="A78" s="25">
         <v>3</v>
       </c>
@@ -7223,7 +7681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" ht="16.5" spans="1:16">
       <c r="A79" s="25">
         <v>3</v>
       </c>
@@ -7273,7 +7731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="80" ht="16.5" spans="1:16">
       <c r="A80" s="25">
         <v>3</v>
       </c>
@@ -7323,7 +7781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="81" ht="16.5" spans="1:16">
       <c r="A81" s="25">
         <v>3</v>
       </c>
@@ -7373,7 +7831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" ht="16.5" spans="1:16">
       <c r="A82" s="25">
         <v>3</v>
       </c>
@@ -7421,7 +7879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" ht="16.5" spans="1:16">
       <c r="A83" s="25">
         <v>4</v>
       </c>
@@ -7469,7 +7927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" ht="16.5" spans="1:16">
       <c r="A84" s="25">
         <v>4</v>
       </c>
@@ -7517,7 +7975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" ht="16.5" spans="1:16">
       <c r="A85" s="25">
         <v>4</v>
       </c>
@@ -7567,7 +8025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" ht="16.5" spans="1:16">
       <c r="A86" s="25">
         <v>4</v>
       </c>
@@ -7617,7 +8075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" ht="16.5" spans="1:16">
       <c r="A87" s="25">
         <v>4</v>
       </c>
@@ -7665,7 +8123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" ht="16.5" spans="1:16">
       <c r="A88" s="25">
         <v>4</v>
       </c>
@@ -7715,7 +8173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" ht="16.5" spans="1:16">
       <c r="A89" s="25">
         <v>4</v>
       </c>
@@ -7765,7 +8223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" ht="16.5" spans="1:16">
       <c r="A90" s="25">
         <v>4</v>
       </c>
@@ -7815,7 +8273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" ht="16.5" spans="1:16">
       <c r="A91" s="25">
         <v>4</v>
       </c>
@@ -7865,7 +8323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="92" ht="16.5" spans="1:16">
       <c r="A92" s="25">
         <v>5</v>
       </c>
@@ -7913,7 +8371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="93" ht="16.5" spans="1:16">
       <c r="A93" s="25">
         <v>5</v>
       </c>
@@ -7961,7 +8419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="94" ht="16.5" spans="1:16">
       <c r="A94" s="25">
         <v>5</v>
       </c>
@@ -8009,7 +8467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="95" ht="16.5" spans="1:16">
       <c r="A95" s="25">
         <v>6</v>
       </c>
@@ -8057,7 +8515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="96" ht="16.5" spans="1:16">
       <c r="A96" s="25">
         <v>6</v>
       </c>
@@ -8107,7 +8565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="97" ht="16.5" spans="1:16">
       <c r="A97" s="25">
         <v>6</v>
       </c>
@@ -8155,7 +8613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="98" ht="16.5" spans="1:16">
       <c r="A98" s="25">
         <v>6</v>
       </c>
@@ -8205,7 +8663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="99" ht="16.5" spans="1:16">
       <c r="A99" s="25">
         <v>6</v>
       </c>
@@ -8255,7 +8713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="100" ht="16.5" spans="1:16">
       <c r="A100" s="25">
         <v>6</v>
       </c>
@@ -8305,7 +8763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="101" ht="16.5" spans="1:16">
       <c r="A101" s="25">
         <v>7</v>
       </c>
@@ -8353,7 +8811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="102" ht="17.25" spans="1:16">
       <c r="A102" s="29">
         <v>8</v>
       </c>
@@ -8404,7 +8862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="103" ht="17.25" spans="1:16">
       <c r="A103" s="29">
         <v>8</v>
       </c>
@@ -8455,7 +8913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="104" ht="17.25" spans="1:16">
       <c r="A104" s="29">
         <v>8</v>
       </c>
@@ -8506,7 +8964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="105" ht="17.25" spans="1:16">
       <c r="A105" s="29">
         <v>8</v>
       </c>
@@ -8557,7 +9015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="106" ht="17.25" spans="1:16">
       <c r="A106" s="29">
         <v>8</v>
       </c>
@@ -8608,7 +9066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="107" ht="17.25" spans="1:16">
       <c r="A107" s="29">
         <v>8</v>
       </c>
@@ -8659,7 +9117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="108" ht="17.25" spans="1:16">
       <c r="A108" s="29">
         <v>8</v>
       </c>
@@ -8710,7 +9168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="109" ht="17.25" spans="1:16">
       <c r="A109" s="29">
         <v>8</v>
       </c>
@@ -8761,7 +9219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="110" ht="17.25" spans="1:16">
       <c r="A110" s="29">
         <v>8</v>
       </c>
@@ -8812,7 +9270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="111" ht="17.25" spans="1:16">
       <c r="A111" s="29">
         <v>8</v>
       </c>
@@ -8863,7 +9321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="112" ht="17.25" spans="1:16">
       <c r="A112" s="29">
         <v>8</v>
       </c>
@@ -8914,7 +9372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="113" ht="17.25" spans="1:16">
       <c r="A113" s="29">
         <v>8</v>
       </c>
@@ -8965,7 +9423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="114" ht="17.25" spans="1:16">
       <c r="A114" s="29">
         <v>8</v>
       </c>
@@ -9014,7 +9472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="115" ht="17.25" spans="1:16">
       <c r="A115" s="29">
         <v>8</v>
       </c>
@@ -9063,7 +9521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="116" ht="17.25" spans="1:16">
       <c r="A116" s="29">
         <v>8</v>
       </c>
@@ -9112,7 +9570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="117" ht="17.25" spans="1:16">
       <c r="A117" s="29">
         <v>8</v>
       </c>
@@ -9161,7 +9619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="118" ht="17.25" spans="1:16">
       <c r="A118" s="29">
         <v>8</v>
       </c>
@@ -9210,7 +9668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="119" ht="17.25" spans="1:16">
       <c r="A119" s="29">
         <v>8</v>
       </c>
@@ -9259,7 +9717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="120" ht="17.25" spans="1:16">
       <c r="A120" s="29">
         <v>8</v>
       </c>
@@ -9308,7 +9766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="121" ht="17.25" spans="1:16">
       <c r="A121" s="29">
         <v>8</v>
       </c>
@@ -9357,7 +9815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="122" ht="17.25" spans="1:16">
       <c r="A122" s="29">
         <v>8</v>
       </c>
@@ -9406,7 +9864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="123" ht="17.25" spans="1:16">
       <c r="A123" s="29">
         <v>8</v>
       </c>
@@ -9455,7 +9913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="124" ht="17.25" spans="1:16">
       <c r="A124" s="29">
         <v>8</v>
       </c>
@@ -9504,7 +9962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="125" ht="17.25" spans="1:16">
       <c r="A125" s="29">
         <v>8</v>
       </c>
@@ -9553,7 +10011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="126" ht="17.25" spans="1:16">
       <c r="A126" s="29">
         <v>8</v>
       </c>
@@ -9602,7 +10060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="127" ht="17.25" spans="1:16">
       <c r="A127" s="29">
         <v>8</v>
       </c>
@@ -9651,7 +10109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="128" ht="17.25" spans="1:16">
       <c r="A128" s="29">
         <v>8</v>
       </c>
@@ -9700,7 +10158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="129" ht="17.25" spans="1:16">
       <c r="A129" s="29">
         <v>8</v>
       </c>
@@ -9751,7 +10209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="130" ht="17.25" spans="1:16">
       <c r="A130" s="29">
         <v>8</v>
       </c>
@@ -9802,7 +10260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="131" ht="17.25" spans="1:16">
       <c r="A131" s="29">
         <v>8</v>
       </c>
@@ -9853,7 +10311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="132" ht="17.25" spans="1:16">
       <c r="A132" s="29">
         <v>8</v>
       </c>
@@ -9904,7 +10362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="133" ht="17.25" spans="1:16">
       <c r="A133" s="29">
         <v>8</v>
       </c>
@@ -9955,7 +10413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="134" ht="17.25" spans="1:16">
       <c r="A134" s="29">
         <v>8</v>
       </c>
@@ -10006,7 +10464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="135" ht="17.25" spans="1:16">
       <c r="A135" s="29">
         <v>8</v>
       </c>
@@ -10057,7 +10515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="136" ht="17.25" spans="1:16">
       <c r="A136" s="29">
         <v>8</v>
       </c>
@@ -10108,7 +10566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="137" ht="17.25" spans="1:16">
       <c r="A137" s="29">
         <v>8</v>
       </c>
@@ -10159,7 +10617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="138" ht="17.25" spans="1:16">
       <c r="A138" s="29">
         <v>8</v>
       </c>
@@ -10210,7 +10668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="139" ht="17.25" spans="1:16">
       <c r="A139" s="29">
         <v>8</v>
       </c>
@@ -10261,7 +10719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="140" ht="17.25" spans="1:16">
       <c r="A140" s="29">
         <v>8</v>
       </c>
@@ -10310,7 +10768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="141" ht="17.25" spans="1:16">
       <c r="A141" s="29">
         <v>8</v>
       </c>
@@ -10359,7 +10817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="142" ht="17.25" spans="1:16">
       <c r="A142" s="29">
         <v>8</v>
       </c>
@@ -10408,7 +10866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="143" ht="17.25" spans="1:16">
       <c r="A143" s="29">
         <v>8</v>
       </c>
@@ -10457,7 +10915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="144" ht="17.25" spans="1:16">
       <c r="A144" s="29">
         <v>8</v>
       </c>
@@ -10506,7 +10964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="145" ht="17.25" spans="1:16">
       <c r="A145" s="29">
         <v>8</v>
       </c>
@@ -10555,7 +11013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="146" ht="17.25" spans="1:16">
       <c r="A146" s="29">
         <v>8</v>
       </c>
@@ -10606,7 +11064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="147" ht="17.25" spans="1:16">
       <c r="A147" s="29">
         <v>8</v>
       </c>
@@ -10657,7 +11115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="148" ht="17.25" spans="1:16">
       <c r="A148" s="29">
         <v>8</v>
       </c>
@@ -10708,7 +11166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="149" ht="17.25" spans="1:16">
       <c r="A149" s="29">
         <v>8</v>
       </c>
@@ -10759,7 +11217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="150" ht="17.25" spans="1:16">
       <c r="A150" s="29">
         <v>8</v>
       </c>
@@ -10810,7 +11268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="151" ht="17.25" spans="1:16">
       <c r="A151" s="29">
         <v>8</v>
       </c>
@@ -10861,7 +11319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="152" ht="17.25" spans="1:16">
       <c r="A152" s="29">
         <v>8</v>
       </c>
@@ -10912,7 +11370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="153" ht="17.25" spans="1:16">
       <c r="A153" s="29">
         <v>8</v>
       </c>
@@ -10963,7 +11421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="154" ht="17.25" spans="1:16">
       <c r="A154" s="29">
         <v>8</v>
       </c>
@@ -11014,7 +11472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="155" ht="17.25" spans="1:16">
       <c r="A155" s="29">
         <v>8</v>
       </c>
@@ -11065,7 +11523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="156" ht="17.25" spans="1:16">
       <c r="A156" s="29">
         <v>8</v>
       </c>
@@ -11116,7 +11574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="157" ht="17.25" spans="1:16">
       <c r="A157" s="29">
         <v>8</v>
       </c>
@@ -11167,7 +11625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="158" ht="17.25" spans="1:16">
       <c r="A158" s="29">
         <v>8</v>
       </c>
@@ -11218,7 +11676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="159" ht="17.25" spans="1:16">
       <c r="A159" s="29">
         <v>8</v>
       </c>
@@ -11269,7 +11727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="160" ht="17.25" spans="1:16">
       <c r="A160" s="29">
         <v>8</v>
       </c>
@@ -11320,7 +11778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="161" ht="17.25" spans="1:16">
       <c r="A161" s="29">
         <v>8</v>
       </c>
@@ -11371,7 +11829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="162" ht="17.25" spans="1:16">
       <c r="A162" s="29">
         <v>8</v>
       </c>
@@ -11422,7 +11880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="163" ht="17.25" spans="1:16">
       <c r="A163" s="29">
         <v>8</v>
       </c>
@@ -11473,7 +11931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="164" ht="17.25" spans="1:16">
       <c r="A164" s="29">
         <v>8</v>
       </c>
@@ -11524,7 +11982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="165" ht="17.25" spans="1:16">
       <c r="A165" s="29">
         <v>8</v>
       </c>
@@ -11575,7 +12033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="166" ht="17.25" spans="1:16">
       <c r="A166" s="29">
         <v>8</v>
       </c>
@@ -11626,7 +12084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="167" ht="17.25" spans="1:16">
       <c r="A167" s="29">
         <v>8</v>
       </c>
@@ -11677,7 +12135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="168" ht="17.25" spans="1:16">
       <c r="A168" s="29">
         <v>8</v>
       </c>
@@ -11728,7 +12186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="169" ht="17.25" spans="1:16">
       <c r="A169" s="29">
         <v>8</v>
       </c>
@@ -11779,7 +12237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="170" ht="17.25" spans="1:16">
       <c r="A170" s="29">
         <v>8</v>
       </c>
@@ -11830,7 +12288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="171" ht="17.25" spans="1:16">
       <c r="A171" s="29">
         <v>8</v>
       </c>
@@ -11881,7 +12339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="172" ht="17.25" spans="1:16">
       <c r="A172" s="29">
         <v>8</v>
       </c>
@@ -11932,7 +12390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="173" ht="17.25" spans="1:16">
       <c r="A173" s="29">
         <v>8</v>
       </c>
@@ -11983,7 +12441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="174" ht="17.25" spans="1:16">
       <c r="A174" s="29">
         <v>8</v>
       </c>
@@ -12034,7 +12492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="175" ht="17.25" spans="1:16">
       <c r="A175" s="29">
         <v>8</v>
       </c>
@@ -12085,7 +12543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="176" ht="17.25" spans="1:16">
       <c r="A176" s="29">
         <v>8</v>
       </c>
@@ -12136,7 +12594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="177" ht="17.25" spans="1:16">
       <c r="A177" s="29">
         <v>8</v>
       </c>
@@ -12187,7 +12645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="178" ht="17.25" spans="1:16">
       <c r="A178" s="29">
         <v>8</v>
       </c>
@@ -12236,7 +12694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="179" ht="17.25" spans="1:16">
       <c r="A179" s="29">
         <v>8</v>
       </c>
@@ -12285,7 +12743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="180" ht="17.25" spans="1:16">
       <c r="A180" s="29">
         <v>8</v>
       </c>
@@ -12334,7 +12792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="181" ht="17.25" spans="1:16">
       <c r="A181" s="29">
         <v>8</v>
       </c>
@@ -12383,7 +12841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="182" ht="17.25" spans="1:16">
       <c r="A182" s="29">
         <v>8</v>
       </c>
@@ -12432,7 +12890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="183" ht="17.25" spans="1:16">
       <c r="A183" s="29">
         <v>8</v>
       </c>
@@ -12481,7 +12939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="184" ht="17.25" spans="1:16">
       <c r="A184" s="29">
         <v>8</v>
       </c>
@@ -12530,7 +12988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="185" ht="17.25" spans="1:16">
       <c r="A185" s="29">
         <v>8</v>
       </c>
@@ -12579,7 +13037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="186" ht="17.25" spans="1:16">
       <c r="A186" s="29">
         <v>8</v>
       </c>
@@ -12628,7 +13086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="187" ht="34.5" spans="1:16">
       <c r="A187" s="29">
         <v>8</v>
       </c>
@@ -12677,7 +13135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="188" ht="34.5" spans="1:16">
       <c r="A188" s="29">
         <v>8</v>
       </c>
@@ -12726,7 +13184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="189" ht="34.5" spans="1:16">
       <c r="A189" s="29">
         <v>8</v>
       </c>
@@ -12775,7 +13233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="190" ht="17.25" spans="1:16">
       <c r="A190" s="29">
         <v>8</v>
       </c>
@@ -12824,7 +13282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="191" ht="17.25" spans="1:16">
       <c r="A191" s="29">
         <v>8</v>
       </c>
@@ -12873,7 +13331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="192" ht="17.25" spans="1:16">
       <c r="A192" s="29">
         <v>8</v>
       </c>
@@ -12922,7 +13380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="193" ht="17.25" spans="1:16">
       <c r="A193" s="29">
         <v>8</v>
       </c>
@@ -12971,7 +13429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="194" ht="17.25" spans="1:16">
       <c r="A194" s="29">
         <v>8</v>
       </c>
@@ -13020,7 +13478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="195" ht="17.25" spans="1:16">
       <c r="A195" s="29">
         <v>8</v>
       </c>
@@ -13069,7 +13527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="196" ht="17.25" spans="1:16">
       <c r="A196" s="29">
         <v>8</v>
       </c>
@@ -13118,7 +13576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="197" ht="17.25" spans="1:16">
       <c r="A197" s="29">
         <v>8</v>
       </c>
@@ -13167,7 +13625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="198" ht="34.5" spans="1:16">
       <c r="A198" s="29">
         <v>8</v>
       </c>
@@ -13218,7 +13676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="199" ht="34.5" spans="1:16">
       <c r="A199" s="29">
         <v>8</v>
       </c>
@@ -13269,7 +13727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="200" ht="34.5" spans="1:16">
       <c r="A200" s="29">
         <v>8</v>
       </c>
@@ -13320,7 +13778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="201" ht="17.25" spans="1:16">
       <c r="A201" s="29">
         <v>8</v>
       </c>
@@ -13369,7 +13827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="202" ht="17.25" spans="1:16">
       <c r="A202" s="29">
         <v>8</v>
       </c>
@@ -13418,7 +13876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="203" ht="17.25" spans="1:16">
       <c r="A203" s="29">
         <v>8</v>
       </c>
@@ -13467,7 +13925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="204" ht="17.25" spans="1:16">
       <c r="A204" s="29">
         <v>8</v>
       </c>
@@ -13516,7 +13974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="205" ht="17.25" spans="1:16">
       <c r="A205" s="29">
         <v>8</v>
       </c>
@@ -13565,7 +14023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="206" ht="17.25" spans="1:16">
       <c r="A206" s="29">
         <v>8</v>
       </c>
@@ -13614,7 +14072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="207" ht="17.25" spans="1:16">
       <c r="A207" s="29">
         <v>8</v>
       </c>
@@ -13663,7 +14121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="208" ht="17.25" spans="1:16">
       <c r="A208" s="29">
         <v>8</v>
       </c>
@@ -13712,7 +14170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="209" ht="17.25" spans="1:16">
       <c r="A209" s="29">
         <v>8</v>
       </c>
@@ -13761,7 +14219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="210" ht="17.25" spans="1:16">
       <c r="A210" s="29">
         <v>8</v>
       </c>
@@ -13810,7 +14268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="211" ht="17.25" spans="1:16">
       <c r="A211" s="29">
         <v>8</v>
       </c>
@@ -13859,7 +14317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="212" ht="17.25" spans="1:16">
       <c r="A212" s="29">
         <v>8</v>
       </c>
@@ -13908,7 +14366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="213" ht="17.25" spans="1:16">
       <c r="A213" s="29">
         <v>8</v>
       </c>
@@ -13957,7 +14415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="214" ht="17.25" spans="1:16">
       <c r="A214" s="29">
         <v>8</v>
       </c>
@@ -14006,7 +14464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="215" ht="17.25" spans="1:16">
       <c r="A215" s="29">
         <v>8</v>
       </c>
@@ -14055,7 +14513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="216" ht="17.25" spans="1:16">
       <c r="A216" s="29">
         <v>8</v>
       </c>
@@ -14104,7 +14562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="217" ht="17.25" spans="1:16">
       <c r="A217" s="29">
         <v>8</v>
       </c>
@@ -14153,7 +14611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="218" ht="17.25" spans="1:16">
       <c r="A218" s="29">
         <v>8</v>
       </c>
@@ -14202,7 +14660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="219" ht="17.25" spans="1:16">
       <c r="A219" s="29">
         <v>8</v>
       </c>
@@ -14251,7 +14709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="220" ht="17.25" spans="1:16">
       <c r="A220" s="29">
         <v>8</v>
       </c>
@@ -14300,7 +14758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="221" ht="17.25" spans="1:16">
       <c r="A221" s="29">
         <v>8</v>
       </c>
@@ -14349,7 +14807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="222" ht="17.25" spans="1:16">
       <c r="A222" s="29">
         <v>8</v>
       </c>
@@ -14398,7 +14856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="223" ht="17.25" spans="1:16">
       <c r="A223" s="29">
         <v>8</v>
       </c>
@@ -14447,7 +14905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="224" ht="17.25" spans="1:16">
       <c r="A224" s="29">
         <v>8</v>
       </c>
@@ -14497,28 +14955,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:4">
       <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
@@ -14532,7 +14991,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -14546,7 +15005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" ht="45" spans="1:4">
       <c r="A3" s="24" t="s">
         <v>381</v>
       </c>
@@ -14560,7 +15019,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="25">
         <v>1</v>
       </c>
@@ -14575,7 +15034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="25">
         <v>2</v>
       </c>
@@ -14590,7 +15049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="25">
         <v>3</v>
       </c>
@@ -14605,7 +15064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="25">
         <v>4</v>
       </c>
@@ -14620,7 +15079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" ht="16.5" spans="1:4">
       <c r="A8" s="25">
         <v>5</v>
       </c>
@@ -14635,7 +15094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" ht="16.5" spans="1:4">
       <c r="A9" s="25">
         <v>6</v>
       </c>
@@ -14650,7 +15109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" ht="16.5" spans="1:4">
       <c r="A10" s="25">
         <v>7</v>
       </c>
@@ -14665,7 +15124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" ht="16.5" spans="1:4">
       <c r="A11" s="25">
         <v>8</v>
       </c>
@@ -14681,27 +15140,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:4">
       <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
@@ -14715,7 +15175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -14729,7 +15189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" ht="15" spans="1:4">
       <c r="A3" s="24" t="s">
         <v>393</v>
       </c>
@@ -14743,7 +15203,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="25">
         <v>1</v>
       </c>
@@ -14757,7 +15217,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="25">
         <v>1</v>
       </c>
@@ -14771,7 +15231,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="25">
         <v>2</v>
       </c>
@@ -14785,7 +15245,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="25">
         <v>2</v>
       </c>
@@ -14799,7 +15259,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:4">
       <c r="A8" s="25">
         <v>2</v>
       </c>
@@ -14813,7 +15273,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:4">
       <c r="A9" s="25">
         <v>2</v>
       </c>
@@ -14827,7 +15287,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:4">
       <c r="A10" s="25">
         <v>2</v>
       </c>
@@ -14841,7 +15301,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:4">
       <c r="A11" s="25">
         <v>3</v>
       </c>
@@ -14855,7 +15315,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:4">
       <c r="A12" s="25">
         <v>3</v>
       </c>
@@ -14869,7 +15329,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:4">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -14883,7 +15343,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:4">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -14897,7 +15357,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:4">
       <c r="A15" s="25">
         <v>4</v>
       </c>
@@ -14911,7 +15371,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:4">
       <c r="A16" s="25">
         <v>4</v>
       </c>
@@ -14925,7 +15385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:4">
       <c r="A17" s="25">
         <v>5</v>
       </c>
@@ -14939,7 +15399,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:4">
       <c r="A18" s="25">
         <v>6</v>
       </c>
@@ -14953,7 +15413,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:4">
       <c r="A19" s="25">
         <v>6</v>
       </c>
@@ -14967,7 +15427,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:4">
       <c r="A20" s="25">
         <v>7</v>
       </c>
@@ -14981,7 +15441,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:4">
       <c r="A21" s="25">
         <v>7</v>
       </c>
@@ -14995,7 +15455,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:4">
       <c r="A22" s="25">
         <v>8</v>
       </c>
@@ -15009,7 +15469,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:4">
       <c r="A23" s="25">
         <v>8</v>
       </c>
@@ -15023,7 +15483,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:4">
       <c r="A24" s="25">
         <v>8</v>
       </c>
@@ -15037,7 +15497,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:4">
       <c r="A25" s="25">
         <v>8</v>
       </c>
@@ -15051,7 +15511,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:4">
       <c r="A26" s="25">
         <v>8</v>
       </c>
@@ -15066,20 +15526,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="32.875" customWidth="1"/>
@@ -15090,7 +15551,7 @@
     <col min="11" max="11" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>381</v>
       </c>
@@ -15110,7 +15571,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>417</v>
       </c>
@@ -15130,7 +15591,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="37.5" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>418</v>
       </c>
@@ -15150,7 +15611,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1010101</v>
       </c>
@@ -15167,7 +15628,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1010102</v>
       </c>
@@ -15187,7 +15648,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1010103</v>
       </c>
@@ -15211,7 +15672,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1010104</v>
       </c>
@@ -15234,7 +15695,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1010105</v>
       </c>
@@ -15263,7 +15724,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1010201</v>
       </c>
@@ -15286,7 +15747,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1010202</v>
       </c>
@@ -15309,12 +15770,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>1010203</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>757</v>
+        <v>448</v>
       </c>
       <c r="C11" t="s">
         <v>431</v>
@@ -15330,15 +15791,15 @@
         <v>1010104</v>
       </c>
       <c r="J11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>1010204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>432</v>
@@ -15347,21 +15808,21 @@
         <v>436</v>
       </c>
       <c r="F12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I12">
         <v>10102</v>
       </c>
       <c r="J12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>1010301</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C13" t="s">
         <v>425</v>
@@ -15373,18 +15834,18 @@
         <v>1010201</v>
       </c>
       <c r="J13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>1010302</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C14" t="s">
         <v>429</v>
@@ -15396,13 +15857,13 @@
         <v>1010202</v>
       </c>
       <c r="J14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K14" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>1010303</v>
       </c>
@@ -15413,28 +15874,28 @@
         <v>431</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>740</v>
+        <v>457</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>741</v>
+        <v>458</v>
       </c>
       <c r="I15">
         <v>1010203</v>
       </c>
       <c r="J15" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K15" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>1010304</v>
       </c>
       <c r="B16" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>432</v>
@@ -15443,73 +15904,73 @@
         <v>436</v>
       </c>
       <c r="F16" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I16">
         <v>1010204</v>
       </c>
       <c r="J16" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1010305</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>743</v>
+        <v>463</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>744</v>
+        <v>431</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>745</v>
+        <v>457</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>746</v>
+        <v>458</v>
       </c>
       <c r="I17">
         <v>10103</v>
       </c>
       <c r="J17" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>1010306</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>747</v>
+        <v>465</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>748</v>
+        <v>431</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>745</v>
+        <v>457</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>742</v>
+        <v>458</v>
       </c>
       <c r="G18" s="3"/>
       <c r="I18">
         <v>1010301</v>
       </c>
       <c r="J18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K18" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>1010401</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>734</v>
+        <v>466</v>
       </c>
       <c r="C19" t="s">
         <v>425</v>
@@ -15522,21 +15983,21 @@
         <v>1010302</v>
       </c>
       <c r="J19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K19" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>1010402</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C20" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F20" t="s">
         <v>429</v>
@@ -15552,18 +16013,18 @@
         <v>433</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" s="7" customFormat="1" spans="1:11">
       <c r="A21" s="3">
         <v>1010403</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>431</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -15575,18 +16036,18 @@
         <v>1010304</v>
       </c>
       <c r="J21" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K21" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>1010404</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>735</v>
+        <v>470</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>431</v>
@@ -15594,49 +16055,49 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="G22" s="3"/>
       <c r="I22">
         <v>10104</v>
       </c>
       <c r="J22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>1010405</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>736</v>
+        <v>473</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>431</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="I23">
         <v>1010401</v>
       </c>
       <c r="J23" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K23" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>1010501</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -15650,24 +16111,24 @@
         <v>1010402</v>
       </c>
       <c r="J24" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K24" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>1010502</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -15675,46 +16136,46 @@
         <v>1010403</v>
       </c>
       <c r="J25" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K25" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>1010503</v>
       </c>
       <c r="B26" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C26" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D26" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="I26">
         <v>10105</v>
       </c>
       <c r="J26" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="27" s="7" customFormat="1" spans="1:11">
       <c r="A27">
         <v>1010504</v>
       </c>
       <c r="B27" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C27" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -15722,33 +16183,33 @@
         <v>1010501</v>
       </c>
       <c r="J27" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="K27" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>1010505</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C28" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="F28" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="I28">
         <v>1010502</v>
       </c>
       <c r="J28" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>1010506</v>
       </c>
@@ -15756,7 +16217,7 @@
         <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D29" t="s">
         <v>440</v>
@@ -15765,10 +16226,10 @@
         <v>1010502</v>
       </c>
       <c r="J29" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1010507</v>
       </c>
@@ -15776,7 +16237,7 @@
         <v>231</v>
       </c>
       <c r="C30" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>440</v>
@@ -15785,15 +16246,15 @@
         <v>10201</v>
       </c>
       <c r="J30" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>1020101</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C31" t="s">
         <v>432</v>
@@ -15805,18 +16266,18 @@
         <v>1020101</v>
       </c>
       <c r="J31" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="K31" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>1020201</v>
       </c>
       <c r="B32" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C32" t="s">
         <v>425</v>
@@ -15825,15 +16286,15 @@
         <v>10202</v>
       </c>
       <c r="J32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" s="7" customFormat="1" spans="1:11">
       <c r="A33">
         <v>1020202</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C33" t="s">
         <v>432</v>
@@ -15847,11 +16308,11 @@
         <v>1020201</v>
       </c>
       <c r="J33" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>1020203</v>
       </c>
@@ -15868,15 +16329,15 @@
         <v>1020202</v>
       </c>
       <c r="J34" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" s="7" customFormat="1" spans="1:11">
       <c r="A35">
         <v>1020204</v>
       </c>
       <c r="B35" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C35" t="s">
         <v>432</v>
@@ -15894,32 +16355,32 @@
       </c>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+    <row r="36" spans="1:10">
+      <c r="A36" s="9">
         <v>1020205</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="C36" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
       <c r="I36">
         <v>1020204</v>
       </c>
       <c r="J36" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>1020206</v>
       </c>
       <c r="B37" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C37" t="s">
         <v>431</v>
@@ -15931,7 +16392,7 @@
         <v>432</v>
       </c>
       <c r="F37" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="I37">
         <v>103</v>
@@ -15940,12 +16401,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" s="7" customFormat="1" spans="1:11">
       <c r="A38">
         <v>1020207</v>
       </c>
       <c r="B38" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C38" t="s">
         <v>431</v>
@@ -15955,7 +16416,7 @@
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -15963,16 +16424,16 @@
         <v>10301</v>
       </c>
       <c r="J38" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="3">
         <v>1030101</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>425</v>
@@ -15984,106 +16445,106 @@
         <v>1030101</v>
       </c>
       <c r="J39" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="40" s="7" customFormat="1" spans="1:11">
+      <c r="A40" s="10">
         <v>1030102</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="C40" s="12" t="s">
+      <c r="B40" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40">
         <v>1030102</v>
       </c>
       <c r="J40" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+    <row r="41" spans="1:10">
+      <c r="A41" s="10">
         <v>1030103</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="B41" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="I41">
         <v>1030103</v>
       </c>
       <c r="J41" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="10">
         <v>1030104</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="C42" s="12" t="s">
+      <c r="B42" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
       <c r="I42">
         <v>1030104</v>
       </c>
       <c r="J42" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="10">
         <v>1030105</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="C43" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="I43">
         <v>10302</v>
       </c>
       <c r="J43" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>1030106</v>
       </c>
       <c r="B44" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C44" t="s">
         <v>431</v>
       </c>
       <c r="D44" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="E44" t="s">
         <v>432</v>
@@ -16095,64 +16556,64 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>1030107</v>
       </c>
       <c r="B45" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C45" t="s">
         <v>431</v>
       </c>
       <c r="D45" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="I45">
         <v>1030202</v>
       </c>
       <c r="J45" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>1030108</v>
       </c>
       <c r="B46" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C46" t="s">
         <v>432</v>
       </c>
       <c r="D46" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="I46">
         <v>1030203</v>
       </c>
       <c r="J46" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>1030109</v>
       </c>
       <c r="B47" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C47" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="I47">
         <v>1030204</v>
       </c>
       <c r="J47" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>1030201</v>
       </c>
@@ -16169,12 +16630,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>1030202</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C49" t="s">
         <v>432</v>
@@ -16183,15 +16644,15 @@
         <v>10401</v>
       </c>
       <c r="J49" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="50" s="7" customFormat="1" spans="1:11">
       <c r="A50">
         <v>1030203</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C50" t="s">
         <v>431</v>
@@ -16207,16 +16668,16 @@
         <v>1040101</v>
       </c>
       <c r="J50" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" s="7" customFormat="1" spans="1:11">
       <c r="A51">
         <v>1030204</v>
       </c>
       <c r="B51" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C51" t="s">
         <v>432</v>
@@ -16232,16 +16693,16 @@
         <v>1040102</v>
       </c>
       <c r="J51" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:11" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1" spans="1:11">
       <c r="A52" s="3">
         <v>1030205</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>425</v>
@@ -16261,105 +16722,105 @@
       </c>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="11">
+    <row r="53" s="7" customFormat="1" spans="1:11">
+      <c r="A53" s="9">
         <v>1030205</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="B53" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53">
         <v>10402</v>
       </c>
       <c r="J53" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12">
+    <row r="54" s="7" customFormat="1" spans="1:11">
+      <c r="A54" s="10">
         <v>1030301</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="C54" s="12">
+      <c r="B54" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C54" s="10">
         <v>1</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54">
         <v>1040201</v>
       </c>
       <c r="J54" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+    <row r="55" spans="1:10">
+      <c r="A55" s="11">
         <v>1030302</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
       <c r="I55">
         <v>1040202</v>
       </c>
       <c r="J55" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="56" s="7" customFormat="1" spans="1:11">
+      <c r="A56" s="11">
         <v>1030303</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="C56" s="13" t="s">
+      <c r="B56" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56">
         <v>1040203</v>
       </c>
       <c r="J56" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="K56"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="3">
         <v>1040101</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
@@ -16373,15 +16834,15 @@
         <v>1040204</v>
       </c>
       <c r="J57" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="58" s="7" customFormat="1" spans="1:11">
       <c r="A58" s="3">
         <v>1040102</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>739</v>
+        <v>528</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>431</v>
@@ -16397,11 +16858,11 @@
         <v>10403</v>
       </c>
       <c r="J58" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="K58"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="3">
         <v>1040103</v>
       </c>
@@ -16418,25 +16879,25 @@
         <v>1040301</v>
       </c>
       <c r="J59" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="60" s="7" customFormat="1" spans="1:11">
       <c r="A60" s="3">
         <v>1040104</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>751</v>
+        <v>531</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>431</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -16444,28 +16905,28 @@
         <v>1040302</v>
       </c>
       <c r="J60" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" s="8" customFormat="1" spans="1:11">
       <c r="A61" s="3">
         <v>1040105</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -16473,16 +16934,16 @@
         <v>1040303</v>
       </c>
       <c r="J61" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" s="7" customFormat="1" spans="1:11">
       <c r="A62" s="3">
         <v>1040201</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>425</v>
@@ -16490,7 +16951,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -16498,16 +16959,16 @@
         <v>1040304</v>
       </c>
       <c r="J62" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" s="3">
         <v>1040202</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>432</v>
@@ -16515,21 +16976,21 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="I63">
         <v>10404</v>
       </c>
       <c r="J63" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="3">
         <v>1040203</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>738</v>
+        <v>545</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>431</v>
@@ -16539,21 +17000,21 @@
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="I64">
         <v>1040401</v>
       </c>
       <c r="J64" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="3">
         <v>1040204</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>725</v>
+        <v>527</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>431</v>
@@ -16567,25 +17028,25 @@
         <v>105</v>
       </c>
       <c r="J65" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="9">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="12">
         <v>1040205</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10" t="s">
-        <v>724</v>
+      <c r="B66" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13" t="s">
+        <v>549</v>
       </c>
       <c r="I66">
         <v>1050101</v>
@@ -16594,12 +17055,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="3">
         <v>1040301</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>432</v>
@@ -16611,15 +17072,15 @@
         <v>20</v>
       </c>
       <c r="J67" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="3">
         <v>1040302</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>425</v>
@@ -16631,15 +17092,15 @@
         <v>201</v>
       </c>
       <c r="J68" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="69" s="5" customFormat="1" spans="1:11">
       <c r="A69" s="3">
         <v>1040303</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>431</v>
@@ -16655,16 +17116,16 @@
         <v>2010101</v>
       </c>
       <c r="J69" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="K69"/>
     </row>
-    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" s="5" customFormat="1" spans="1:11">
       <c r="A70">
         <v>1040304</v>
       </c>
       <c r="B70" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C70" t="s">
         <v>431</v>
@@ -16680,16 +17141,16 @@
         <v>2010102</v>
       </c>
       <c r="J70" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K70"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>1040401</v>
       </c>
       <c r="B71" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="C71" t="s">
         <v>431</v>
@@ -16701,12 +17162,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" s="7" customFormat="1" spans="1:11">
       <c r="A72" s="3">
         <v>1040501</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>737</v>
+        <v>555</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>431</v>
@@ -16722,16 +17183,16 @@
         <v>2020101</v>
       </c>
       <c r="J72" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="K72"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" s="3">
         <v>1040502</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>720</v>
+        <v>557</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>431</v>
@@ -16745,10 +17206,10 @@
         <v>2020102</v>
       </c>
       <c r="J73" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>1050101</v>
       </c>
@@ -16765,12 +17226,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>1060101</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="C75" t="s">
         <v>431</v>
@@ -16779,21 +17240,21 @@
         <v>440</v>
       </c>
       <c r="F75" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="I75">
         <v>203</v>
       </c>
       <c r="J75" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>1060102</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>752</v>
+        <v>562</v>
       </c>
       <c r="C76" t="s">
         <v>431</v>
@@ -16802,30 +17263,30 @@
         <v>440</v>
       </c>
       <c r="E76" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="F76" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="I76">
         <v>2030101</v>
       </c>
       <c r="J76" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>1060103</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>753</v>
+        <v>566</v>
       </c>
       <c r="C77" t="s">
         <v>431</v>
       </c>
       <c r="F77" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="I77">
         <v>2030102</v>
@@ -16834,45 +17295,45 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>1060104</v>
       </c>
       <c r="B78" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="C78" t="s">
         <v>431</v>
       </c>
       <c r="D78" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="F78" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="I78">
         <v>2030103</v>
       </c>
       <c r="J78" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="9">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="79" s="7" customFormat="1" spans="1:11">
+      <c r="A79" s="12">
         <v>1060105</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>728</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="10" t="s">
-        <v>729</v>
+      <c r="B79" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="13" t="s">
+        <v>572</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
@@ -16880,56 +17341,56 @@
         <v>204</v>
       </c>
       <c r="J79" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="K79"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>1060201</v>
       </c>
       <c r="B80" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="C80" t="s">
         <v>425</v>
       </c>
       <c r="F80" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="I80">
         <v>2040101</v>
       </c>
       <c r="J80" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>1060202</v>
       </c>
       <c r="B81" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="C81" t="s">
         <v>432</v>
       </c>
       <c r="F81" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="I81">
         <v>2040102</v>
       </c>
       <c r="J81" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>1060203</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="C82" t="s">
         <v>431</v>
@@ -16938,7 +17399,7 @@
         <v>432</v>
       </c>
       <c r="F82" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="I82">
         <v>2040201</v>
@@ -16947,7 +17408,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>2010101</v>
       </c>
@@ -16958,19 +17419,19 @@
         <v>431</v>
       </c>
       <c r="D83" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="F83" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="I83">
         <v>30</v>
       </c>
       <c r="J83" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>2010102</v>
       </c>
@@ -16981,10 +17442,10 @@
         <v>431</v>
       </c>
       <c r="D84" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="F84" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="I84">
         <v>301</v>
@@ -16993,7 +17454,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>2010103</v>
       </c>
@@ -17004,7 +17465,7 @@
         <v>431</v>
       </c>
       <c r="F85" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="I85">
         <v>3010101</v>
@@ -17013,7 +17474,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>2020101</v>
       </c>
@@ -17030,41 +17491,41 @@
         <v>425</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>2020102</v>
       </c>
       <c r="B87" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="C87" t="s">
         <v>425</v>
       </c>
       <c r="F87" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="I87">
         <v>3010201</v>
       </c>
       <c r="J87" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>2030101</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>758</v>
+        <v>199</v>
       </c>
       <c r="C88" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="D88" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="F88" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="I88">
         <v>3010202</v>
@@ -17073,71 +17534,71 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>2030102</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="C89" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="D89" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="F89" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" spans="1:10">
       <c r="A90" s="15">
         <v>2040101</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="I90">
         <v>40</v>
       </c>
       <c r="J90" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>2040102</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="F91" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="I91">
         <v>401</v>
       </c>
       <c r="J91" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>2040201</v>
       </c>
@@ -17148,16 +17609,16 @@
         <v>425</v>
       </c>
       <c r="F92" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="I92">
         <v>4010101</v>
       </c>
       <c r="J92" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>2040301</v>
       </c>
@@ -17165,19 +17626,19 @@
         <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="F93" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="I93">
         <v>4010102</v>
       </c>
       <c r="J93" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>3010101</v>
       </c>
@@ -17185,30 +17646,30 @@
         <v>219</v>
       </c>
       <c r="C94" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="F94" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="I94">
         <v>4010103</v>
       </c>
       <c r="J94" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>3010201</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="C95" t="s">
         <v>425</v>
       </c>
       <c r="F95" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
       <c r="I95">
         <v>402</v>
@@ -17217,7 +17678,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>3010202</v>
       </c>
@@ -17228,16 +17689,16 @@
         <v>425</v>
       </c>
       <c r="F96" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="I96">
         <v>4020101</v>
       </c>
       <c r="J96" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>3010203</v>
       </c>
@@ -17248,38 +17709,38 @@
         <v>425</v>
       </c>
       <c r="F97" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="I97">
         <v>403</v>
       </c>
       <c r="J97" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>3020101</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>750</v>
+        <v>616</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="I98">
         <v>4030101</v>
       </c>
       <c r="J98" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>3020201</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>749</v>
+        <v>618</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>425</v>
@@ -17288,15 +17749,15 @@
         <v>404</v>
       </c>
       <c r="J99" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>3020202</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="C100" t="s">
         <v>425</v>
@@ -17305,15 +17766,15 @@
         <v>4040101</v>
       </c>
       <c r="J100" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>3020203</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="C101" t="s">
         <v>425</v>
@@ -17322,114 +17783,114 @@
         <v>405</v>
       </c>
       <c r="J101" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>4010101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="C102" t="s">
         <v>425</v>
       </c>
       <c r="F102" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="I102">
         <v>4050101</v>
       </c>
       <c r="J102" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>4010102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C103" t="s">
         <v>425</v>
       </c>
       <c r="D103" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="F103" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="I103">
         <v>4050102</v>
       </c>
       <c r="J103" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>4010103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="C104" t="s">
         <v>425</v>
       </c>
       <c r="D104" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="F104" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="I104">
         <v>406</v>
       </c>
       <c r="J104" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="3">
         <v>4010104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>754</v>
+        <v>632</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="4" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="I105">
         <v>4060101</v>
       </c>
       <c r="J105" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>4010105</v>
       </c>
       <c r="B106" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="C106" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="D106" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="F106" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="I106">
         <v>4060102</v>
@@ -17438,21 +17899,21 @@
         <v>234</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" s="3">
         <v>4010106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>730</v>
+        <v>640</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>731</v>
+        <v>425</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>732</v>
+        <v>641</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>733</v>
+        <v>642</v>
       </c>
       <c r="I107">
         <v>4060103</v>
@@ -17461,12 +17922,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>4020101</v>
       </c>
       <c r="B108" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="C108" t="s">
         <v>425</v>
@@ -17475,30 +17936,30 @@
         <v>4060104</v>
       </c>
       <c r="J108" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>4030101</v>
       </c>
       <c r="B109" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="C109" t="s">
         <v>431</v>
       </c>
       <c r="D109" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="I109">
         <v>4060105</v>
       </c>
       <c r="J109" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>4030102</v>
       </c>
@@ -17509,82 +17970,82 @@
         <v>431</v>
       </c>
       <c r="D110" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="I110">
         <v>407</v>
       </c>
       <c r="J110" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>4030201</v>
       </c>
       <c r="B111" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="C111" t="s">
         <v>431</v>
       </c>
       <c r="D111" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="F111" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="I111">
         <v>4070101</v>
       </c>
       <c r="J111" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>4030202</v>
       </c>
       <c r="B112" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="C112" t="s">
         <v>431</v>
       </c>
       <c r="D112" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="F112" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="I112">
         <v>408</v>
       </c>
       <c r="J112" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>4040101</v>
       </c>
       <c r="B113" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="C113" t="s">
         <v>431</v>
       </c>
       <c r="D113" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="I113">
         <v>4080101</v>
       </c>
       <c r="J113" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>4040102</v>
       </c>
@@ -17595,56 +18056,56 @@
         <v>431</v>
       </c>
       <c r="D114" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="I114">
         <v>50</v>
       </c>
       <c r="J114" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>4050102</v>
       </c>
       <c r="B115" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="I115">
         <v>501</v>
       </c>
       <c r="J115" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>4060101</v>
       </c>
       <c r="B116" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="C116" t="s">
         <v>425</v>
       </c>
       <c r="F116" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="I116">
         <v>5010101</v>
       </c>
       <c r="J116" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>4060102</v>
       </c>
@@ -17655,10 +18116,10 @@
         <v>425</v>
       </c>
       <c r="F117" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>4060103</v>
       </c>
@@ -17669,15 +18130,15 @@
         <v>425</v>
       </c>
       <c r="F118" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>4060104</v>
       </c>
       <c r="B119" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="C119" t="s">
         <v>425</v>
@@ -17686,15 +18147,15 @@
         <v>440</v>
       </c>
       <c r="F119" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>4060105</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="C120" t="s">
         <v>425</v>
@@ -17703,72 +18164,72 @@
         <v>440</v>
       </c>
       <c r="F120" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>4060106</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="C121" t="s">
         <v>425</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>4070101</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>4080101</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>755</v>
+        <v>651</v>
       </c>
       <c r="C123" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>4090101</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>4090102</v>
       </c>
       <c r="B125" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="C125" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>4090103</v>
       </c>
@@ -17779,7 +18240,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>4100101</v>
       </c>
@@ -17787,15 +18248,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>4100102</v>
       </c>
       <c r="B128" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>4110101</v>
       </c>
@@ -17806,62 +18267,62 @@
         <v>431</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>5010101</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>756</v>
+        <v>667</v>
       </c>
       <c r="C130" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>5010102</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="11">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="9">
         <v>5020101</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B132" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="3">
         <v>5030101</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="134" ht="16.5" spans="1:6">
       <c r="A134" s="16">
         <v>90101</v>
       </c>
@@ -17869,63 +18330,63 @@
         <v>241</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="135" ht="16.5" spans="1:6">
       <c r="A135" s="16">
         <v>90102</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>652</v>
+        <v>678</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="136" ht="16.5" spans="1:6">
       <c r="A136" s="16">
         <v>90103</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>654</v>
+        <v>680</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>431</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="137" ht="16.5" spans="1:6">
       <c r="A137" s="16">
         <v>90104</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>431</v>
       </c>
       <c r="F137" s="17" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="138" ht="16.5" spans="1:6">
       <c r="A138" s="18">
         <v>90105</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="C138" s="19" t="s">
         <v>425</v>
@@ -17933,15 +18394,15 @@
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
       <c r="F138" s="21" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="139" ht="16.5" spans="1:6">
       <c r="A139" s="18">
         <v>90106</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="C139" s="19" t="s">
         <v>425</v>
@@ -17949,46 +18410,46 @@
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
       <c r="F139" s="22" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="140" ht="16.5" spans="1:6">
       <c r="A140" s="16">
         <v>90201</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>431</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="141" ht="16.5" spans="1:6">
       <c r="A141" s="16">
         <v>90202</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>431</v>
       </c>
       <c r="F141" s="17" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="142" ht="16.5" spans="1:6">
       <c r="A142" s="16">
         <v>90203</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>431</v>
@@ -17997,71 +18458,71 @@
         <v>432</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="143" ht="16.5" spans="1:6">
       <c r="A143" s="16">
         <v>90204</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>431</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="144" ht="16.5" spans="1:6">
       <c r="A144" s="16">
         <v>90205</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>431</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="145" ht="16.5" spans="1:6">
       <c r="A145" s="16">
         <v>90206</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="146" ht="16.5" spans="1:6">
       <c r="A146" s="16">
         <v>90207</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>425</v>
       </c>
       <c r="F146" s="17" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="147" ht="16.5" spans="1:6">
       <c r="A147" s="18">
         <v>90208</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>425</v>
@@ -18069,15 +18530,15 @@
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="F147" s="22" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="148" ht="16.5" spans="1:6">
       <c r="A148" s="18">
         <v>90209</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="C148" s="19" t="s">
         <v>425</v>
@@ -18085,29 +18546,29 @@
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
       <c r="F148" s="22" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="149" ht="16.5" spans="1:6">
       <c r="A149" s="16">
         <v>90301</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="C149" t="s">
         <v>429</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="150" ht="16.5" spans="1:6">
       <c r="A150" s="16">
         <v>90302</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="C150" t="s">
         <v>431</v>
@@ -18116,29 +18577,29 @@
         <v>432</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="151" ht="16.5" spans="1:6">
       <c r="A151" s="16">
         <v>90303</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="152" ht="16.5" spans="1:6">
       <c r="A152" s="18">
         <v>90304</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>425</v>
@@ -18146,15 +18607,15 @@
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
       <c r="F152" s="22" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="153" ht="16.5" spans="1:6">
       <c r="A153" s="18">
         <v>90305</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="C153" s="19" t="s">
         <v>425</v>
@@ -18162,57 +18623,57 @@
       <c r="D153" s="20"/>
       <c r="E153" s="20"/>
       <c r="F153" s="22" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="154" ht="16.5" spans="1:6">
       <c r="A154" s="16">
         <v>90401</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>432</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="155" ht="16.5" spans="1:6">
       <c r="A155" s="16">
         <v>90402</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>695</v>
+        <v>721</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="156" ht="16.5" spans="1:6">
       <c r="A156" s="16">
         <v>90501</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="F156" s="17" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="157" ht="16.5" spans="1:6">
       <c r="A157" s="18">
         <v>90502</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
       <c r="C157" s="19">
         <v>1</v>
@@ -18220,25 +18681,26 @@
       <c r="D157" s="20"/>
       <c r="E157" s="20"/>
       <c r="F157" s="19" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="4" width="12.5" customWidth="1"/>
@@ -18246,7 +18708,7 @@
     <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>381</v>
       </c>
@@ -18266,7 +18728,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>417</v>
       </c>
@@ -18286,7 +18748,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="28.5" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>418</v>
       </c>
@@ -18306,21 +18768,21 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>5040001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>5040002</v>
       </c>
@@ -18331,151 +18793,163 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>700</v>
+        <v>726</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>5040003</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>5040004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>705</v>
+        <v>730</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>5040005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>707</v>
+        <v>732</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>708</v>
+        <v>733</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>5040006</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>5040007</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>5040008</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>5040009</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>5040010</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>719</v>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>5040011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>